--- a/data/z1-pXRF.xlsx
+++ b/data/z1-pXRF.xlsx
@@ -773,61 +773,61 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.741493281657165</v>
+        <v>-0.738933431754427</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134124820920758</v>
+        <v>0.129981006541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.294655998292204</v>
+        <v>0.288654071614912</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.495786800784839</v>
+        <v>-0.491458120365534</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>-0.447185177970473</v>
+        <v>-0.444645858681152</v>
       </c>
       <c r="H2" t="n">
         <v>0.459447221846831</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.571717893410457</v>
+        <v>-0.570275286440014</v>
       </c>
       <c r="J2" t="n">
-        <v>0.337577766362493</v>
+        <v>0.331957142335282</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>0.452158999174652</v>
+        <v>0.44765382821751</v>
       </c>
       <c r="M2" t="n">
-        <v>0.482022586833526</v>
+        <v>0.472808810823647</v>
       </c>
       <c r="N2" t="n">
         <v>-0.0967562420499625</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.331572761777765</v>
+        <v>-0.324806275413786</v>
       </c>
       <c r="P2" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.631701079765754</v>
+        <v>0.670016516079756</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.543127972141032</v>
+        <v>-0.534833115954804</v>
       </c>
       <c r="T2" t="n">
         <v>0.33483963863177</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.586326750301681</v>
+        <v>-0.587399124836968</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.182988529454777</v>
+        <v>-0.666267491292433</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
@@ -838,60 +838,60 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.480558595982008</v>
+        <v>-0.475901348179327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0664690076850126</v>
+        <v>0.0622823061569995</v>
       </c>
       <c r="D3" t="n">
-        <v>0.302082853950202</v>
+        <v>0.29613322124378</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.603655276365199</v>
+        <v>-0.599568495003342</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>-0.456729401273473</v>
+        <v>-0.454177584807678</v>
       </c>
       <c r="H3" t="n">
         <v>-0.254555730224747</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.516813656414449</v>
+        <v>-0.514316871562106</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0481940358827131</v>
+        <v>-0.0563935948106807</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.792123570855073</v>
+        <v>-0.793931013460443</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.29382547196379</v>
+        <v>-0.300293204283814</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0867169225418041</v>
+        <v>-0.101622753630961</v>
       </c>
       <c r="N3" t="n">
         <v>-0.330356990119437</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.593636558857208</v>
+        <v>-0.599473997091446</v>
       </c>
       <c r="Q3"/>
       <c r="R3" t="n">
-        <v>-0.340051268871939</v>
+        <v>-0.34348672790591</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.50177761345436</v>
+        <v>-0.493268290510743</v>
       </c>
       <c r="T3" t="n">
         <v>-0.318359835388147</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.071948251166254</v>
+        <v>-0.0701679786741272</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -903,58 +903,58 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.247202586357193</v>
+        <v>-0.24066961857018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227927667535419</v>
+        <v>0.223843314957938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.595664932044651</v>
+        <v>0.591782469261363</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.652963100981503</v>
+        <v>-0.64898689424523</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>-0.214544734959857</v>
+        <v>-0.212310034347086</v>
       </c>
       <c r="H4" t="n">
         <v>-0.431646275301959</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.748950496148379</v>
+        <v>-0.750910808514956</v>
       </c>
       <c r="J4" t="n">
-        <v>0.212819970405399</v>
+        <v>0.206365324212072</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>-0.226195011668272</v>
+        <v>-0.232484819469134</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.142465278425532</v>
+        <v>-0.15792904984948</v>
       </c>
       <c r="N4" t="n">
         <v>-0.447157364154174</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.780905407853033</v>
+        <v>-0.774033575004585</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="Q4"/>
       <c r="R4" t="n">
-        <v>-0.825927443190785</v>
+        <v>-0.850238349898743</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.571246216047969</v>
+        <v>-0.563097197256766</v>
       </c>
       <c r="T4" t="n">
         <v>-0.971559309408064</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.890892966895025</v>
+        <v>-0.893654408749177</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -966,58 +966,58 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.677860275546721</v>
+        <v>-0.674788942346783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.380699799016911</v>
+        <v>0.376712288983163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.698008020389358</v>
+        <v>0.694846175688208</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.63129200769335</v>
+        <v>-0.627267202726573</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>-0.528907590002408</v>
+        <v>-0.526261263639529</v>
       </c>
       <c r="H5" t="n">
         <v>-0.0252138256612147</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.487442667120092</v>
+        <v>-0.48438195042974</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0157110152763733</v>
+        <v>-0.023693420967541</v>
       </c>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>-0.416789945228368</v>
+        <v>-0.423581176674143</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0647847270728159</v>
+        <v>-0.0794710565051317</v>
       </c>
       <c r="N5" t="n">
         <v>-0.914358860293123</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.556239084815399</v>
+        <v>-0.549419925209186</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.750106258875482</v>
+        <v>-0.756181780716559</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>-0.663968718417836</v>
+        <v>-0.681321142567799</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.592748402565039</v>
+        <v>-0.584710906487677</v>
       </c>
       <c r="T5" t="n">
         <v>-0.808259440903085</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.28344497939311</v>
+        <v>-1.28838344134713</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -1029,58 +1029,58 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.270162949386735</v>
+        <v>-0.263814537428608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.679714590991179</v>
+        <v>0.675916627000861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.569052880418063</v>
+        <v>0.564983036875457</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.66440738620109</v>
+        <v>-0.660456843698903</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>-0.62315679511953</v>
+        <v>-0.620387059138971</v>
       </c>
       <c r="H6" t="n">
         <v>0.0886406991285773</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.706850950241626</v>
+        <v>-0.708002938650687</v>
       </c>
       <c r="J6" t="n">
-        <v>0.425540636323024</v>
+        <v>0.420508055574228</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>-0.256936129984416</v>
+        <v>-0.263306812566716</v>
       </c>
       <c r="M6" t="n">
-        <v>0.405211593891474</v>
+        <v>0.395229078598825</v>
       </c>
       <c r="N6" t="n">
         <v>0.0200441319847748</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.681053708725195</v>
+        <v>-0.67420528620663</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.385010292166177</v>
+        <v>-0.390530285591295</v>
       </c>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>-0.340051268871939</v>
+        <v>-0.34348672790591</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.62169365364571</v>
+        <v>-0.61380628429852</v>
       </c>
       <c r="T6" t="n">
         <v>-0.318359835388147</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.728457651378575</v>
+        <v>-0.730318257329332</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1092,63 +1092,63 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.35646767396292</v>
+        <v>-0.350812981000461</v>
       </c>
       <c r="C7" t="n">
-        <v>1.39907865257599</v>
+        <v>1.3957366948279</v>
       </c>
       <c r="D7" t="n">
-        <v>1.35392146028911</v>
+        <v>1.35537803284265</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.468637060317096</v>
+        <v>-0.464247495597778</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>-0.484765557226035</v>
+        <v>-0.482177030304347</v>
       </c>
       <c r="H7" t="n">
         <v>0.854746569324297</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.287897023072047</v>
+        <v>-0.2810049699331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.929458646260317</v>
+        <v>0.92779482324701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.484606247175166</v>
+        <v>0.479973872127973</v>
       </c>
       <c r="L7" t="n">
-        <v>0.532085906796628</v>
+        <v>0.527791010271223</v>
       </c>
       <c r="M7" t="n">
-        <v>0.964869048755416</v>
+        <v>0.960487693582825</v>
       </c>
       <c r="N7" t="n">
         <v>-0.447157364154174</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.231721062649927</v>
+        <v>-0.22497798661583</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>-0.17809254409899</v>
+        <v>-0.174569520574966</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.471178348026222</v>
+        <v>-0.462510319682138</v>
       </c>
       <c r="T7" t="n">
         <v>0.25318970437928</v>
       </c>
       <c r="U7" t="n">
-        <v>0.131095893229309</v>
+        <v>0.134002210600679</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.229132209065122</v>
+        <v>-0.959314603645122</v>
       </c>
       <c r="W7"/>
       <c r="X7"/>
@@ -1159,60 +1159,60 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.455472759346303</v>
+        <v>-0.450613871118004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0462830315257045</v>
+        <v>0.0420835340691405</v>
       </c>
       <c r="D8" t="n">
-        <v>0.316992521028006</v>
+        <v>0.311147870258994</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.711158508800252</v>
+        <v>-0.707312807424545</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>-0.635683588204717</v>
+        <v>-0.632897449680036</v>
       </c>
       <c r="H8" t="n">
         <v>-0.0725666201956914</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.67297956742636</v>
+        <v>-0.673481215086749</v>
       </c>
       <c r="J8" t="n">
-        <v>0.269449661196983</v>
+        <v>0.263373591885511</v>
       </c>
       <c r="K8"/>
       <c r="L8" t="n">
-        <v>-0.357357116483822</v>
+        <v>-0.363991990018817</v>
       </c>
       <c r="M8" t="n">
-        <v>0.220237196422847</v>
+        <v>0.208403421561817</v>
       </c>
       <c r="N8" t="n">
         <v>0.19524469303688</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="Q8" t="n">
         <v>-0.435146090807585</v>
       </c>
       <c r="R8" t="n">
-        <v>0.577714838174772</v>
+        <v>0.613710780302775</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.555533079747034</v>
+        <v>-0.547302563588022</v>
       </c>
       <c r="T8" t="n">
         <v>0.00823990162181104</v>
       </c>
       <c r="U8" t="n">
-        <v>0.124327755082791</v>
+        <v>0.127196537624852</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1224,62 +1224,62 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.324034521157762</v>
+        <v>-0.318119129904441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0875877654141369</v>
+        <v>0.0834144511066799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212530744065795</v>
+        <v>0.205950557105831</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.588923802837859</v>
+        <v>-0.584803985600211</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>-0.598103208949156</v>
+        <v>-0.595366278056841</v>
       </c>
       <c r="H9" t="n">
         <v>0.405117683290033</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.623139683039095</v>
+        <v>-0.622684389912539</v>
       </c>
       <c r="J9" t="n">
-        <v>0.328953955582049</v>
+        <v>0.323275680253033</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.345887906300815</v>
+        <v>-0.348682703934395</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0750679478299453</v>
+        <v>0.0695707128871701</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3619752173612</v>
+        <v>0.351559984044601</v>
       </c>
       <c r="N9" t="n">
         <v>0.19524469303688</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0322422412158866</v>
+        <v>0.027357137409007</v>
       </c>
       <c r="Q9" t="n">
         <v>0.158564049728554</v>
       </c>
       <c r="R9" t="n">
-        <v>0.469742354992806</v>
+        <v>0.501099308748812</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.535684907577431</v>
+        <v>-0.527351447374873</v>
       </c>
       <c r="T9" t="n">
         <v>-0.0734100326306785</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.159934047070998</v>
+        <v>-0.158641727359876</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1291,65 +1291,65 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.392801132831973</v>
+        <v>0.404478462523615</v>
       </c>
       <c r="C10" t="n">
-        <v>2.079003543412</v>
+        <v>2.07609259134104</v>
       </c>
       <c r="D10" t="n">
-        <v>1.08960678906336</v>
+        <v>1.08920226933856</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.633726961995389</v>
+        <v>-0.629707617503951</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>-0.644034783594841</v>
+        <v>-0.641237710040746</v>
       </c>
       <c r="H10" t="n">
         <v>1.23282671878923</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6007279488886</v>
+        <v>-0.599842343718219</v>
       </c>
       <c r="J10" t="n">
-        <v>1.62683747803891</v>
+        <v>1.62983572363159</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.197142684782729</v>
+        <v>-0.200266600759045</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52809814023971</v>
+        <v>1.52642358663288</v>
       </c>
       <c r="M10" t="n">
-        <v>2.15196120571456</v>
+        <v>2.15946049858946</v>
       </c>
       <c r="N10" t="n">
         <v>0.779246563210566</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.431424460905602</v>
+        <v>-0.424634564211741</v>
       </c>
       <c r="P10" t="n">
-        <v>0.345181641252434</v>
+        <v>0.340772704659233</v>
       </c>
       <c r="Q10" t="n">
         <v>-0.197662034593129</v>
       </c>
       <c r="R10" t="n">
-        <v>1.06359101249362</v>
+        <v>1.12046240229561</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.556360086920767</v>
+        <v>-0.548133860096904</v>
       </c>
       <c r="T10" t="n">
         <v>0.579789441389238</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0498782354710838</v>
+        <v>0.0523341348907562</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.0214856508185672</v>
+        <v>0.359397401941976</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
@@ -1360,63 +1360,63 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0634052047064459</v>
+        <v>0.0724348437466405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.440135474668649</v>
+        <v>0.43618564102236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.931864953086163</v>
+        <v>0.930349741656106</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.543390157389716</v>
+        <v>-0.539168229263257</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>0.457726493945182</v>
+        <v>0.459080924690073</v>
       </c>
       <c r="H11" t="n">
         <v>0.517636235820232</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.418870881630445</v>
+        <v>-0.414493566011837</v>
       </c>
       <c r="J11" t="n">
-        <v>0.906174357153117</v>
+        <v>0.904354875624936</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.283910730668279</v>
+        <v>-0.286842660944666</v>
       </c>
       <c r="L11" t="n">
-        <v>0.14064900023772</v>
+        <v>0.135324298162012</v>
       </c>
       <c r="M11" t="n">
-        <v>0.750088121321227</v>
+        <v>0.743557197059833</v>
       </c>
       <c r="N11" t="n">
         <v>-0.388757177136805</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.431424460905602</v>
+        <v>-0.424634564211741</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>0.415756113401823</v>
+        <v>0.44479357297183</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.488545498674624</v>
+        <v>-0.479967546368644</v>
       </c>
       <c r="T11" t="n">
         <v>0.00823990162181099</v>
       </c>
       <c r="U11" t="n">
-        <v>0.571024872753029</v>
+        <v>0.576370954029424</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.229132209065122</v>
+        <v>-0.959314603645122</v>
       </c>
       <c r="W11"/>
       <c r="X11"/>
@@ -1427,58 +1427,58 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.754377325368599</v>
+        <v>-0.751921037650985</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.447843430372503</v>
+        <v>-0.452356155529905</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.103494681400633</v>
+        <v>-0.112300066365563</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.673294969403535</v>
+        <v>-0.66936435763633</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>-0.581400818168906</v>
+        <v>-0.578685757335421</v>
       </c>
       <c r="H12" t="n">
         <v>-0.5199688857973</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.836742007351384</v>
+        <v>-0.840387943166941</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.394871229256572</v>
+        <v>-0.405388370517113</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>-0.392197050575453</v>
+        <v>-0.398923582196077</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.502655695643103</v>
+        <v>-0.521724322471034</v>
       </c>
       <c r="N12" t="n">
         <v>-0.155156429067331</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.830831257416951</v>
+        <v>-0.823947719403563</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="Q12"/>
       <c r="R12" t="n">
-        <v>-0.717954960008819</v>
+        <v>-0.73762687834478</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.658908976463715</v>
+        <v>-0.651214627198174</v>
       </c>
       <c r="T12" t="n">
         <v>-1.13485917791304</v>
       </c>
       <c r="U12" t="n">
-        <v>-1.16838663090229</v>
+        <v>-1.17268700075808</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -1490,60 +1490,60 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.488955528747098</v>
+        <v>-0.484365775647552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0399430317933587</v>
+        <v>0.0357395153989466</v>
       </c>
       <c r="D13" t="n">
-        <v>0.376972010797499</v>
+        <v>0.371549687569941</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.650649894394565</v>
+        <v>-0.646668500206722</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>-0.450764261709098</v>
+        <v>-0.448220255978599</v>
       </c>
       <c r="H13" t="n">
         <v>-0.369746227274132</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.843244455634102</v>
+        <v>-0.847015240414563</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.359513605056751</v>
+        <v>-0.36979437597989</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>-0.394246458463196</v>
+        <v>-0.400978381735916</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.473380562484057</v>
+        <v>-0.492156198113649</v>
       </c>
       <c r="N13" t="n">
         <v>-1.26475998239733</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.855794182198911</v>
+        <v>-0.848904791603052</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.67263014702204</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.933899926372751</v>
+        <v>-0.962849821452706</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.659735983637448</v>
+        <v>-0.652045923707056</v>
       </c>
       <c r="T13" t="n">
         <v>-1.21650911216553</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.60831561042602</v>
+        <v>-1.61505574418682</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -1555,62 +1555,62 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.250220234069647</v>
+        <v>-0.243711522191573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.506100621309103</v>
+        <v>0.502192603094309</v>
       </c>
       <c r="D14" t="n">
-        <v>1.11780086268285</v>
+        <v>1.11759486304952</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.621186947339885</v>
+        <v>-0.617139481400458</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>-0.616595141598717</v>
+        <v>-0.613833997426985</v>
       </c>
       <c r="H14" t="n">
         <v>0.328670381768856</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.469215509401321</v>
+        <v>-0.4658048257946</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0328697854534627</v>
+        <v>0.0252121487624649</v>
       </c>
       <c r="K14" t="n">
-        <v>0.224302109518515</v>
+        <v>0.220245691571111</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0832655793809171</v>
+        <v>0.0777899110465253</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0436202214567212</v>
+        <v>0.0300188297291451</v>
       </c>
       <c r="N14" t="n">
         <v>-0.155156429067331</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.606164934379317</v>
+        <v>-0.599334069608163</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="Q14" t="n">
         <v>-0.435146090807585</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.286065027280956</v>
+        <v>-0.287180992128929</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.5497440295309</v>
+        <v>-0.541483488025854</v>
       </c>
       <c r="T14" t="n">
         <v>-0.0734100326306786</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.36974632961308</v>
+        <v>-0.369617589610509</v>
       </c>
       <c r="V14"/>
       <c r="W14"/>
@@ -1622,63 +1622,63 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.05734915569898</v>
+        <v>-1.05732816123889</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.037434114365317</v>
+        <v>-0.0416866802793513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.326494826760294</v>
+        <v>0.320717083619765</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.676338662281084</v>
+        <v>-0.672414876108051</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>-0.639859185899779</v>
+        <v>-0.637067579860391</v>
       </c>
       <c r="H15" t="n">
         <v>-0.283947119935801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.565641234239054</v>
+        <v>-0.564081953582847</v>
       </c>
       <c r="J15" t="n">
-        <v>0.113646146430291</v>
+        <v>0.106528510266202</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0483974632646427</v>
+        <v>-0.0518504975836959</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.170860998699212</v>
+        <v>-0.177005231893486</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0830885115407818</v>
+        <v>0.0698821260987549</v>
       </c>
       <c r="N15" t="n">
         <v>-0.155156429067331</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408675</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.358932008829798</v>
+        <v>-0.364412321653776</v>
       </c>
       <c r="Q15"/>
       <c r="R15" t="n">
-        <v>0.307783630219857</v>
+        <v>0.332182101417867</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.553052058225833</v>
+        <v>-0.544808674061379</v>
       </c>
       <c r="T15" t="n">
         <v>0.743089309894218</v>
       </c>
       <c r="U15" t="n">
-        <v>0.219081689134053</v>
+        <v>0.222475959286428</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.113773010039258</v>
+        <v>-0.226696822763401</v>
       </c>
       <c r="W15"/>
       <c r="X15"/>
@@ -1689,67 +1689,67 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.949947137550512</v>
+        <v>-0.949062843653119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.393190327225234</v>
+        <v>0.389210734960993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.604037948765929</v>
+        <v>0.600214442062127</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.566400475543991</v>
+        <v>-0.562230148909472</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5982266172126</v>
+        <v>-0.596612090263824</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.465677110620035</v>
+        <v>-0.463113578051296</v>
       </c>
       <c r="H16" t="n">
         <v>0.289481862154117</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.333642564481642</v>
+        <v>-0.327628839511668</v>
       </c>
       <c r="J16" t="n">
-        <v>0.322917288035738</v>
+        <v>0.317198656795458</v>
       </c>
       <c r="K16" t="n">
-        <v>1.16635517913306</v>
+        <v>1.16021434501499</v>
       </c>
       <c r="L16" t="n">
-        <v>0.882534655600677</v>
+        <v>0.879161731583659</v>
       </c>
       <c r="M16" t="n">
-        <v>0.224681606077356</v>
+        <v>0.212892311728285</v>
       </c>
       <c r="N16" t="n">
         <v>0.19524469303688</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.556239084815399</v>
+        <v>-0.549419925209186</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.619714842193587</v>
+        <v>-0.625591961028965</v>
       </c>
       <c r="Q16" t="n">
         <v>0.514790134050237</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.394037510462922</v>
+        <v>-0.399792463682892</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.568765194526769</v>
+        <v>-0.560603307730122</v>
       </c>
       <c r="T16" t="n">
         <v>-0.318359835388148</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.559254197715605</v>
+        <v>-0.560176432933661</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.159916689649604</v>
+        <v>-0.519743935116089</v>
       </c>
       <c r="W16"/>
       <c r="X16"/>
@@ -1760,58 +1760,58 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.706750972341607</v>
+        <v>-0.703911863104645</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.262861185308289</v>
+        <v>-0.267256649869902</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0803696911120984</v>
+        <v>-0.0890122484115674</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.741230194430443</v>
+        <v>-0.737451929925153</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.627227281811372</v>
+        <v>-0.62552587328071</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.602278806644218</v>
+        <v>-0.599536408237196</v>
       </c>
       <c r="H17" t="n">
         <v>-0.546688330989168</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.668600425109334</v>
+        <v>-0.669017991918684</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.253728192816635</v>
+        <v>-0.263301774437629</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>-0.17700922236244</v>
+        <v>-0.183169630513003</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.235652954768436</v>
+        <v>-0.252049366492046</v>
       </c>
       <c r="N17" t="n">
         <v>0.545645815141092</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.656090783943236</v>
+        <v>-0.649248214007141</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.385010292166177</v>
+        <v>-0.390530285591295</v>
       </c>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>0.253797388628874</v>
+        <v>0.275876365640886</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.567111180179302</v>
+        <v>-0.55894071471236</v>
       </c>
       <c r="T17"/>
       <c r="U17" t="n">
-        <v>-0.450963987371305</v>
+        <v>-0.451285665320431</v>
       </c>
       <c r="V17"/>
       <c r="W17"/>
@@ -1823,60 +1823,60 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.389897962533933</v>
+        <v>-0.384511982858333</v>
       </c>
       <c r="C18" t="n">
-        <v>0.103241006132618</v>
+        <v>0.0990776144441242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.342256547483793</v>
+        <v>0.336589785760208</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.581740687646841</v>
+        <v>-0.577604762006948</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>-0.462694540837848</v>
+        <v>-0.460134913636756</v>
       </c>
       <c r="H18" t="n">
         <v>0.310115211496726</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.552010343086123</v>
+        <v>-0.550189345215542</v>
       </c>
       <c r="J18" t="n">
-        <v>0.277211090899383</v>
+        <v>0.271186907759536</v>
       </c>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>0.673495051050894</v>
+        <v>0.669572178520101</v>
       </c>
       <c r="M18" t="n">
-        <v>0.217145433184929</v>
+        <v>0.205280715359057</v>
       </c>
       <c r="N18" t="n">
         <v>-0.0383560550325939</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.606164934379317</v>
+        <v>-0.599334069608163</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.150305742138766</v>
+        <v>-0.155468610153625</v>
       </c>
       <c r="Q18" t="n">
         <v>0.871016218371921</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0701200609170238</v>
+        <v>-0.0619580490210028</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.558014101268234</v>
+        <v>-0.549796453114666</v>
       </c>
       <c r="T18" t="n">
         <v>-0.155059966883168</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.823211585429838</v>
+        <v>-0.825597678990908</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -1888,58 +1888,58 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.51648828407138</v>
+        <v>-0.512119839775788</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.195981475488055</v>
+        <v>-0.200334544874839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.337935872467004</v>
+        <v>0.33223868800951</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.696244413700259</v>
+        <v>-0.69236526691311</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>-0.56156672911736</v>
+        <v>-0.558877638978734</v>
       </c>
       <c r="H19" t="n">
         <v>-0.441220743162378</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.703431948271637</v>
+        <v>-0.704518290813418</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0530089969017946</v>
+        <v>-0.0612407444732702</v>
       </c>
       <c r="K19"/>
       <c r="L19" t="n">
-        <v>-0.0115195354271954</v>
+        <v>-0.0172445676710194</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0966202266632636</v>
+        <v>-0.111625171936677</v>
       </c>
       <c r="N19" t="n">
         <v>-0.111356288804305</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.730979558289114</v>
+        <v>-0.724119430605608</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="Q19"/>
       <c r="R19" t="n">
-        <v>0.45624579459506</v>
+        <v>0.487022874804566</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.580136543165604</v>
+        <v>-0.572033634727239</v>
       </c>
       <c r="T19" t="n">
         <v>0.151127286563668</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.251303912049001</v>
+        <v>-0.250518312533539</v>
       </c>
       <c r="V19"/>
       <c r="W19"/>
@@ -1951,67 +1951,67 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130423224337817</v>
+        <v>0.139991555477413</v>
       </c>
       <c r="C20" t="n">
-        <v>1.71167707616071</v>
+        <v>1.70853327514588</v>
       </c>
       <c r="D20" t="n">
-        <v>1.43187037992976</v>
+        <v>1.4338758063618</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.565669989253379</v>
+        <v>-0.561498024476259</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>-0.676843051198903</v>
+        <v>-0.674003018600679</v>
       </c>
       <c r="H20" t="n">
         <v>0.619615451635861</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.629382710141409</v>
+        <v>-0.629047285014984</v>
       </c>
       <c r="J20" t="n">
-        <v>0.863342763610244</v>
+        <v>0.861236947283097</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>1.0505861023956</v>
+        <v>1.04765529385044</v>
       </c>
       <c r="M20" t="n">
-        <v>1.75843771608817</v>
+        <v>1.7619985497194</v>
       </c>
       <c r="N20" t="n">
         <v>0.136844506019512</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0583205245522656</v>
+        <v>0.053475101346526</v>
       </c>
       <c r="Q20" t="n">
         <v>0.158564049728554</v>
       </c>
       <c r="R20" t="n">
-        <v>0.955618529311652</v>
+        <v>1.00785093074165</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.548090015183433</v>
+        <v>-0.539820895008091</v>
       </c>
       <c r="T20" t="n">
         <v>1.96783832368156</v>
       </c>
       <c r="U20" t="n">
-        <v>0.131095893229309</v>
+        <v>0.134002210600679</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.0445574906237399</v>
+        <v>0.212873845765632</v>
       </c>
       <c r="W20"/>
       <c r="X20" t="n">
-        <v>-0.310327745207295</v>
+        <v>-0.378112697656595</v>
       </c>
       <c r="Y20"/>
     </row>
@@ -2020,65 +2020,65 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.069869862524459</v>
+        <v>-0.0619114909755973</v>
       </c>
       <c r="C21" t="n">
-        <v>1.55718512865987</v>
+        <v>1.55394339490667</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1187292196401</v>
+        <v>1.11852975675313</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.55775638777175</v>
+        <v>-0.553566676449783</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>-0.527714562089533</v>
+        <v>-0.525069797873713</v>
       </c>
       <c r="H21" t="n">
         <v>1.47760652501917</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.653043613671454</v>
+        <v>-0.653162485017065</v>
       </c>
       <c r="J21" t="n">
-        <v>0.821086090786067</v>
+        <v>0.818697783080074</v>
       </c>
       <c r="K21" t="n">
-        <v>0.348256460783587</v>
+        <v>0.343925777550569</v>
       </c>
       <c r="L21" t="n">
-        <v>0.509542420031456</v>
+        <v>0.505188215332996</v>
       </c>
       <c r="M21" t="n">
-        <v>1.23704083129348</v>
+        <v>1.23538342399455</v>
       </c>
       <c r="N21" t="n">
         <v>-0.2135566160847</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.681053708725195</v>
+        <v>-0.67420528620663</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0322422412158866</v>
+        <v>0.027357137409007</v>
       </c>
       <c r="Q21" t="n">
         <v>0.39604810594301</v>
       </c>
       <c r="R21" t="n">
-        <v>0.955618529311652</v>
+        <v>1.00785093074164</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.550571036704633</v>
+        <v>-0.542314784534735</v>
       </c>
       <c r="T21" t="n">
         <v>1.23298891540916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.665778806804292</v>
+        <v>0.671650375691001</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.159916689649604</v>
+        <v>-0.519743935116089</v>
       </c>
       <c r="W21"/>
       <c r="X21"/>
@@ -2089,65 +2089,65 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2590107730581</v>
+        <v>-0.252572719697371</v>
       </c>
       <c r="C22" t="n">
-        <v>1.84214989823878</v>
+        <v>1.83908880419318</v>
       </c>
       <c r="D22" t="n">
-        <v>1.30739424434673</v>
+        <v>1.30852320949989</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.548503561423999</v>
+        <v>-0.54429310029575</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>-0.639859185899779</v>
+        <v>-0.637067579860391</v>
       </c>
       <c r="H22" t="n">
         <v>2.01303451839177</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.641626261938269</v>
+        <v>-0.641525916692857</v>
       </c>
       <c r="J22" t="n">
-        <v>1.20858265518736</v>
+        <v>1.20878481264249</v>
       </c>
       <c r="K22" t="n">
-        <v>0.236697544645022</v>
+        <v>0.232613700169057</v>
       </c>
       <c r="L22" t="n">
-        <v>0.765718405999327</v>
+        <v>0.762038157812847</v>
       </c>
       <c r="M22" t="n">
-        <v>1.51389856748901</v>
+        <v>1.51501200599484</v>
       </c>
       <c r="N22" t="n">
         <v>0.19524469303688</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00616395787950764</v>
+        <v>0.00123917347148819</v>
       </c>
       <c r="Q22" t="n">
         <v>0.158564049728554</v>
       </c>
       <c r="R22" t="n">
-        <v>0.901632287720669</v>
+        <v>0.951545194964663</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.565457165831835</v>
+        <v>-0.557278121694597</v>
       </c>
       <c r="T22" t="n">
         <v>0.416489572884259</v>
       </c>
       <c r="U22" t="n">
-        <v>0.611633701632142</v>
+        <v>0.617204991884385</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0907011702340854</v>
+        <v>-0.0801732665870562</v>
       </c>
       <c r="W22"/>
       <c r="X22"/>
@@ -2158,58 +2158,58 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.457650713782249</v>
+        <v>-0.452809331992575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.103692822205498</v>
+        <v>0.0995297169240691</v>
       </c>
       <c r="D23" t="n">
-        <v>0.358018268207292</v>
+        <v>0.352462487900652</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.655519802998645</v>
+        <v>-0.651549329761476</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>-0.610630002034343</v>
+        <v>-0.607876668597906</v>
       </c>
       <c r="H23" t="n">
         <v>-0.289439450336352</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.765852350010742</v>
+        <v>-0.768137183060597</v>
       </c>
       <c r="J23" t="n">
-        <v>0.180336949799059</v>
+        <v>0.173665150368932</v>
       </c>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>0.241069986737126</v>
+        <v>0.236009475614113</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0331907714853304</v>
+        <v>-0.0475609024956767</v>
       </c>
       <c r="N23" t="n">
         <v>-0.155156429067331</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="Q23"/>
       <c r="R23" t="n">
-        <v>-0.771941201599802</v>
+        <v>-0.793932614121762</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.641541825815312</v>
+        <v>-0.633757400511669</v>
       </c>
       <c r="T23" t="n">
         <v>-0.481659703893127</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.07363269685103</v>
+        <v>-1.0774075790965</v>
       </c>
       <c r="V23"/>
       <c r="W23"/>
@@ -2221,58 +2221,58 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.48263158875839</v>
+        <v>-0.477991003710545</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.249671070922604</v>
+        <v>-0.254058174245705</v>
       </c>
       <c r="D24" t="n">
-        <v>0.110136786846719</v>
+        <v>0.102835623626733</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.691800622099037</v>
+        <v>-0.687911509944396</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>-0.608243946208593</v>
+        <v>-0.605493737066275</v>
       </c>
       <c r="H24" t="n">
         <v>-0.556337019530675</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.744007394743521</v>
+        <v>-0.745872798074764</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0518421691704401</v>
+        <v>0.0443113653434139</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>-0.226195011668272</v>
+        <v>-0.232484819469134</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.173865998810648</v>
+        <v>-0.189644034721262</v>
       </c>
       <c r="N24" t="n">
         <v>0.0200441319847745</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.411088575502556</v>
+        <v>-0.416648249528814</v>
       </c>
       <c r="Q24"/>
       <c r="R24" t="n">
-        <v>-0.394037510462922</v>
+        <v>-0.399792463682892</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.613423581908375</v>
+        <v>-0.605493319209708</v>
       </c>
       <c r="T24" t="n">
         <v>-0.644959572398106</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.802907170990281</v>
+        <v>-0.805180660063428</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -2284,58 +2284,58 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.647552596347726</v>
+        <v>-0.644237649453657</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.275337138804583</v>
+        <v>-0.279740511896766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.356980543170147</v>
+        <v>0.3514174560347</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.552399488307263</v>
+        <v>-0.548197763939553</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>-0.154296825359671</v>
+        <v>-0.152141013173392</v>
       </c>
       <c r="H25" t="n">
         <v>-0.329815500848508</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.807731951873241</v>
+        <v>-0.810820885888736</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.561023316959798</v>
+        <v>-0.572651206635121</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>-0.877906719970537</v>
+        <v>-0.885911073137873</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.711301405402047</v>
+        <v>-0.732458198872924</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
-        <v>-0.830831257416951</v>
+        <v>-0.823947719403563</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0398220216213263</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.448023752053904</v>
+        <v>-0.456098199459873</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.599364459954907</v>
+        <v>-0.591361278558727</v>
       </c>
       <c r="T25" t="n">
         <v>-0.971559309408064</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.870588552455469</v>
+        <v>-0.873237389821696</v>
       </c>
       <c r="V25"/>
       <c r="W25"/>
@@ -2347,63 +2347,63 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.440095876220233</v>
+        <v>-0.435113388316817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.291079894754395</v>
+        <v>0.287035574493456</v>
       </c>
       <c r="D26" t="n">
-        <v>0.372925391841377</v>
+        <v>0.367474575563252</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.692774603819853</v>
+        <v>-0.688887675855347</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>-0.538451813305408</v>
+        <v>-0.535792989766055</v>
       </c>
       <c r="H26" t="n">
         <v>0.188541735873727</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.721592840797587</v>
+        <v>-0.723027877944083</v>
       </c>
       <c r="J26" t="n">
-        <v>0.604053519478221</v>
+        <v>0.600214320676794</v>
       </c>
       <c r="K26" t="n">
-        <v>0.125138628506458</v>
+        <v>0.121301622787545</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2779593287165</v>
+        <v>0.272995867331212</v>
       </c>
       <c r="M26" t="n">
-        <v>0.487336554898699</v>
+        <v>0.478175962109641</v>
       </c>
       <c r="N26" t="n">
         <v>0.0200441319847748</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0459926087932503</v>
+        <v>-0.0509967544035496</v>
       </c>
       <c r="Q26"/>
       <c r="R26" t="n">
-        <v>0.523728596583788</v>
+        <v>0.557405044525793</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.568765194526769</v>
+        <v>-0.560603307730122</v>
       </c>
       <c r="T26" t="n">
         <v>0.25318970437928</v>
       </c>
       <c r="U26" t="n">
-        <v>0.144632169522347</v>
+        <v>0.147613556552333</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0938735482072967</v>
+        <v>1.0920151828237</v>
       </c>
       <c r="W26"/>
       <c r="X26"/>
@@ -2414,58 +2414,58 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.893713928439303</v>
+        <v>-0.892377630951848</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.124066202662015</v>
+        <v>-0.128373684821036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0579376914120944</v>
+        <v>0.05026898395781</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.714323949392904</v>
+        <v>-0.710485346635135</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>-0.495502808441909</v>
+        <v>-0.492900222196689</v>
       </c>
       <c r="H27" t="n">
         <v>-0.213882796988237</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.651862119382443</v>
+        <v>-0.651958305681959</v>
       </c>
       <c r="J27" t="n">
-        <v>0.344476814986849</v>
+        <v>0.338902312001082</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>0.280008736604243</v>
+        <v>0.27505066687105</v>
       </c>
       <c r="M27" t="n">
-        <v>0.250188652790188</v>
+        <v>0.238654637901056</v>
       </c>
       <c r="N27" t="n">
         <v>-0.330356990119437</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.259940465903701</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="n">
-        <v>0.469742354992806</v>
+        <v>0.501099308748812</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.555533079747034</v>
+        <v>-0.547302563588022</v>
       </c>
       <c r="T27" t="n">
         <v>0.25318970437928</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0634145117641213</v>
+        <v>0.0659454808424098</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
@@ -2477,60 +2477,60 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.489349134970461</v>
+        <v>-0.484762545685125</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.205670015308921</v>
+        <v>-0.210029226279463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.10994857201155</v>
+        <v>0.102646083533399</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.621795685915395</v>
+        <v>-0.617749585094802</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>-0.326092844813665</v>
+        <v>-0.323712083450856</v>
       </c>
       <c r="H28" t="n">
         <v>-0.543422621021273</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.522884675994974</v>
+        <v>-0.520504456546551</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.405219802193105</v>
+        <v>-0.415806125015812</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>-0.0130565913430026</v>
+        <v>-0.0187856673258985</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.324782691861572</v>
+        <v>-0.34207113124349</v>
       </c>
       <c r="N28" t="n">
         <v>0.312045067071618</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="Q28" t="n">
         <v>-0.0789200064859013</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.771941201599802</v>
+        <v>-0.793932614121762</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.510874692365427</v>
+        <v>-0.502412552108437</v>
       </c>
       <c r="T28" t="n">
         <v>-0.808259440903085</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.775834618404206</v>
+        <v>-0.77795796816012</v>
       </c>
       <c r="V28"/>
       <c r="W28"/>
@@ -2542,60 +2542,60 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.289056048108186</v>
+        <v>-0.282859499232115</v>
       </c>
       <c r="C29" t="n">
-        <v>0.636063328466178</v>
+        <v>0.632237693857802</v>
       </c>
       <c r="D29" t="n">
-        <v>0.824938579160733</v>
+        <v>0.822670477821309</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.632874727989675</v>
+        <v>-0.628853472331869</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>-0.60645440433928</v>
+        <v>-0.603706538417551</v>
       </c>
       <c r="H29" t="n">
         <v>-0.170092595146009</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.832114723035712</v>
+        <v>-0.83567181359914</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0279829593445444</v>
+        <v>0.0202926535825236</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.680564654716509</v>
+        <v>-0.682618936078931</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.14216928827081</v>
+        <v>-0.148238038335743</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.126233521426457</v>
+        <v>-0.141534842284989</v>
       </c>
       <c r="N29" t="n">
         <v>-0.855958673275754</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.930682956544789</v>
+        <v>-0.923776008201519</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>-0.717954960008819</v>
+        <v>-0.73762687834478</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.620866646471976</v>
+        <v>-0.612974987789639</v>
       </c>
       <c r="T29" t="n">
         <v>-0.400009769640637</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.816443447283319</v>
+        <v>-0.818792006015082</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -2607,58 +2607,58 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.904105132736101</v>
+        <v>-0.902852359943777</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0840752598152971</v>
+        <v>0.0798997189238829</v>
       </c>
       <c r="D30" t="n">
-        <v>0.208143303651395</v>
+        <v>0.201532223849051</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.410928643358755</v>
+        <v>-0.406409665373939</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>-0.355322028679102</v>
+        <v>-0.352902994713341</v>
       </c>
       <c r="H30" t="n">
         <v>0.317685720967755</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.476544157747714</v>
+        <v>-0.473274186395889</v>
       </c>
       <c r="J30" t="n">
-        <v>0.685404801173745</v>
+        <v>0.682109446319348</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>0.665297419499922</v>
+        <v>0.661352980360746</v>
       </c>
       <c r="M30" t="n">
-        <v>0.243087259103093</v>
+        <v>0.231482172091591</v>
       </c>
       <c r="N30" t="n">
         <v>0.136844506019512</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P30" t="n">
-        <v>0.00616395787950778</v>
+        <v>0.00123917347148831</v>
       </c>
       <c r="Q30"/>
       <c r="R30" t="n">
-        <v>0.469742354992805</v>
+        <v>0.501099308748812</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.542300964967299</v>
+        <v>-0.534001819445923</v>
       </c>
       <c r="T30" t="n">
         <v>0.416489572884259</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.735225789525094</v>
+        <v>-0.737123930305159</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
@@ -2670,16 +2670,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0381189605064643</v>
+        <v>-0.0299053746113705</v>
       </c>
       <c r="C31" t="n">
-        <v>0.888103823572974</v>
+        <v>0.884437957912201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.828069558378198</v>
+        <v>0.825823502887452</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.633361718850083</v>
+        <v>-0.629341555287344</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -2687,46 +2687,46 @@
         <v>0.444306202904773</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.601951740109199</v>
+        <v>-0.601089632098734</v>
       </c>
       <c r="J31" t="n">
-        <v>0.623600823913894</v>
+        <v>0.619892301396559</v>
       </c>
       <c r="K31" t="n">
-        <v>0.162324933885979</v>
+        <v>0.158405648581382</v>
       </c>
       <c r="L31" t="n">
-        <v>0.114006697697062</v>
+        <v>0.108611904144107</v>
       </c>
       <c r="M31" t="n">
-        <v>0.694533000639868</v>
+        <v>0.687446069978987</v>
       </c>
       <c r="N31" t="n">
         <v>-0.563957738188911</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="Q31" t="n">
         <v>-0.67263014702204</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.0161338193260408</v>
+        <v>-0.00565231324402135</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.589440373870105</v>
+        <v>-0.581385720452152</v>
       </c>
       <c r="T31" t="n">
         <v>0.008239901621811</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.220847290389667</v>
+        <v>-0.219892784142318</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.0907011702340855</v>
+        <v>-0.0801732665870562</v>
       </c>
       <c r="W31"/>
       <c r="X31"/>
@@ -2737,65 +2737,65 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.346522556719267</v>
+        <v>-0.340787924717781</v>
       </c>
       <c r="C32" t="n">
-        <v>1.12366031937567</v>
+        <v>1.1201437734241</v>
       </c>
       <c r="D32" t="n">
-        <v>1.10247661427893</v>
+        <v>1.10216271355845</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.478255129810153</v>
+        <v>-0.473887133968418</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>-0.518170338786533</v>
+        <v>-0.515538071747187</v>
       </c>
       <c r="H32" t="n">
         <v>1.0474234574301</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.415413812422027</v>
+        <v>-0.4109701200337</v>
       </c>
       <c r="J32" t="n">
-        <v>0.691728929079404</v>
+        <v>0.688475851846331</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0259751474944002</v>
+        <v>0.0223575540039787</v>
       </c>
       <c r="L32" t="n">
-        <v>0.536184722572114</v>
+        <v>0.531900609350901</v>
       </c>
       <c r="M32" t="n">
-        <v>0.693132045422686</v>
+        <v>0.686031093730861</v>
       </c>
       <c r="N32" t="n">
         <v>-0.271956803102068</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.515401708848071</v>
+        <v>-0.521120105278889</v>
       </c>
       <c r="Q32" t="n">
         <v>0.158564049728554</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0378524222649422</v>
+        <v>0.0506534225329602</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.450503168682886</v>
+        <v>-0.441727906960108</v>
       </c>
       <c r="T32" t="n">
         <v>0.0898898358743007</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.180238461510554</v>
+        <v>-0.179058746287357</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.182988529454777</v>
+        <v>-0.666267491292433</v>
       </c>
       <c r="W32"/>
       <c r="X32"/>
@@ -2806,60 +2806,60 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.531255077551236</v>
+        <v>-0.527005329018737</v>
       </c>
       <c r="C33" t="n">
-        <v>0.117276453815949</v>
+        <v>0.113121959224347</v>
       </c>
       <c r="D33" t="n">
-        <v>0.278985841542571</v>
+        <v>0.272873578168524</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.677069148571696</v>
+        <v>-0.673147000541264</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>-0.421535077843662</v>
+        <v>-0.419029344716114</v>
       </c>
       <c r="H33" t="n">
         <v>-0.0578709253401642</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.583600511391104</v>
+        <v>-0.582386054263727</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0739766168402469</v>
+        <v>0.0665937846878544</v>
       </c>
       <c r="K33" t="n">
-        <v>0.335861025657079</v>
+        <v>0.331557768952623</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.277430208861846</v>
+        <v>-0.283854807965104</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0119779570686433</v>
+        <v>-0.00194011656472803</v>
       </c>
       <c r="N33" t="n">
         <v>-0.563957738188911</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.88075710698087</v>
+        <v>-0.873861863802541</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.567558275520829</v>
+        <v>-0.573356033153927</v>
       </c>
       <c r="Q33"/>
       <c r="R33" t="n">
-        <v>-0.286065027280956</v>
+        <v>-0.287180992128929</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.557187094094501</v>
+        <v>-0.548965156605785</v>
       </c>
       <c r="T33" t="n">
         <v>0.0898898358743005</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.444195849224786</v>
+        <v>-0.444479992344604</v>
       </c>
       <c r="V33"/>
       <c r="W33"/>
@@ -2871,58 +2871,58 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.943701918806476</v>
+        <v>-0.942767425723627</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.578097631770145</v>
+        <v>-0.582692925312717</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.233701195681427</v>
+        <v>-0.243423390663726</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.699714223580666</v>
+        <v>-0.695842857970872</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>-0.357708084504852</v>
+        <v>-0.355285926244973</v>
       </c>
       <c r="H34" t="n">
         <v>-0.648519105442619</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.601015568023395</v>
+        <v>-0.600135485227003</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.312370106123656</v>
+        <v>-0.322335716596926</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0360020281381357</v>
+        <v>-0.0394824889857503</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.527457971166489</v>
+        <v>-0.534540351825438</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.498114668387409</v>
+        <v>-0.51713784773573</v>
       </c>
       <c r="N34" t="n">
         <v>-0.388757177136805</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408674</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.411088575502555</v>
+        <v>-0.416648249528814</v>
       </c>
       <c r="Q34"/>
       <c r="R34" t="n">
-        <v>-0.17809254409899</v>
+        <v>-0.174569520574966</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.527414835840097</v>
+        <v>-0.519038482286061</v>
       </c>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>-0.329137500733967</v>
+        <v>-0.328783551755548</v>
       </c>
       <c r="V34"/>
       <c r="W34"/>
@@ -2934,60 +2934,60 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.147384048112192</v>
+        <v>-0.140048737041652</v>
       </c>
       <c r="C35" t="n">
-        <v>0.702217946363</v>
+        <v>0.698434247292308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.901335998133096</v>
+        <v>0.899605826246756</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.586367100820717</v>
+        <v>-0.582241550083965</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.628301380500215</v>
+        <v>-0.626596754133188</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.332654498334477</v>
+        <v>-0.330265145162843</v>
       </c>
       <c r="H35" t="n">
         <v>0.0285219474468748</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.745070457624086</v>
+        <v>-0.746956272082723</v>
       </c>
       <c r="J35" t="n">
-        <v>0.224030924419977</v>
+        <v>0.217651224918997</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>-0.0868352753017496</v>
+        <v>-0.0927584507600954</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0487892631201172</v>
+        <v>0.0352396041618848</v>
       </c>
       <c r="N35" t="n">
         <v>-0.680758112223648</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.855794182198911</v>
+        <v>-0.848904791603052</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="Q35"/>
       <c r="R35" t="n">
-        <v>-0.340051268871938</v>
+        <v>-0.34348672790591</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.605980517344774</v>
+        <v>-0.598011650629777</v>
       </c>
       <c r="T35" t="n">
         <v>-0.889909375155575</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.843515999869394</v>
+        <v>-0.846014697918389</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
@@ -2999,58 +2999,58 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.0595048986425516</v>
+        <v>-0.0514632133195068</v>
       </c>
       <c r="C36" t="n">
-        <v>0.584789491550333</v>
+        <v>0.580931354359544</v>
       </c>
       <c r="D36" t="n">
-        <v>0.839642227297339</v>
+        <v>0.8374776572749</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.672442735397821</v>
+        <v>-0.668510212464248</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>-0.359497626374164</v>
+        <v>-0.357073124893696</v>
       </c>
       <c r="H36" t="n">
         <v>0.180525902316167</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.881029714518931</v>
+        <v>-0.885525987647062</v>
       </c>
       <c r="J36" t="n">
-        <v>0.103010113134409</v>
+        <v>0.0958213736980946</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>-0.0233036307817174</v>
+        <v>-0.0290596650250924</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0221280561496513</v>
+        <v>-0.0363874693639255</v>
       </c>
       <c r="N36" t="n">
         <v>-0.2135566160847</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.805868332634992</v>
+        <v>-0.798990647204074</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="n">
-        <v>-0.0701200609170238</v>
+        <v>-0.0619580490210028</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.596883438433706</v>
+        <v>-0.588867389032083</v>
       </c>
       <c r="T36" t="n">
         <v>-0.971559309408064</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.126093356338404</v>
+        <v>-0.124613362480742</v>
       </c>
       <c r="V36"/>
       <c r="W36"/>
@@ -3062,65 +3062,65 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.161763795472407</v>
+        <v>-0.154544069080988</v>
       </c>
       <c r="C37" t="n">
-        <v>1.17040142085069</v>
+        <v>1.16691450417194</v>
       </c>
       <c r="D37" t="n">
-        <v>1.4823119557549</v>
+        <v>1.4846725513754</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.54545986854645</v>
+        <v>-0.541242581824028</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.568688903269406</v>
+        <v>-0.567162866820699</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.461501512924973</v>
+        <v>-0.458943447870941</v>
       </c>
       <c r="H37" t="n">
         <v>0.456775277327645</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.666809855005464</v>
+        <v>-0.667193042329681</v>
       </c>
       <c r="J37" t="n">
-        <v>0.388170789607766</v>
+        <v>0.382888386551146</v>
       </c>
       <c r="K37"/>
       <c r="L37" t="n">
-        <v>0.247218210400355</v>
+        <v>0.24217387423363</v>
       </c>
       <c r="M37" t="n">
-        <v>0.521587494518771</v>
+        <v>0.512769691762093</v>
       </c>
       <c r="N37" t="n">
         <v>-0.797558486258386</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.88075710698087</v>
+        <v>-0.873861863802541</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.67263014702204</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.340051268871938</v>
+        <v>-0.34348672790591</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.582824316480238</v>
+        <v>-0.574735348381103</v>
       </c>
       <c r="T37" t="n">
         <v>-0.481659703893127</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.552486059569087</v>
+        <v>-0.553370759957834</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.229132209065122</v>
+        <v>-0.959314603645122</v>
       </c>
       <c r="W37"/>
       <c r="X37"/>
@@ -3131,60 +3131,60 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.865872848240053</v>
+        <v>-0.864312763627514</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0560605963375882</v>
+        <v>-0.0603249696138522</v>
       </c>
       <c r="D38" t="n">
-        <v>0.103325444568595</v>
+        <v>0.095976321330121</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.610716643841114</v>
+        <v>-0.606645697857736</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>-0.47164225018441</v>
+        <v>-0.469070906880374</v>
       </c>
       <c r="H38" t="n">
         <v>-0.0519332708530827</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.563032923457825</v>
+        <v>-0.561423562449261</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0211727621039879</v>
+        <v>-0.0291916802862989</v>
       </c>
       <c r="K38"/>
       <c r="L38" t="n">
-        <v>-0.213898564341814</v>
+        <v>-0.220156022230101</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.160822622650677</v>
+        <v>-0.176470117928368</v>
       </c>
       <c r="N38" t="n">
         <v>0.312045067071618</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="Q38" t="n">
         <v>-0.316404062700357</v>
       </c>
       <c r="R38" t="n">
-        <v>0.091838663855925</v>
+        <v>0.106959158309942</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.540646950619832</v>
+        <v>-0.532339226428161</v>
       </c>
       <c r="T38" t="n">
         <v>-0.726609506650596</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.0787163893127726</v>
+        <v>-0.0769736516499539</v>
       </c>
       <c r="V38"/>
       <c r="W38"/>
@@ -3196,65 +3196,65 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.348306904931849</v>
+        <v>-0.342586615554779</v>
       </c>
       <c r="C39" t="n">
-        <v>1.24938178533249</v>
+        <v>1.24594493445649</v>
       </c>
       <c r="D39" t="n">
-        <v>1.18626273725352</v>
+        <v>1.18653879132357</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.509787788021568</v>
+        <v>-0.505490505335452</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>-0.376200017154413</v>
+        <v>-0.373753645615117</v>
       </c>
       <c r="H39" t="n">
         <v>0.550293335499182</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.349895865392997</v>
+        <v>-0.344194208694364</v>
       </c>
       <c r="J39" t="n">
-        <v>0.540812240421629</v>
+        <v>0.536550265406964</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0483974632646428</v>
+        <v>-0.0518504975836959</v>
       </c>
       <c r="L39" t="n">
-        <v>0.503394196368227</v>
+        <v>0.49902381671348</v>
       </c>
       <c r="M39" t="n">
-        <v>0.812454782886125</v>
+        <v>0.806548036243635</v>
       </c>
       <c r="N39" t="n">
         <v>-0.680758112223648</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.197662034593129</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.17809254409899</v>
+        <v>-0.174569520574966</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.529068850187563</v>
+        <v>-0.520701075303823</v>
       </c>
       <c r="T39" t="n">
         <v>-0.155059966883168</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.335905638880486</v>
+        <v>-0.335589224731374</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.182988529454777</v>
+        <v>-0.666267491292433</v>
       </c>
       <c r="W39"/>
       <c r="X39"/>
@@ -3265,61 +3265,61 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.373760107376026</v>
+        <v>-0.368244411317837</v>
       </c>
       <c r="C40" t="n">
-        <v>0.758403461232409</v>
+        <v>0.754655378266096</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510090768135967</v>
+        <v>0.505605760609561</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.652232614690891</v>
+        <v>-0.648254769812017</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>-0.678036079111778</v>
+        <v>-0.675194484366494</v>
       </c>
       <c r="H40" t="n">
         <v>0.386562513017903</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.51951784024061</v>
+        <v>-0.517072976531954</v>
       </c>
       <c r="J40" t="n">
-        <v>1.33736489617533</v>
+        <v>1.33842797973741</v>
       </c>
       <c r="K40"/>
       <c r="L40" t="n">
-        <v>1.007548536753</v>
+        <v>1.00450450351383</v>
       </c>
       <c r="M40" t="n">
-        <v>1.40684626537606</v>
+        <v>1.40688830372427</v>
       </c>
       <c r="N40" t="n">
         <v>0.896046937245303</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.481350310469521</v>
+        <v>-0.474548708610719</v>
       </c>
       <c r="P40" t="n">
-        <v>0.423416491261571</v>
+        <v>0.41912659647179</v>
       </c>
       <c r="Q40"/>
       <c r="R40" t="n">
-        <v>1.27953597885755</v>
+        <v>1.34568534540353</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.515836735407828</v>
+        <v>-0.507400331161724</v>
       </c>
       <c r="T40" t="n">
         <v>1.88618838942907</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04479454300934</v>
+        <v>1.0527680623373</v>
       </c>
       <c r="V40" t="n">
-        <v>0.116945388012469</v>
+        <v>1.23853873900004</v>
       </c>
       <c r="W40"/>
       <c r="X40"/>
@@ -3330,62 +3330,62 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.626114177381857</v>
+        <v>-0.622626908073844</v>
       </c>
       <c r="C41" t="n">
-        <v>1.19950712077137</v>
+        <v>1.19603865425097</v>
       </c>
       <c r="D41" t="n">
-        <v>1.16066043278317</v>
+        <v>1.16075621592488</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.563843773526849</v>
+        <v>-0.559667713393226</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>-0.611823029947218</v>
+        <v>-0.609068134363722</v>
       </c>
       <c r="H41" t="n">
         <v>0.90432598429143</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.501028441545996</v>
+        <v>-0.498228575815275</v>
       </c>
       <c r="J41" t="n">
-        <v>0.899275308528762</v>
+        <v>0.897409705959137</v>
       </c>
       <c r="K41" t="n">
-        <v>0.125138628506458</v>
+        <v>0.121301622787545</v>
       </c>
       <c r="L41" t="n">
-        <v>0.831299458407102</v>
+        <v>0.827791743087688</v>
       </c>
       <c r="M41" t="n">
-        <v>1.133370145222</v>
+        <v>1.13067518163325</v>
       </c>
       <c r="N41" t="n">
         <v>0.136844506019512</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.581202009597358</v>
+        <v>-0.574376997408675</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.358932008829798</v>
+        <v>-0.364412321653776</v>
       </c>
       <c r="Q41" t="n">
         <v>-0.316404062700357</v>
       </c>
       <c r="R41" t="n">
-        <v>0.253797388628874</v>
+        <v>0.275876365640886</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.538165929098631</v>
+        <v>-0.529845336901517</v>
       </c>
       <c r="T41" t="n">
         <v>0.17153977012679</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.00426686970106615</v>
+        <v>-0.00211124891585848</v>
       </c>
       <c r="V41"/>
       <c r="W41"/>
@@ -3397,60 +3397,60 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.678804930482793</v>
+        <v>-0.675741190436958</v>
       </c>
       <c r="C42" t="n">
-        <v>0.960204923977375</v>
+        <v>0.95658476334082</v>
       </c>
       <c r="D42" t="n">
-        <v>0.813381170903902</v>
+        <v>0.811031691549536</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.50869205858565</v>
+        <v>-0.504392318685633</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>0.09862509216982</v>
+        <v>0.100449729179541</v>
       </c>
       <c r="H42" t="n">
         <v>0.782752508668431</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.454013992188775</v>
+        <v>-0.450311434874421</v>
       </c>
       <c r="J42" t="n">
-        <v>0.474983818130905</v>
+        <v>0.470281771512459</v>
       </c>
       <c r="K42"/>
       <c r="L42" t="n">
-        <v>0.493147156929512</v>
+        <v>0.488749819014286</v>
       </c>
       <c r="M42" t="n">
-        <v>0.444100178368425</v>
+        <v>0.434506867555417</v>
       </c>
       <c r="N42" t="n">
         <v>-0.271956803102068</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.331572761777765</v>
+        <v>-0.324806275413786</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="Q42" t="n">
         <v>1.2272423026936</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.0161338193260408</v>
+        <v>-0.00565231324402134</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.507566663670494</v>
+        <v>-0.499087366072912</v>
       </c>
       <c r="T42" t="n">
         <v>-0.400009769640637</v>
       </c>
       <c r="U42" t="n">
-        <v>-0.193774737803592</v>
+        <v>-0.192670092239011</v>
       </c>
       <c r="V42"/>
       <c r="W42"/>
@@ -3462,58 +3462,58 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.646712903071217</v>
+        <v>-0.643391206706835</v>
       </c>
       <c r="C43" t="n">
-        <v>0.078799214061023</v>
+        <v>0.0746203286742041</v>
       </c>
       <c r="D43" t="n">
-        <v>0.483092113064168</v>
+        <v>0.478417002626536</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.643101536058242</v>
+        <v>-0.639103214396853</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>-0.658351118549341</v>
+        <v>-0.655535299230535</v>
       </c>
       <c r="H43" t="n">
         <v>-0.374644792225975</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.506532682243249</v>
+        <v>-0.503838499591233</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0509797880923957</v>
+        <v>0.0434432191351891</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="n">
-        <v>-0.133971656719838</v>
+        <v>-0.140018840176388</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.151305788933957</v>
+        <v>-0.166858037897997</v>
       </c>
       <c r="N43" t="n">
         <v>-0.505557551171543</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>-0.448023752053904</v>
+        <v>-0.456098199459873</v>
       </c>
       <c r="S43" t="n">
-        <v>-0.583651323653971</v>
+        <v>-0.575566644889984</v>
       </c>
       <c r="T43" t="n">
         <v>-0.481659703893127</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.14131407831622</v>
+        <v>-1.14546430885477</v>
       </c>
       <c r="V43"/>
       <c r="W43"/>
@@ -3525,61 +3525,61 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.742306734518783</v>
+        <v>-0.739753423165411</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0703458810845619</v>
+        <v>0.0661616371139455</v>
       </c>
       <c r="D44" t="n">
-        <v>0.160896293136676</v>
+        <v>0.153952537716911</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.427486332612625</v>
+        <v>-0.423004485860104</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>-0.536065757479658</v>
+        <v>-0.533410058234423</v>
       </c>
       <c r="H44" t="n">
         <v>0.36964019772972</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.679527132436104</v>
+        <v>-0.680154495316142</v>
       </c>
       <c r="J44" t="n">
-        <v>0.38443380493624</v>
+        <v>0.379126419648838</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>0.876386431937448</v>
+        <v>0.872997332964142</v>
       </c>
       <c r="M44" t="n">
-        <v>0.640185599973322</v>
+        <v>0.632554750008594</v>
       </c>
       <c r="N44" t="n">
         <v>0.487245628123723</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.381498611341683</v>
+        <v>-0.374720419812764</v>
       </c>
       <c r="P44" t="n">
-        <v>0.632042757952602</v>
+        <v>0.628070307971941</v>
       </c>
       <c r="Q44"/>
       <c r="R44" t="n">
-        <v>1.27953597885755</v>
+        <v>1.34568534540353</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.532376878882497</v>
+        <v>-0.524026261339348</v>
       </c>
       <c r="T44" t="n">
         <v>0.743089309894218</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.302064948147892</v>
+        <v>-0.30156085985224</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.0214856508185671</v>
+        <v>0.359397401941977</v>
       </c>
       <c r="W44"/>
       <c r="X44"/>
@@ -3590,63 +3590,63 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.103221429850799</v>
+        <v>-0.0955311388259545</v>
       </c>
       <c r="C45" t="n">
-        <v>1.11428877954142</v>
+        <v>1.11076629295298</v>
       </c>
       <c r="D45" t="n">
-        <v>0.986788076743293</v>
+        <v>0.985659589973152</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.683521777472102</v>
+        <v>-0.679614099701314</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>-0.678036079111778</v>
+        <v>-0.675194484366494</v>
       </c>
       <c r="H45" t="n">
         <v>0.158705022076142</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.680897553019539</v>
+        <v>-0.68155122838741</v>
       </c>
       <c r="J45" t="n">
-        <v>1.12378184917966</v>
+        <v>1.12341710216703</v>
       </c>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>0.308700447032644</v>
+        <v>0.303817860428794</v>
       </c>
       <c r="M45" t="n">
-        <v>0.525742051369725</v>
+        <v>0.516965828222052</v>
       </c>
       <c r="N45" t="n">
         <v>-0.855958673275754</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.724027975539103</v>
+        <v>-0.73006381677904</v>
       </c>
       <c r="Q45"/>
       <c r="R45" t="n">
-        <v>-0.286065027280956</v>
+        <v>-0.287180992128929</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.507566663670494</v>
+        <v>-0.499087366072912</v>
       </c>
       <c r="T45" t="n">
         <v>-0.481659703893127</v>
       </c>
       <c r="U45" t="n">
-        <v>0.706387635683405</v>
+        <v>0.712484413545961</v>
       </c>
       <c r="V45"/>
       <c r="W45"/>
       <c r="X45" t="n">
-        <v>-0.336794930299602</v>
+        <v>-0.423836800390927</v>
       </c>
       <c r="Y45"/>
     </row>
@@ -3655,60 +3655,60 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0697124200351135</v>
+        <v>-0.061752782960568</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.965478902772489</v>
+        <v>-0.970319758037049</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.692006862760333</v>
+        <v>-0.704956079285419</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149354341540584</v>
+        <v>0.155129774900549</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.150237955740828</v>
+        <v>-0.149965534709764</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.103593139062485</v>
+        <v>-0.101503718126224</v>
       </c>
       <c r="H46" t="n">
         <v>-1.5513394702034</v>
       </c>
       <c r="I46" t="n">
-        <v>0.37010224265742</v>
+        <v>0.389628079820891</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.57625871600525</v>
+        <v>-0.587988456313762</v>
       </c>
       <c r="K46"/>
       <c r="L46" t="n">
-        <v>-0.543853234268433</v>
+        <v>-0.550978748144148</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.556085229098391</v>
+        <v>-0.575688589037482</v>
       </c>
       <c r="N46" t="n">
         <v>-0.388757177136805</v>
       </c>
       <c r="O46" t="n">
-        <v>0.26753743298926</v>
+        <v>0.274163457373947</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="Q46" t="n">
         <v>-0.316404062700357</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.340051268871938</v>
+        <v>-0.34348672790591</v>
       </c>
       <c r="S46" t="n">
-        <v>0.163963161401066</v>
+        <v>0.175925399138636</v>
       </c>
       <c r="T46"/>
       <c r="U46" t="n">
-        <v>0.205545412841016</v>
+        <v>0.208864613334774</v>
       </c>
       <c r="V46"/>
       <c r="W46"/>
@@ -3720,66 +3720,66 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.243214043293775</v>
+        <v>-0.236649015522773</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.666755605038788</v>
+        <v>-0.67140709903867</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.376823317164726</v>
+        <v>-0.387553263528804</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0796531105662513</v>
+        <v>-0.0743912349117746</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.221844534997055</v>
+        <v>-0.221357591541582</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0576615644167995</v>
+        <v>-0.0556322861423187</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="n">
-        <v>0.589939134685707</v>
+        <v>0.613685906368655</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.470185843405785</v>
+        <v>-0.481206472702092</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="n">
-        <v>-0.365554748034794</v>
+        <v>-0.372211188178173</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0648813446740009</v>
+        <v>-0.0795686410739679</v>
       </c>
       <c r="N47" t="n">
         <v>-1.20635979537997</v>
       </c>
       <c r="O47" t="n">
-        <v>0.367389132117097</v>
+        <v>0.373991746171903</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="Q47" t="n">
         <v>0.0398220216213264</v>
       </c>
       <c r="R47" t="n">
-        <v>0.469742354992806</v>
+        <v>0.501099308748812</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.3099119491482</v>
+        <v>-0.300407500450301</v>
       </c>
       <c r="T47" t="n">
         <v>-0.400009769640637</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.457732125517824</v>
+        <v>-0.458091338296258</v>
       </c>
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47" t="n">
-        <v>0.537678178380185</v>
+        <v>0.76034968904957</v>
       </c>
     </row>
     <row r="48">
@@ -3787,68 +3787,68 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.659964312591124</v>
+        <v>-0.656749131305127</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.791281944609277</v>
+        <v>-0.796012376091859</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.522939071904691</v>
+        <v>-0.534697848418943</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.136631041233981</v>
+        <v>-0.131496940702401</v>
       </c>
       <c r="F48" t="n">
-        <v>0.115243436851635</v>
+        <v>0.1147205159942</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.136997920622984</v>
+        <v>-0.134864759569064</v>
       </c>
       <c r="H48" t="n">
         <v>-1.07231919445808</v>
       </c>
       <c r="I48" t="n">
-        <v>0.244669282136983</v>
+        <v>0.2617867686908</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.335654395230855</v>
+        <v>-0.345775664218999</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>-0.394246458463196</v>
+        <v>-0.400978381735916</v>
       </c>
       <c r="M48" t="n">
-        <v>1.76843763781082</v>
+        <v>1.77209855259395</v>
       </c>
       <c r="N48" t="n">
         <v>-0.797558486258385</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0927969595155444</v>
+        <v>0.0994639519775251</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.828341108884619</v>
+        <v>-0.834535672529116</v>
       </c>
       <c r="Q48" t="n">
         <v>3.48334083673093</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.232078785689973</v>
+        <v>-0.230875256351947</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.362013401093407</v>
+        <v>-0.352779180509818</v>
       </c>
       <c r="T48" t="n">
         <v>-0.726609506650596</v>
       </c>
       <c r="U48" t="n">
-        <v>-0.620167441034274</v>
+        <v>-0.621427489716103</v>
       </c>
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48" t="n">
-        <v>0.818083600477292</v>
+        <v>1.08752122024542</v>
       </c>
     </row>
     <row r="49">
@@ -3856,68 +3856,68 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.60968767766015</v>
+        <v>-0.606068371839129</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.606357998393176</v>
+        <v>-0.610971206235719</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.319257555484082</v>
+        <v>-0.32958216984724</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.376595787699995</v>
+        <v>-0.371999817012921</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.458951820559238</v>
+        <v>-0.457754539725939</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.348163861201852</v>
+        <v>-0.345754200118447</v>
       </c>
       <c r="H49" t="n">
         <v>-0.780780359142365</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.114792600857064</v>
+        <v>-0.104576890690127</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0780010618711209</v>
+        <v>0.0706451336595709</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>-0.0868352753017497</v>
+        <v>-0.0927584507600954</v>
       </c>
       <c r="M49" t="n">
-        <v>0.58105562804812</v>
+        <v>0.572832993880807</v>
       </c>
       <c r="N49" t="n">
         <v>0.136844506019512</v>
       </c>
       <c r="O49" t="n">
-        <v>0.117759884297504</v>
+        <v>0.124421024177014</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.124227458802387</v>
+        <v>-0.129350646216106</v>
       </c>
       <c r="Q49" t="n">
         <v>1.10850027458638</v>
       </c>
       <c r="R49" t="n">
-        <v>0.847646046129686</v>
+        <v>0.895239459187682</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.354570336529806</v>
+        <v>-0.345297511929887</v>
       </c>
       <c r="T49" t="n">
         <v>0.416489572884259</v>
       </c>
       <c r="U49" t="n">
-        <v>0.164936583961903</v>
+        <v>0.168030575479813</v>
       </c>
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49" t="n">
-        <v>0.271652521518826</v>
+        <v>0.44995618509453</v>
       </c>
     </row>
     <row r="50">
@@ -3925,58 +3925,58 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.902845592821338</v>
+        <v>-0.901582695823543</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0339236757256375</v>
+        <v>0.029716343650004</v>
       </c>
       <c r="D50" t="n">
-        <v>0.371511237133896</v>
+        <v>0.366050463510632</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.603898771795403</v>
+        <v>-0.59981253648108</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>-0.749021239927838</v>
+        <v>-0.74608669743253</v>
       </c>
       <c r="H50" t="n">
         <v>-0.239117828558334</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.550293087663671</v>
+        <v>-0.548439117971915</v>
       </c>
       <c r="J50" t="n">
-        <v>0.12773170403835</v>
+        <v>0.12070823166721</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="n">
-        <v>-0.326615998167677</v>
+        <v>-0.333169996921235</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.110823014037454</v>
+        <v>-0.125970103555607</v>
       </c>
       <c r="N50" t="n">
         <v>0.370445254088986</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.489323425511692</v>
+        <v>-0.49500214134137</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="n">
-        <v>0.091838663855925</v>
+        <v>0.106959158309942</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.519144764102762</v>
+        <v>-0.510725517197249</v>
       </c>
       <c r="T50" t="n">
         <v>-0.889909375155575</v>
       </c>
       <c r="U50" t="n">
-        <v>-0.450963987371305</v>
+        <v>-0.451285665320431</v>
       </c>
       <c r="V50"/>
       <c r="W50"/>
@@ -3989,71 +3989,71 @@
       </c>
       <c r="B51"/>
       <c r="C51" t="n">
-        <v>1.85504851838389</v>
+        <v>1.85199560079805</v>
       </c>
       <c r="D51" t="n">
-        <v>1.29795806815112</v>
+        <v>1.29902059130704</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0937156357389767</v>
+        <v>0.0993662972374802</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.542283977168672</v>
+        <v>-0.540837045863966</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.181139953399358</v>
+        <v>-0.178948992904246</v>
       </c>
       <c r="H51" t="n">
         <v>1.28463275418901</v>
       </c>
       <c r="I51" t="n">
-        <v>0.399103838749246</v>
+        <v>0.419186515290014</v>
       </c>
       <c r="J51" t="n">
-        <v>2.30524392610052</v>
+        <v>2.31277740743522</v>
       </c>
       <c r="K51"/>
       <c r="L51" t="n">
-        <v>1.71869307379981</v>
+        <v>1.71751994383789</v>
       </c>
       <c r="M51" t="n">
-        <v>2.32234634540425</v>
+        <v>2.33155088573219</v>
       </c>
       <c r="N51" t="n">
         <v>1.71364955548846</v>
       </c>
       <c r="O51" t="n">
-        <v>1.1662027251398</v>
+        <v>1.17261805655555</v>
       </c>
       <c r="P51" t="n">
-        <v>0.240868507906918</v>
+        <v>0.236300848909158</v>
       </c>
       <c r="Q51" t="n">
         <v>3.60208286483816</v>
       </c>
       <c r="R51" t="n">
-        <v>0.199811147037891</v>
+        <v>0.219570629863905</v>
       </c>
       <c r="S51" t="n">
-        <v>0.00683179839171116</v>
+        <v>0.0179790624512047</v>
       </c>
       <c r="T51" t="n">
         <v>1.23298891540916</v>
       </c>
       <c r="U51" t="n">
-        <v>2.37811775787354</v>
+        <v>2.3934856385752</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.0907011702340855</v>
+        <v>-0.0801732665870564</v>
       </c>
       <c r="W51" t="n">
-        <v>-0.19876554492612</v>
+        <v>-0.30878016141202</v>
       </c>
       <c r="X51" t="n">
-        <v>0.228468522743232</v>
+        <v>0.552699393720864</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.53048829576231</v>
+        <v>0.751960675429164</v>
       </c>
     </row>
     <row r="52">
@@ -4061,56 +4061,56 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.494387294629515</v>
+        <v>-0.489841202166061</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.855498125806324</v>
+        <v>-0.860269264047892</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.617412745384381</v>
+        <v>-0.629836729862324</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.457923261388122</v>
+        <v>-0.453509670577319</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.502363309233326</v>
+        <v>-0.501035974180228</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.456132887317036</v>
+        <v>-0.45358185192477</v>
       </c>
       <c r="H52"/>
       <c r="I52" t="n">
-        <v>-0.107328602329591</v>
+        <v>-0.0969695811435281</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.413556152614201</v>
+        <v>-0.424198205028654</v>
       </c>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>-0.451629879319999</v>
+        <v>-0.458512768851402</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.330241586328523</v>
+        <v>-0.347584659382739</v>
       </c>
       <c r="N52" t="n">
         <v>-0.505557551171543</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0927969595155443</v>
+        <v>0.099463951977525</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="Q52" t="n">
         <v>1.58346838701529</v>
       </c>
       <c r="R52"/>
       <c r="S52" t="n">
-        <v>-0.0460966607272296</v>
+        <v>-0.0352239141171932</v>
       </c>
       <c r="T52"/>
       <c r="U52" t="n">
-        <v>-0.119325218191885</v>
+        <v>-0.117807689504915</v>
       </c>
       <c r="V52"/>
       <c r="W52"/>
@@ -4122,58 +4122,58 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.466195573281833</v>
+        <v>0.478462848863071</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.278616449010969</v>
+        <v>-0.283021900864108</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.64184760918794</v>
+        <v>-0.654443644411822</v>
       </c>
       <c r="E53" t="n">
-        <v>0.534807607553472</v>
+        <v>0.541447434159355</v>
       </c>
       <c r="F53" t="n">
-        <v>0.045337513852743</v>
+        <v>0.045024020512138</v>
       </c>
       <c r="G53" t="n">
-        <v>0.88900608444948</v>
+        <v>0.889795799032457</v>
       </c>
       <c r="H53" t="n">
         <v>0.2682547473628</v>
       </c>
       <c r="I53" t="n">
-        <v>0.459926826372064</v>
+        <v>0.481177322588894</v>
       </c>
       <c r="J53" t="n">
-        <v>0.964816270460138</v>
+        <v>0.963388817784233</v>
       </c>
       <c r="K53"/>
       <c r="L53" t="n">
-        <v>-0.240540866882473</v>
+        <v>-0.246868416248006</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.109470367620865</v>
+        <v>-0.124603919591899</v>
       </c>
       <c r="N53" t="n">
         <v>0.720846376193198</v>
       </c>
       <c r="O53" t="n">
-        <v>1.39086904817743</v>
+        <v>1.39723170635095</v>
       </c>
       <c r="P53" t="n">
-        <v>2.58791400818102</v>
+        <v>2.58691760328586</v>
       </c>
       <c r="Q53"/>
       <c r="R53" t="n">
-        <v>-0.448023752053905</v>
+        <v>-0.456098199459873</v>
       </c>
       <c r="S53" t="n">
-        <v>1.116675425542</v>
+        <v>1.1335789773698</v>
       </c>
       <c r="T53"/>
       <c r="U53" t="n">
-        <v>0.909431780078968</v>
+        <v>0.916654602820767</v>
       </c>
       <c r="V53"/>
       <c r="W53"/>
@@ -4185,60 +4185,60 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.734818700520025</v>
+        <v>0.749245173838765</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0738875361074586</v>
+        <v>0.0697055371986746</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.441683675430006</v>
+        <v>-0.45287031650338</v>
       </c>
       <c r="E54" t="n">
-        <v>0.766980500252959</v>
+        <v>0.774140983182269</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.0546431724337644</v>
+        <v>-0.0546571388392875</v>
       </c>
       <c r="G54" t="n">
-        <v>1.00353676408548</v>
+        <v>1.00417651255077</v>
       </c>
       <c r="H54" t="n">
         <v>0.139259203630949</v>
       </c>
       <c r="I54" t="n">
-        <v>0.672026199715278</v>
+        <v>0.697349067763077</v>
       </c>
       <c r="J54" t="n">
-        <v>0.572432879949925</v>
+        <v>0.568382293041878</v>
       </c>
       <c r="K54" t="n">
-        <v>1.64977714906684</v>
+        <v>1.64256668033488</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.517210931727774</v>
+        <v>-0.524266354126244</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.203914072779174</v>
+        <v>-0.219992835629337</v>
       </c>
       <c r="N54" t="n">
         <v>-0.2135566160847</v>
       </c>
       <c r="O54" t="n">
-        <v>1.36590612339547</v>
+        <v>1.37227463415146</v>
       </c>
       <c r="P54" t="n">
-        <v>1.2579215580257</v>
+        <v>1.25490144247239</v>
       </c>
       <c r="Q54"/>
       <c r="R54" t="n">
-        <v>-0.825927443190785</v>
+        <v>-0.850238349898743</v>
       </c>
       <c r="S54" t="n">
-        <v>1.79730232952463</v>
+        <v>1.81773600417904</v>
       </c>
       <c r="T54"/>
       <c r="U54" t="n">
-        <v>0.686083221243849</v>
+        <v>0.692067394618481</v>
       </c>
       <c r="V54"/>
       <c r="W54"/>
@@ -4250,56 +4250,56 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.785262293695194</v>
+        <v>-0.783054259932551</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.954183500950494</v>
+        <v>-0.959017196038428</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.604550550499964</v>
+        <v>-0.616883969700274</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.262031187789026</v>
+        <v>-0.257178301737325</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>-0.39588497771685</v>
+        <v>-0.393412830751076</v>
       </c>
       <c r="H55" t="n">
         <v>-0.465936229964856</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.471533381252316</v>
+        <v>-0.468167201483042</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0498299466550031</v>
+        <v>0.0422856908575558</v>
       </c>
       <c r="K55"/>
       <c r="L55" t="n">
-        <v>-0.402444090014167</v>
+        <v>-0.409197579895271</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.513042087770487</v>
+        <v>-0.532214663620931</v>
       </c>
       <c r="N55" t="n">
         <v>0.370445254088986</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.10690643874013</v>
+        <v>-0.100192625618386</v>
       </c>
       <c r="P55" t="n">
-        <v>0.319103357916055</v>
+        <v>0.314654740721715</v>
       </c>
       <c r="Q55"/>
       <c r="R55" t="n">
-        <v>0.523728596583789</v>
+        <v>0.557405044525793</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.375245515873142</v>
+        <v>-0.366079924651917</v>
       </c>
       <c r="T55"/>
       <c r="U55" t="n">
-        <v>1.15308475335364</v>
+        <v>1.16165882995053</v>
       </c>
       <c r="V55"/>
       <c r="W55"/>
@@ -4311,65 +4311,65 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.59197539760879</v>
+        <v>-0.588213720148341</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.528412438465394</v>
+        <v>-0.532976236469749</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.140656937571529</v>
+        <v>-0.149723989388641</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.146857849302548</v>
+        <v>-0.141746682767385</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>-0.527714562089533</v>
+        <v>-0.525069797873713</v>
       </c>
       <c r="H56" t="n">
         <v>-0.245203924407593</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.244959997919861</v>
+        <v>-0.237243540969723</v>
       </c>
       <c r="J56" t="n">
-        <v>0.208795525374526</v>
+        <v>0.202313975240356</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.482237692692394</v>
+        <v>-0.484730798511798</v>
       </c>
       <c r="L56" t="n">
-        <v>0.441911959735938</v>
+        <v>0.437379830518316</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0720793559622811</v>
+        <v>-0.0868386914522688</v>
       </c>
       <c r="N56" t="n">
         <v>0.545645815141092</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0428711099516258</v>
+        <v>0.0495498075785474</v>
       </c>
       <c r="P56" t="n">
-        <v>0.266946791243297</v>
+        <v>0.262418812846677</v>
       </c>
       <c r="Q56" t="n">
         <v>-0.197662034593129</v>
       </c>
       <c r="R56" t="n">
-        <v>0.631701079765755</v>
+        <v>0.670016516079756</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.33637617870767</v>
+        <v>-0.3270089887345</v>
       </c>
       <c r="T56" t="n">
         <v>-0.0734100326306787</v>
       </c>
       <c r="U56" t="n">
-        <v>0.591329287192586</v>
+        <v>0.596787972956905</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0477298685969512</v>
+        <v>0.798968070471009</v>
       </c>
       <c r="W56"/>
       <c r="X56"/>
@@ -4380,59 +4380,59 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>0.588029819620304</v>
+        <v>0.601276401159852</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.46297212314925</v>
+        <v>-1.46812834030923</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.60117353715412</v>
+        <v>-1.62052437743165</v>
       </c>
       <c r="E57" t="n">
-        <v>1.27004205905437</v>
+        <v>1.27833067618839</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0387139052715419</v>
+        <v>0.0384202552551948</v>
       </c>
       <c r="G57" t="n">
-        <v>1.05424045038266</v>
+        <v>1.05481380759793</v>
       </c>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>0.811329734000974</v>
+        <v>0.839327271851128</v>
       </c>
       <c r="J57" t="n">
-        <v>-1.4662359885471</v>
+        <v>-1.48391534320192</v>
       </c>
       <c r="K57"/>
       <c r="L57" t="n">
-        <v>-0.650422444431067</v>
+        <v>-0.657828324215766</v>
       </c>
       <c r="M57" t="n">
-        <v>-1.39950857864259</v>
+        <v>-1.42755308269356</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
-        <v>1.19116564992176</v>
+        <v>1.19757512875504</v>
       </c>
       <c r="P57" t="n">
-        <v>1.93595692477155</v>
+        <v>1.93396850484788</v>
       </c>
       <c r="Q57"/>
       <c r="R57" t="n">
-        <v>-1.20383113432767</v>
+        <v>-1.24437850033761</v>
       </c>
       <c r="S57" t="n">
-        <v>1.07532506685533</v>
+        <v>1.09201415192574</v>
       </c>
       <c r="T57"/>
       <c r="U57" t="n">
-        <v>0.740228326415999</v>
+        <v>0.746512778425096</v>
       </c>
       <c r="V57"/>
       <c r="W57"/>
       <c r="X57" t="n">
-        <v>0.670848616428928</v>
+        <v>1.31694511085183</v>
       </c>
       <c r="Y57"/>
     </row>
@@ -4441,54 +4441,54 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>0.448666976134709</v>
+        <v>0.460793356523151</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.718612430435768</v>
+        <v>-0.723296796575567</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.00378219377316</v>
+        <v>-1.01892668254112</v>
       </c>
       <c r="E58" t="n">
-        <v>1.66182620625256</v>
+        <v>1.67099341386838</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.100023842037398</v>
+        <v>-0.099901854856452</v>
       </c>
       <c r="G58" t="n">
-        <v>0.914059670619854</v>
+        <v>0.914816580114587</v>
       </c>
       <c r="H58"/>
       <c r="I58" t="n">
-        <v>0.734510046851765</v>
+        <v>0.76103262357837</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.596955861878316</v>
+        <v>-0.608823965311161</v>
       </c>
       <c r="K58"/>
       <c r="L58" t="n">
-        <v>0.0750679478299453</v>
+        <v>0.0695707128871702</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.508307825312423</v>
+        <v>-0.527433019747955</v>
       </c>
       <c r="N58" t="n">
         <v>0.19524469303688</v>
       </c>
       <c r="O58" t="n">
-        <v>1.39086904817743</v>
+        <v>1.39723170635095</v>
       </c>
       <c r="P58" t="n">
-        <v>2.09242662478982</v>
+        <v>2.090676288473</v>
       </c>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58" t="n">
-        <v>0.919020711019705</v>
+        <v>0.934899111747186</v>
       </c>
       <c r="T58"/>
       <c r="U58" t="n">
-        <v>0.889127365639412</v>
+        <v>0.896237583893287</v>
       </c>
       <c r="V58"/>
       <c r="W58"/>
@@ -4500,61 +4500,61 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.265833280929735</v>
+        <v>-0.259450067015304</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.07647990958064</v>
+        <v>-1.08139112859382</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.96495652541037</v>
+        <v>-0.979827634909379</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.140770463547448</v>
+        <v>-0.135645645823942</v>
       </c>
       <c r="F59" t="n">
-        <v>0.86675448614574</v>
+        <v>0.863980152444127</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00258634518338589</v>
+        <v>0.00453673503137527</v>
       </c>
       <c r="H59" t="n">
         <v>-0.0241747361259756</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.423915495671114</v>
+        <v>-0.419635038161012</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.268963591862086</v>
+        <v>-0.278639024116269</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="n">
-        <v>0.876386431937448</v>
+        <v>0.872997332964142</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0864753785388417</v>
+        <v>-0.101378792208871</v>
       </c>
       <c r="N59" t="n">
         <v>2.23925123864478</v>
       </c>
       <c r="O59" t="n">
-        <v>0.192648658643382</v>
+        <v>0.199292240775481</v>
       </c>
       <c r="P59" t="n">
-        <v>2.1185049081262</v>
+        <v>2.11679425241052</v>
       </c>
       <c r="Q59"/>
       <c r="R59" t="n">
-        <v>1.92737087794935</v>
+        <v>2.02135417472731</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.00640031638802399</v>
+        <v>0.00467831830910528</v>
       </c>
       <c r="T59"/>
       <c r="U59" t="n">
-        <v>2.45256727748525</v>
+        <v>2.46834804130929</v>
       </c>
       <c r="V59" t="n">
-        <v>0.163089067622815</v>
+        <v>1.53158585135273</v>
       </c>
       <c r="W59"/>
       <c r="X59"/>
@@ -4565,69 +4565,69 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>0.457929842591198</v>
+        <v>0.470130678074037</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.813654127572842</v>
+        <v>-0.818398740824612</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.734517981071219</v>
+        <v>-0.74776652685285</v>
       </c>
       <c r="E60" t="n">
-        <v>0.276337208391956</v>
+        <v>0.282397405540768</v>
       </c>
       <c r="F60" t="n">
-        <v>1.91417972421621</v>
+        <v>1.90826746375154</v>
       </c>
       <c r="G60" t="n">
-        <v>0.204804576415691</v>
+        <v>0.20649018233714</v>
       </c>
       <c r="H60" t="n">
         <v>0.657171116266653</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.102140178721525</v>
+        <v>-0.0916815382399612</v>
       </c>
       <c r="J60" t="n">
-        <v>0.21741933615497</v>
+        <v>0.210995437322605</v>
       </c>
       <c r="K60"/>
       <c r="L60" t="n">
-        <v>2.10603116458323</v>
+        <v>2.10587705686742</v>
       </c>
       <c r="M60" t="n">
-        <v>0.383472633624855</v>
+        <v>0.373272550610668</v>
       </c>
       <c r="N60" t="n">
         <v>2.00565049057531</v>
       </c>
       <c r="O60" t="n">
-        <v>0.192648658643382</v>
+        <v>0.199292240775481</v>
       </c>
       <c r="P60" t="n">
-        <v>1.44046954138035</v>
+        <v>1.43772719003503</v>
       </c>
       <c r="Q60" t="n">
         <v>-0.435146090807585</v>
       </c>
       <c r="R60" t="n">
-        <v>1.49548094522148</v>
+        <v>1.57090828851146</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.0386535961636285</v>
+        <v>-0.0277422455372622</v>
       </c>
       <c r="T60" t="n">
         <v>1.96783832368156</v>
       </c>
       <c r="U60" t="n">
-        <v>2.00587015981501</v>
+        <v>2.01917362490472</v>
       </c>
       <c r="V60" t="n">
-        <v>0.393807465674543</v>
+        <v>2.99682141311617</v>
       </c>
       <c r="W60"/>
       <c r="X60" t="n">
-        <v>-0.0929187248062051</v>
+        <v>-0.0025218537674449</v>
       </c>
       <c r="Y60"/>
     </row>
@@ -4636,58 +4636,58 @@
         <v>84</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.266699214621135</v>
+        <v>-0.260322961097965</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.750297854385469</v>
+        <v>-0.755002305975571</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.821366410282868</v>
+        <v>-0.835226473163578</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.181190704961308</v>
+        <v>-0.176156531128403</v>
       </c>
       <c r="F61" t="n">
-        <v>0.730881002007049</v>
+        <v>0.728513724605753</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0998181200826949</v>
+        <v>0.101641194945357</v>
       </c>
       <c r="H61" t="n">
         <v>-0.245203924407593</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.278983649688842</v>
+        <v>-0.271920457097135</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.198248343462443</v>
+        <v>-0.207451035041823</v>
       </c>
       <c r="K61" t="n">
-        <v>0.149929498759472</v>
+        <v>0.146037639983437</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0771173557176883</v>
+        <v>0.071625512427009</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.186474595765286</v>
+        <v>-0.202378820954393</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
-        <v>0.242574508207301</v>
+        <v>0.249206385174458</v>
       </c>
       <c r="P61" t="n">
-        <v>0.814590741307255</v>
+        <v>0.810896055534573</v>
       </c>
       <c r="Q61"/>
       <c r="R61" t="n">
-        <v>1.27953597885755</v>
+        <v>1.34568534540353</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.21397911699512</v>
+        <v>-0.20397710542008</v>
       </c>
       <c r="T61"/>
       <c r="U61" t="n">
-        <v>1.57270931843781</v>
+        <v>1.5836105544518</v>
       </c>
       <c r="V61"/>
       <c r="W61"/>
@@ -4699,59 +4699,59 @@
         <v>85</v>
       </c>
       <c r="B62" t="n">
-        <v>0.474618746461814</v>
+        <v>0.486953727667135</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.681767558428021</v>
+        <v>-0.686428568533612</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.729962673371398</v>
+        <v>-0.743179144323637</v>
       </c>
       <c r="E62" t="n">
-        <v>0.509727578242463</v>
+        <v>0.51631116195237</v>
       </c>
       <c r="F62" t="n">
-        <v>0.122672619449468</v>
+        <v>0.122127441890501</v>
       </c>
       <c r="G62" t="n">
-        <v>0.118310052732257</v>
+        <v>0.1201089143155</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="n">
-        <v>0.830777863144904</v>
+        <v>0.859148810930422</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.247978985629672</v>
+        <v>-0.257514133049462</v>
       </c>
       <c r="K62"/>
       <c r="L62" t="n">
-        <v>-0.140119880383067</v>
+        <v>-0.146183238795904</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.0438670164162698</v>
+        <v>-0.0583439973520828</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
-        <v>0.442277906462975</v>
+        <v>0.448862962770369</v>
       </c>
       <c r="P62" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="Q62"/>
       <c r="R62" t="n">
-        <v>0.307783630219857</v>
+        <v>0.332182101417867</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.205709045257785</v>
+        <v>-0.195664140331268</v>
       </c>
       <c r="T62" t="n">
         <v>1.15133898115667</v>
       </c>
       <c r="U62" t="n">
-        <v>1.02449012856979</v>
+        <v>1.03235104340982</v>
       </c>
       <c r="V62" t="n">
-        <v>0.0477298685969512</v>
+        <v>0.798968070471009</v>
       </c>
       <c r="W62"/>
       <c r="X62"/>
@@ -4762,54 +4762,54 @@
         <v>86</v>
       </c>
       <c r="B63" t="n">
-        <v>2.18426049784893</v>
+        <v>2.21033761153364</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.448863660214489</v>
+        <v>-0.453377032097522</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.65145233258128</v>
+        <v>-1.67115719587804</v>
       </c>
       <c r="E63" t="n">
-        <v>1.90495639331122</v>
+        <v>1.91466882938949</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.283605209605551</v>
+        <v>-0.282933240559025</v>
       </c>
       <c r="G63" t="n">
-        <v>1.16757810210578</v>
+        <v>1.16800305535043</v>
       </c>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>2.94138910977004</v>
+        <v>3.0102844289924</v>
       </c>
       <c r="J63" t="n">
-        <v>-1.59846775384724</v>
+        <v>-1.61703109512974</v>
       </c>
       <c r="K63"/>
       <c r="L63" t="n">
-        <v>-1.24065191610104</v>
+        <v>-1.24961059168934</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.44414591039005</v>
+        <v>-1.47263715349591</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
-        <v>3.38790303073418</v>
+        <v>3.39379748231006</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.958732525566513</v>
+        <v>-0.96512549221671</v>
       </c>
       <c r="Q63"/>
       <c r="R63" t="n">
-        <v>-2.12159724137438</v>
+        <v>-2.2015760085463</v>
       </c>
       <c r="S63" t="n">
-        <v>3.2826072135499</v>
+        <v>3.3107445341297</v>
       </c>
       <c r="T63"/>
       <c r="U63" t="n">
-        <v>0.943272470811562</v>
+        <v>0.950682967699902</v>
       </c>
       <c r="V63"/>
       <c r="W63"/>
@@ -4821,52 +4821,52 @@
         <v>87</v>
       </c>
       <c r="B64" t="n">
-        <v>0.756047196166767</v>
+        <v>0.770644304531872</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.13789774606824</v>
+        <v>-1.14284789796439</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.60012818178582</v>
+        <v>-1.61947166150786</v>
       </c>
       <c r="E64" t="n">
-        <v>0.752249026725619</v>
+        <v>0.759376473779137</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.190516656572456</v>
+        <v>-0.190123566677662</v>
       </c>
       <c r="G64" t="n">
-        <v>0.633101597137801</v>
+        <v>0.634226392264984</v>
       </c>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>1.16747553755856</v>
+        <v>1.20231118207195</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.59358092773832</v>
+        <v>-1.6121115999498</v>
       </c>
       <c r="K64"/>
       <c r="L64" t="n">
-        <v>-1.22630606088684</v>
+        <v>-1.23522699491047</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.65259838494662</v>
+        <v>-1.68317586076013</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
-        <v>2.33946018989189</v>
+        <v>2.34560044993152</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.254618875484282</v>
+        <v>-0.2599404659037</v>
       </c>
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64" t="n">
-        <v>2.73182043584342</v>
+        <v>2.75710105921481</v>
       </c>
       <c r="T64"/>
       <c r="U64" t="n">
-        <v>0.286763070599241</v>
+        <v>0.290532689044696</v>
       </c>
       <c r="V64"/>
       <c r="W64"/>
@@ -4878,56 +4878,56 @@
         <v>88</v>
       </c>
       <c r="B65" t="n">
-        <v>0.995543462876054</v>
+        <v>1.01206564672716</v>
       </c>
       <c r="C65" t="n">
-        <v>0.399238832717012</v>
+        <v>0.395263074611868</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.608266521772681</v>
+        <v>-0.62062610586732</v>
       </c>
       <c r="E65" t="n">
-        <v>1.35770041392779</v>
+        <v>1.36618560817397</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.297210459664234</v>
+        <v>-0.29649773135707</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0548369643391</v>
+        <v>1.05540954048084</v>
       </c>
       <c r="H65" t="n">
         <v>-0.548618068697469</v>
       </c>
       <c r="I65" t="n">
-        <v>1.88242339197743</v>
+        <v>1.93098625056531</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0078607341901745</v>
+        <v>0.0000359087239413617</v>
       </c>
       <c r="K65"/>
       <c r="L65" t="n">
-        <v>0.128352552911263</v>
+        <v>0.122995500922979</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.431400214769187</v>
+        <v>-0.449755702954297</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
-        <v>1.89012754381662</v>
+        <v>1.89637315034072</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.437166858838934</v>
+        <v>-0.442766213466333</v>
       </c>
       <c r="Q65"/>
       <c r="R65" t="n">
-        <v>-1.7436935502375</v>
+        <v>-1.80743585810743</v>
       </c>
       <c r="S65" t="n">
-        <v>3.0576612622944</v>
+        <v>3.08463188371401</v>
       </c>
       <c r="T65"/>
       <c r="U65" t="n">
-        <v>0.543952320166954</v>
+        <v>0.549148262126117</v>
       </c>
       <c r="V65"/>
       <c r="W65"/>
@@ -4939,54 +4939,54 @@
         <v>89</v>
       </c>
       <c r="B66" t="n">
-        <v>1.18261138063331</v>
+        <v>1.20063721991772</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.132811029879043</v>
+        <v>-0.137124055400613</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.940325816440487</v>
+        <v>-0.955023496208709</v>
       </c>
       <c r="E66" t="n">
-        <v>1.69189789188275</v>
+        <v>1.70113253636899</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.215489451088065</v>
+        <v>-0.215021546497758</v>
       </c>
       <c r="G66" t="n">
-        <v>1.35011137277565</v>
+        <v>1.35029731752023</v>
       </c>
       <c r="H66" t="n">
         <v>-1.39948395669628</v>
       </c>
       <c r="I66" t="n">
-        <v>1.95912182792276</v>
+        <v>2.00915731957456</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.533427122462377</v>
+        <v>-0.544870527971922</v>
       </c>
       <c r="K66"/>
       <c r="L66" t="n">
-        <v>-0.492618037074858</v>
+        <v>-0.499608759648178</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.947434822698115</v>
+        <v>-0.970954885108728</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
-        <v>1.26605442426763</v>
+        <v>1.2724463453535</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="Q66"/>
       <c r="R66"/>
       <c r="S66" t="n">
-        <v>2.84512041864491</v>
+        <v>2.87098868093154</v>
       </c>
       <c r="T66"/>
       <c r="U66" t="n">
-        <v>0.489807214994804</v>
+        <v>0.494702878319502</v>
       </c>
       <c r="V66"/>
       <c r="W66"/>
@@ -4998,52 +4998,52 @@
         <v>90</v>
       </c>
       <c r="B67" t="n">
-        <v>0.84576317467877</v>
+        <v>0.861081421762691</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.51797708634436</v>
+        <v>-1.52316817125478</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.04432027967081</v>
+        <v>-2.06679140448209</v>
       </c>
       <c r="E67" t="n">
-        <v>1.03251226689039</v>
+        <v>1.04026821465525</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.0445287431138222</v>
+        <v>-0.0445730108117933</v>
       </c>
       <c r="G67" t="n">
-        <v>1.07690798072729</v>
+        <v>1.07745165714843</v>
       </c>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>2.00125803117022</v>
+        <v>2.05210255061152</v>
       </c>
       <c r="J67" t="n">
-        <v>-1.98567685788919</v>
+        <v>-2.00682874262275</v>
       </c>
       <c r="K67"/>
       <c r="L67" t="n">
-        <v>-1.34517171837594</v>
+        <v>-1.35440536822112</v>
       </c>
       <c r="M67" t="n">
-        <v>-1.74936091253337</v>
+        <v>-1.78090680644963</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.854419392220998</v>
+        <v>-0.860653636466635</v>
       </c>
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67" t="n">
-        <v>2.65987081172861</v>
+        <v>2.68477826294215</v>
       </c>
       <c r="T67"/>
       <c r="U67" t="n">
-        <v>0.361212590210948</v>
+        <v>0.365395091778792</v>
       </c>
       <c r="V67"/>
       <c r="W67"/>
@@ -5055,56 +5055,56 @@
         <v>91</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306968735723823</v>
+        <v>0.31795614299685</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.4888276622876</v>
+        <v>-1.49400026932285</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.47787755945647</v>
+        <v>-1.49636024818199</v>
       </c>
       <c r="E68" t="n">
-        <v>0.614308865515069</v>
+        <v>0.62112697664072</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148898529102062</v>
+        <v>0.148274782705154</v>
       </c>
       <c r="G68" t="n">
-        <v>1.37695450081534</v>
+        <v>1.37710529725109</v>
       </c>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>0.457107030932898</v>
+        <v>0.478303386228259</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.25897706945709</v>
+        <v>-1.27527087115852</v>
       </c>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>0.665297419499922</v>
+        <v>0.661352980360745</v>
       </c>
       <c r="M68" t="n">
-        <v>-1.35506448209751</v>
+        <v>-1.38266418102888</v>
       </c>
       <c r="N68" t="n">
         <v>0.428845441106355</v>
       </c>
       <c r="O68" t="n">
-        <v>0.816721778192366</v>
+        <v>0.823219045762702</v>
       </c>
       <c r="P68" t="n">
-        <v>1.38831297470759</v>
+        <v>1.38549126215999</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="n">
-        <v>-1.14984489273668</v>
+        <v>-1.18807276456063</v>
       </c>
       <c r="S68" t="n">
-        <v>1.41026297221737</v>
+        <v>1.42868923802263</v>
       </c>
       <c r="T68"/>
       <c r="U68" t="n">
-        <v>1.26137496369794</v>
+        <v>1.27054959756376</v>
       </c>
       <c r="V68"/>
       <c r="W68"/>
@@ -5116,61 +5116,61 @@
         <v>92</v>
       </c>
       <c r="B69" t="n">
-        <v>0.804093395832013</v>
+        <v>0.819076700451623</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.18514896246425</v>
+        <v>-1.19012906699604</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.25543051528082</v>
+        <v>-1.27234691003433</v>
       </c>
       <c r="E69" t="n">
-        <v>1.38533714525595</v>
+        <v>1.3938843158972</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0267198032461239</v>
+        <v>0.0264620857358654</v>
       </c>
       <c r="G69" t="n">
-        <v>2.01045232255194</v>
+        <v>2.00977361889924</v>
       </c>
       <c r="H69"/>
       <c r="I69" t="n">
-        <v>1.39606225483458</v>
+        <v>1.43528683314676</v>
       </c>
       <c r="J69" t="n">
-        <v>-1.15807848332589</v>
+        <v>-1.1736977647962</v>
       </c>
       <c r="K69"/>
       <c r="L69" t="n">
-        <v>1.89494215214571</v>
+        <v>1.89423270426403</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.15187766680551</v>
+        <v>-1.17744383276624</v>
       </c>
       <c r="N69" t="n">
         <v>-1.1479596083626</v>
       </c>
       <c r="O69" t="n">
-        <v>1.11627687557588</v>
+        <v>1.12270391215657</v>
       </c>
       <c r="P69" t="n">
-        <v>1.20576499135294</v>
+        <v>1.20266551459736</v>
       </c>
       <c r="Q69"/>
       <c r="R69" t="n">
-        <v>-1.36578985910061</v>
+        <v>-1.41329570766856</v>
       </c>
       <c r="S69" t="n">
-        <v>1.55912426348939</v>
+        <v>1.57832260962125</v>
       </c>
       <c r="T69"/>
       <c r="U69" t="n">
-        <v>0.814677846027705</v>
+        <v>0.821375181159191</v>
       </c>
       <c r="V69"/>
       <c r="W69"/>
       <c r="X69" t="n">
-        <v>0.842885319528921</v>
+        <v>1.61415177862499</v>
       </c>
       <c r="Y69"/>
     </row>
@@ -5179,58 +5179,58 @@
         <v>93</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.133502868634903</v>
+        <v>-0.126055980383242</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.749131877423199</v>
+        <v>-0.753835589898293</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.667615237499989</v>
+        <v>-0.680392707730336</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.0447115163319813</v>
+        <v>-0.0393712828564121</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>0.180944018158192</v>
+        <v>0.182660867020826</v>
       </c>
       <c r="H70" t="n">
         <v>-0.154951576203951</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.311391558671181</v>
+        <v>-0.304950607689904</v>
       </c>
       <c r="J70" t="n">
-        <v>0.288996965632657</v>
+        <v>0.283051572605277</v>
       </c>
       <c r="K70"/>
       <c r="L70" t="n">
-        <v>-0.0786376437507778</v>
+        <v>-0.0845392526007402</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.154928948978393</v>
+        <v>-0.170517459229356</v>
       </c>
       <c r="N70" t="n">
         <v>1.42164862040162</v>
       </c>
       <c r="O70" t="n">
-        <v>0.342426207335138</v>
+        <v>0.349034673972414</v>
       </c>
       <c r="P70" t="n">
-        <v>0.736355891298118</v>
+        <v>0.732542163722017</v>
       </c>
       <c r="Q70"/>
       <c r="R70" t="n">
-        <v>1.71142591158541</v>
+        <v>1.79613123161939</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.112257234625905</v>
+        <v>-0.10172763482769</v>
       </c>
       <c r="T70" t="n">
         <v>0.0898898358743007</v>
       </c>
       <c r="U70" t="n">
-        <v>1.58624559473085</v>
+        <v>1.59722190040345</v>
       </c>
       <c r="V70"/>
       <c r="W70"/>
@@ -5242,59 +5242,59 @@
         <v>94</v>
       </c>
       <c r="B71" t="n">
-        <v>0.314342292308168</v>
+        <v>0.325388968367385</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.078767997677806</v>
+        <v>-0.0830467652188225</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.107625233999465</v>
+        <v>-0.116459703008468</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0669311384165398</v>
+        <v>0.0725217346863313</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>0.144556666815506</v>
+        <v>0.146321161163446</v>
       </c>
       <c r="H71" t="n">
         <v>0.747868788556826</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.458807644435358</v>
+        <v>-0.455197126687499</v>
       </c>
       <c r="J71" t="n">
-        <v>0.671031783206337</v>
+        <v>0.667640342848932</v>
       </c>
       <c r="K71"/>
       <c r="L71" t="n">
-        <v>0.601765774979889</v>
+        <v>0.597654194625742</v>
       </c>
       <c r="M71" t="n">
-        <v>0.239802260662804</v>
+        <v>0.228164296751158</v>
       </c>
       <c r="N71" t="n">
         <v>2.88165329583584</v>
       </c>
       <c r="O71" t="n">
-        <v>0.592055455154731</v>
+        <v>0.598605395967302</v>
       </c>
       <c r="P71" t="n">
-        <v>0.971060441325529</v>
+        <v>0.967603839159687</v>
       </c>
       <c r="Q71"/>
       <c r="R71" t="n">
-        <v>1.98135711954033</v>
+        <v>2.07765991050429</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.173455765482181</v>
+        <v>-0.163243576484901</v>
       </c>
       <c r="T71"/>
       <c r="U71" t="n">
-        <v>1.30875193072358</v>
+        <v>1.31818930839455</v>
       </c>
       <c r="V71" t="n">
-        <v>0.232304587038333</v>
+        <v>1.97115651988176</v>
       </c>
       <c r="W71"/>
       <c r="X71"/>
@@ -5305,62 +5305,62 @@
         <v>95</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.431436539306235</v>
+        <v>-0.426384447490209</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.0200756323395149</v>
+        <v>-0.0243171946788892</v>
       </c>
       <c r="D72" t="n">
-        <v>0.618001454780454</v>
+        <v>0.614276267905444</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.61229936413744</v>
+        <v>-0.608231967463031</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>-0.703686179238589</v>
+        <v>-0.700810998331532</v>
       </c>
       <c r="H72" t="n">
         <v>-0.231398877725128</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.776291232726536</v>
+        <v>-0.778776495467665</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.171801990402414</v>
+        <v>-0.180827884656258</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.63098291421048</v>
+        <v>-0.633146901687148</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.57664376047232</v>
+        <v>-0.583855540781569</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.594828887173565</v>
+        <v>-0.61482000114082</v>
       </c>
       <c r="N72" t="n">
         <v>-0.739158299241017</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.980608806108708</v>
+        <v>-0.973690152600497</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.697949692202724</v>
+        <v>-0.703945852841521</v>
       </c>
       <c r="Q72" t="n">
         <v>-0.316404062700357</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.55599623523587</v>
+        <v>-0.568709671013836</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.617558617777042</v>
+        <v>-0.609649801754114</v>
       </c>
       <c r="T72" t="n">
         <v>-0.808259440903085</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.64723999362035</v>
+        <v>-0.64865018161941</v>
       </c>
       <c r="V72"/>
       <c r="W72"/>
@@ -5372,58 +5372,58 @@
         <v>96</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.21406094234998</v>
+        <v>-0.207261581406528</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250401873483183</v>
+        <v>0.246331767347453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.892553486973141</v>
+        <v>0.890761475675359</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.601220322063159</v>
+        <v>-0.597128080225965</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>-0.502064461962721</v>
+        <v>-0.499453283908675</v>
       </c>
       <c r="H73" t="n">
         <v>-0.209874880209457</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.823181611084433</v>
+        <v>-0.826567183208651</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.444601871423801</v>
+        <v>-0.455451468524752</v>
       </c>
       <c r="K73"/>
       <c r="L73" t="n">
-        <v>0.91942399758005</v>
+        <v>0.916148123300757</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.544056337750863</v>
+        <v>-0.563539310217369</v>
       </c>
       <c r="N73" t="n">
         <v>-0.271956803102068</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.980608806108708</v>
+        <v>-0.973690152600496</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.80226282554824</v>
+        <v>-0.808417708591597</v>
       </c>
       <c r="Q73"/>
       <c r="R73" t="n">
-        <v>-0.17809254409899</v>
+        <v>-0.174569520574966</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.630790732556778</v>
+        <v>-0.622950545896213</v>
       </c>
       <c r="T73" t="n">
         <v>-0.644959572398106</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.958574348360213</v>
+        <v>-0.961711138507445</v>
       </c>
       <c r="V73"/>
       <c r="W73"/>
@@ -5435,58 +5435,58 @@
         <v>97</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.491107242768152</v>
+        <v>-0.486534785186285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.191199393223899</v>
+        <v>0.187091758523711</v>
       </c>
       <c r="D74" t="n">
-        <v>0.69385457679706</v>
+        <v>0.69066348687179</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.647484453801914</v>
+        <v>-0.643495960996132</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>-0.599296236862031</v>
+        <v>-0.596557743822657</v>
       </c>
       <c r="H74" t="n">
         <v>-0.389192045719325</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.468860215175986</v>
+        <v>-0.46544270981316</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.114597378892134</v>
+        <v>-0.123240852844002</v>
       </c>
       <c r="K74"/>
       <c r="L74" t="n">
-        <v>-0.12167520939338</v>
+        <v>-0.127690042937355</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0368139315297668</v>
+        <v>-0.0512203238270361</v>
       </c>
       <c r="N74" t="n">
         <v>-0.855958673275754</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.645793125529966</v>
+        <v>-0.651709924966484</v>
       </c>
       <c r="Q74"/>
       <c r="R74" t="n">
-        <v>-0.55599623523587</v>
+        <v>-0.568709671013836</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.575381251916636</v>
+        <v>-0.567253679801172</v>
       </c>
       <c r="T74" t="n">
         <v>-0.236709901135658</v>
       </c>
       <c r="U74" t="n">
-        <v>-0.75553020396465</v>
+        <v>-0.75754094923264</v>
       </c>
       <c r="V74"/>
       <c r="W74"/>
@@ -5498,54 +5498,54 @@
         <v>98</v>
       </c>
       <c r="B75" t="n">
-        <v>1.25700295684903</v>
+        <v>1.27562675701902</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0208335173649907</v>
+        <v>-0.0250755601291193</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.721833827247096</v>
+        <v>-0.734993061373684</v>
       </c>
       <c r="E75" t="n">
-        <v>2.35773614577551</v>
+        <v>2.36846395724278</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.0812271149826388</v>
+        <v>-0.0811614399380999</v>
       </c>
       <c r="G75" t="n">
-        <v>3.27625493811227</v>
+        <v>3.27391879642972</v>
       </c>
       <c r="H75" t="n">
         <v>-0.0967625622305495</v>
       </c>
       <c r="I75" t="n">
-        <v>1.50538290421562</v>
+        <v>1.54670647191219</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0384203836648764</v>
+        <v>-0.046554604450798</v>
       </c>
       <c r="K75"/>
       <c r="L75" t="n">
-        <v>0.558728209337287</v>
+        <v>0.554503404289128</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.502510769241325</v>
+        <v>-0.521577945617779</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
-        <v>1.34094319861351</v>
+        <v>1.34731756195197</v>
       </c>
       <c r="P75" t="n">
-        <v>0.579886191279844</v>
+        <v>0.575834380096903</v>
       </c>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75" t="n">
-        <v>1.78076218604996</v>
+        <v>1.80111007400141</v>
       </c>
       <c r="T75"/>
       <c r="U75" t="n">
-        <v>0.408589557236579</v>
+        <v>0.41303480260958</v>
       </c>
       <c r="V75"/>
       <c r="W75"/>
@@ -5557,54 +5557,54 @@
         <v>99</v>
       </c>
       <c r="B76" t="n">
-        <v>1.41974601000242</v>
+        <v>1.43967794188756</v>
       </c>
       <c r="C76" t="n">
-        <v>0.35910007579085</v>
+        <v>0.355098873651606</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.452500941564756</v>
+        <v>-0.463763749164879</v>
       </c>
       <c r="E76" t="n">
-        <v>2.68608973340556</v>
+        <v>2.69755388997209</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.159546811044137</v>
+        <v>-0.159246502097901</v>
       </c>
       <c r="G76" t="n">
-        <v>3.3275551383659</v>
+        <v>3.32515182435979</v>
       </c>
       <c r="H76" t="n">
         <v>0.389531340261444</v>
       </c>
       <c r="I76" t="n">
-        <v>1.73550359021055</v>
+        <v>1.78124554436718</v>
       </c>
       <c r="J76" t="n">
-        <v>0.134055831944009</v>
+        <v>0.127074637194193</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="n">
-        <v>0.185735973768066</v>
+        <v>0.180529888038466</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.324734383060979</v>
+        <v>-0.342022338959072</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
-        <v>1.29101734904959</v>
+        <v>1.29740341755299</v>
       </c>
       <c r="P76" t="n">
-        <v>0.345181641252434</v>
+        <v>0.340772704659233</v>
       </c>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76" t="n">
-        <v>1.67986731085448</v>
+        <v>1.69969189991791</v>
       </c>
       <c r="T76"/>
       <c r="U76" t="n">
-        <v>0.0566463736176028</v>
+        <v>0.0591398078665832</v>
       </c>
       <c r="V76"/>
       <c r="W76"/>
@@ -5617,55 +5617,55 @@
       </c>
       <c r="B77"/>
       <c r="C77" t="n">
-        <v>-0.274025414722029</v>
+        <v>-0.27842795630983</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.141142735321761</v>
+        <v>-0.150213207737653</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.412389615939979</v>
+        <v>-0.407873914240365</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>-0.465080596663598</v>
+        <v>-0.462517845168388</v>
       </c>
       <c r="H77" t="n">
         <v>-0.664996096644271</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.443507434382442</v>
+        <v>-0.439603147994698</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.220670251491598</v>
+        <v>-0.230022836455672</v>
       </c>
       <c r="K77"/>
       <c r="L77" t="n">
-        <v>-0.322517182392192</v>
+        <v>-0.329060397841558</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.398453612765112</v>
+        <v>-0.416479364981134</v>
       </c>
       <c r="N77" t="n">
         <v>-0.330356990119437</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.531276160033439</v>
+        <v>-0.524462853009697</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.463245142175313</v>
+        <v>-0.468884177403852</v>
       </c>
       <c r="Q77"/>
       <c r="R77" t="n">
-        <v>-0.232078785689973</v>
+        <v>-0.230875256351947</v>
       </c>
       <c r="S77" t="n">
-        <v>-0.492680534543292</v>
+        <v>-0.48412402891305</v>
       </c>
       <c r="T77" t="n">
         <v>-0.400009769640637</v>
       </c>
       <c r="U77" t="n">
-        <v>0.252922379866647</v>
+        <v>0.256504324165562</v>
       </c>
       <c r="V77"/>
       <c r="W77"/>
@@ -5677,65 +5677,65 @@
         <v>101</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.249695425771829</v>
+        <v>-0.243182495474809</v>
       </c>
       <c r="C78" t="n">
-        <v>1.68018112346738</v>
+        <v>1.67701735710843</v>
       </c>
       <c r="D78" t="n">
-        <v>1.29515773661706</v>
+        <v>1.29620054208054</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.427851575757931</v>
+        <v>-0.423370548076711</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>-0.516977310873658</v>
+        <v>-0.514346605981372</v>
       </c>
       <c r="H78" t="n">
         <v>1.65410330464768</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.595502867939825</v>
+        <v>-0.594516939641964</v>
       </c>
       <c r="J78" t="n">
-        <v>0.881740226608525</v>
+        <v>0.879757399725229</v>
       </c>
       <c r="K78" t="n">
-        <v>0.348256460783587</v>
+        <v>0.343925777550569</v>
       </c>
       <c r="L78" t="n">
-        <v>1.67155669238172</v>
+        <v>1.6702595544216</v>
       </c>
       <c r="M78" t="n">
-        <v>1.57104787858992</v>
+        <v>1.57273327846148</v>
       </c>
       <c r="N78" t="n">
         <v>-0.038356055032594</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P78" t="n">
-        <v>0.136555374561402</v>
+        <v>0.131828993159083</v>
       </c>
       <c r="Q78" t="n">
         <v>0.0398220216213263</v>
       </c>
       <c r="R78" t="n">
-        <v>0.73967356294772</v>
+        <v>0.782627987633719</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.563803151484368</v>
+        <v>-0.555615528676835</v>
       </c>
       <c r="T78" t="n">
         <v>0.661439375641728</v>
       </c>
       <c r="U78" t="n">
-        <v>-0.25468798112226</v>
+        <v>-0.253921149021452</v>
       </c>
       <c r="V78" t="n">
-        <v>-0.113773010039258</v>
+        <v>-0.226696822763401</v>
       </c>
       <c r="W78"/>
       <c r="X78"/>
@@ -5746,60 +5746,60 @@
         <v>102</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.808275137554517</v>
+        <v>-0.806252081462656</v>
       </c>
       <c r="C79" t="n">
-        <v>0.722170727129854</v>
+        <v>0.718399676164712</v>
       </c>
       <c r="D79" t="n">
-        <v>0.796790287528175</v>
+        <v>0.794323988457377</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.427486332612625</v>
+        <v>-0.423004485860104</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>-0.648210381289904</v>
+        <v>-0.645407840221101</v>
       </c>
       <c r="H79" t="n">
         <v>0.912787141935521</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.773694201127064</v>
+        <v>-0.776129600079521</v>
       </c>
       <c r="J79" t="n">
-        <v>0.554897798029688</v>
+        <v>0.550729986807971</v>
       </c>
       <c r="K79"/>
       <c r="L79" t="n">
-        <v>0.118105513472548</v>
+        <v>0.112721503223785</v>
       </c>
       <c r="M79" t="n">
-        <v>0.292845323713353</v>
+        <v>0.281738225042262</v>
       </c>
       <c r="N79" t="n">
         <v>-0.330356990119437</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.755942483071073</v>
+        <v>-0.749076502805097</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.463245142175313</v>
+        <v>-0.468884177403852</v>
       </c>
       <c r="Q79" t="n">
         <v>0.514790134050237</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0378524222649422</v>
+        <v>0.0506534225329602</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.5497440295309</v>
+        <v>-0.541483488025854</v>
       </c>
       <c r="T79" t="n">
         <v>0.25318970437928</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.14639777077796</v>
+        <v>-0.145030381408222</v>
       </c>
       <c r="V79"/>
       <c r="W79"/>
@@ -5811,67 +5811,67 @@
         <v>103</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.602235399831133</v>
+        <v>-0.598556192461079</v>
       </c>
       <c r="C80" t="n">
-        <v>0.728029761365263</v>
+        <v>0.724262424453029</v>
       </c>
       <c r="D80" t="n">
-        <v>0.376030936621657</v>
+        <v>0.370601987103269</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.226359107264144</v>
+        <v>-0.221426225248749</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.288796686601628</v>
+        <v>-0.288109164679332</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00258634518338585</v>
+        <v>0.00453673503137524</v>
       </c>
       <c r="H80" t="n">
         <v>-0.07063688248739</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.178274655579016</v>
+        <v>-0.169277819977085</v>
       </c>
       <c r="J80" t="n">
-        <v>1.64724716355263</v>
+        <v>1.65038185055958</v>
       </c>
       <c r="K80" t="n">
-        <v>0.11274319337995</v>
+        <v>0.108933614189599</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.107329354179179</v>
+        <v>-0.113306446158483</v>
       </c>
       <c r="M80" t="n">
-        <v>1.11481956579449</v>
+        <v>1.11193894441669</v>
       </c>
       <c r="N80" t="n">
         <v>-0.0967562420499625</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.13186936352209</v>
+        <v>-0.125149697817875</v>
       </c>
       <c r="P80" t="n">
-        <v>0.371259924588813</v>
+        <v>0.366890668596752</v>
       </c>
       <c r="Q80" t="n">
         <v>-0.435146090807585</v>
       </c>
       <c r="R80" t="n">
-        <v>0.847646046129686</v>
+        <v>0.895239459187682</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.510874692365427</v>
+        <v>-0.502412552108437</v>
       </c>
       <c r="T80" t="n">
         <v>0.824739244146707</v>
       </c>
       <c r="U80" t="n">
-        <v>1.59978187102388</v>
+        <v>1.61083324635511</v>
       </c>
       <c r="V80" t="n">
-        <v>-0.0445574906237399</v>
+        <v>0.212873845765632</v>
       </c>
       <c r="W80"/>
       <c r="X80"/>
@@ -5882,60 +5882,60 @@
         <v>104</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.716381204606569</v>
+        <v>-0.713619503357266</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0571099756036315</v>
+        <v>-0.0613750140834014</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00986914857630183</v>
+        <v>0.00186198093179081</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.335323312280422</v>
+        <v>-0.330634786536378</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.447494767878241</v>
+        <v>-0.446331810632848</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.00934393394536373</v>
+        <v>-0.00737792262678198</v>
       </c>
       <c r="H81" t="n">
         <v>-0.625807577029532</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.399081557238376</v>
+        <v>-0.394324280632906</v>
       </c>
       <c r="J81" t="n">
-        <v>0.663557813863286</v>
+        <v>0.660116409044316</v>
       </c>
       <c r="K81"/>
       <c r="L81" t="n">
-        <v>-0.211849156454071</v>
+        <v>-0.218101222690262</v>
       </c>
       <c r="M81" t="n">
-        <v>0.316130165598931</v>
+        <v>0.305256106131799</v>
       </c>
       <c r="N81" t="n">
         <v>-0.0967562420499625</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.306609836995805</v>
+        <v>-0.299849203214297</v>
       </c>
       <c r="P81" t="n">
-        <v>0.266946791243297</v>
+        <v>0.262418812846677</v>
       </c>
       <c r="Q81"/>
       <c r="R81" t="n">
-        <v>0.199811147037891</v>
+        <v>0.219570629863904</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.514182721060361</v>
+        <v>-0.505737738143962</v>
       </c>
       <c r="T81" t="n">
         <v>0.579789441389238</v>
       </c>
       <c r="U81" t="n">
-        <v>1.42381027921439</v>
+        <v>1.43388574898361</v>
       </c>
       <c r="V81"/>
       <c r="W81"/>
@@ -5947,63 +5947,63 @@
         <v>105</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.950681869167457</v>
+        <v>-0.949803481056589</v>
       </c>
       <c r="C82" t="n">
-        <v>0.132142660084898</v>
+        <v>0.127997589209629</v>
       </c>
       <c r="D82" t="n">
-        <v>0.216442560504837</v>
+        <v>0.20988991742405</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.54180743709339</v>
+        <v>-0.537581959657962</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>-0.379182586936601</v>
+        <v>-0.376732310029656</v>
       </c>
       <c r="H82" t="n">
         <v>-0.583501788809074</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.536586062033883</v>
+        <v>-0.534468913322873</v>
       </c>
       <c r="J82" t="n">
-        <v>0.670169402128293</v>
+        <v>0.666772196640707</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.333492471174308</v>
+        <v>-0.336314695336449</v>
       </c>
       <c r="L82" t="n">
-        <v>0.562827025112773</v>
+        <v>0.558613003368805</v>
       </c>
       <c r="M82" t="n">
-        <v>0.337579273061994</v>
+        <v>0.326919880413447</v>
       </c>
       <c r="N82" t="n">
         <v>0.545645815141092</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.706016633507155</v>
+        <v>-0.699162358406119</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.0459926087932503</v>
+        <v>-0.0509967544035496</v>
       </c>
       <c r="Q82"/>
       <c r="R82" t="n">
-        <v>0.415756113401823</v>
+        <v>0.44479357297183</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.529895857361297</v>
+        <v>-0.521532371812705</v>
       </c>
       <c r="T82" t="n">
         <v>0.416489572884259</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01772199042327</v>
+        <v>1.025545370434</v>
       </c>
       <c r="V82" t="n">
-        <v>-0.0676293304289127</v>
+        <v>0.0663502895892881</v>
       </c>
       <c r="W82"/>
       <c r="X82"/>
@@ -6014,67 +6014,67 @@
         <v>106</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.424666512264381</v>
+        <v>-0.419560002843953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249935482698275</v>
+        <v>0.245865080916542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.40705586309983</v>
+        <v>0.401845366272081</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.385970361762848</v>
+        <v>-0.381395413905823</v>
       </c>
       <c r="F83" t="n">
-        <v>1.58559503365419</v>
+        <v>1.58066716296454</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.273599616647167</v>
+        <v>-0.271287589754964</v>
       </c>
       <c r="H83" t="n">
         <v>-0.248914958462019</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.492648009500793</v>
+        <v>-0.48968723695147</v>
       </c>
       <c r="J83" t="n">
-        <v>0.744334174840114</v>
+        <v>0.741432770548053</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0507660177474146</v>
+        <v>0.0470935711998703</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.17700922236244</v>
+        <v>-0.183169630513003</v>
       </c>
       <c r="M83" t="n">
-        <v>0.373376094301026</v>
+        <v>0.363074963167279</v>
       </c>
       <c r="N83" t="n">
         <v>-0.155156429067331</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.50631323525148</v>
+        <v>-0.499505780810208</v>
       </c>
       <c r="P83" t="n">
-        <v>1.49262610805311</v>
+        <v>1.48996311791006</v>
       </c>
       <c r="Q83" t="n">
         <v>-0.435146090807585</v>
       </c>
       <c r="R83" t="n">
-        <v>0.36176987181084</v>
+        <v>0.388487837194849</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.510047685191694</v>
+        <v>-0.501581255599556</v>
       </c>
       <c r="T83" t="n">
         <v>-0.155059966883168</v>
       </c>
       <c r="U83" t="n">
-        <v>1.59978187102388</v>
+        <v>1.61083324635511</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.0676293304289127</v>
+        <v>0.066350289589288</v>
       </c>
       <c r="W83"/>
       <c r="X83"/>
@@ -6085,54 +6085,54 @@
         <v>107</v>
       </c>
       <c r="B84" t="n">
-        <v>1.22987036785183</v>
+        <v>1.24827607576232</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.56894485430761</v>
+        <v>-1.57416824778275</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.17559504031337</v>
+        <v>-2.19899049687756</v>
       </c>
       <c r="E84" t="n">
-        <v>0.434365742594333</v>
+        <v>0.440780324592547</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0280624266071781</v>
+        <v>0.0278006868014619</v>
       </c>
       <c r="G84" t="n">
-        <v>0.224489536978128</v>
+        <v>0.2261493674731</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>1.76804966916941</v>
+        <v>1.81441651784162</v>
       </c>
       <c r="J84" t="n">
-        <v>-2.21736990752379</v>
+        <v>-2.24007069056585</v>
       </c>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>-1.68742283562901</v>
+        <v>-1.6975568913742</v>
       </c>
       <c r="M84" t="n">
-        <v>-1.69655939348578</v>
+        <v>-1.72757683958062</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.866647627756284</v>
+        <v>0.87313319016168</v>
       </c>
       <c r="P84" t="n">
-        <v>-1.14128050892117</v>
+        <v>-1.14795123977934</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="n">
-        <v>-1.4197761006916</v>
+        <v>-1.46960144344554</v>
       </c>
       <c r="S84" t="n">
-        <v>1.09765426054613</v>
+        <v>1.11445915766553</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="n">
-        <v>-1.42557588047001</v>
+        <v>-1.4313025738395</v>
       </c>
       <c r="V84"/>
       <c r="W84"/>
@@ -6144,52 +6144,52 @@
         <v>108</v>
       </c>
       <c r="B85" t="n">
-        <v>1.93760059787442</v>
+        <v>1.96169505465452</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.35160674854039</v>
+        <v>-1.35669237097831</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.97981600352612</v>
+        <v>-2.00183294087328</v>
       </c>
       <c r="E85" t="n">
-        <v>1.26139797128212</v>
+        <v>1.2696672037287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.294170376768133</v>
+        <v>0.293111418002705</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0475208271573624</v>
+        <v>-0.0455048271328851</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1.97457994652027</v>
+        <v>2.02491223870356</v>
       </c>
       <c r="J85" t="n">
-        <v>-2.06789052066276</v>
+        <v>-2.08959201447353</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>-1.55216191503798</v>
+        <v>-1.56194012174484</v>
       </c>
       <c r="M85" t="n">
-        <v>-1.66037610184201</v>
+        <v>-1.69103141855145</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.54147999218445</v>
+        <v>-0.547238069216408</v>
       </c>
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85" t="n">
-        <v>0.678361623463271</v>
+        <v>0.692991827662752</v>
       </c>
       <c r="T85"/>
       <c r="U85" t="n">
-        <v>-1.7842872022355</v>
+        <v>-1.79200324155832</v>
       </c>
       <c r="V85"/>
       <c r="W85"/>
@@ -6201,50 +6201,50 @@
         <v>109</v>
       </c>
       <c r="B86" t="n">
-        <v>2.00097119983596</v>
+        <v>2.02557503070378</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.50220724792965</v>
+        <v>-1.5073883363096</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="n">
-        <v>1.14634638051075</v>
+        <v>1.15435760549763</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.170645830828853</v>
+        <v>-0.170312270906832</v>
       </c>
       <c r="G86" t="n">
-        <v>0.285333960534751</v>
+        <v>0.286914121529701</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>3.10298312700234</v>
+        <v>3.17498110001126</v>
       </c>
       <c r="J86" t="n">
-        <v>-2.4162924761927</v>
+        <v>-2.44032308259641</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>-1.61569355955801</v>
+        <v>-1.62563890747984</v>
       </c>
       <c r="M86" t="n">
-        <v>-1.50989418799642</v>
+        <v>-1.53904345258898</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.941536402102162</v>
+        <v>0.948004406760147</v>
       </c>
       <c r="P86" t="n">
-        <v>-1.24559364226668</v>
+        <v>-1.25242309552942</v>
       </c>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="n">
-        <v>0.791661606264754</v>
+        <v>0.806879449379479</v>
       </c>
       <c r="T86"/>
       <c r="U86" t="n">
-        <v>-1.79782347852854</v>
+        <v>-1.80561458750998</v>
       </c>
       <c r="V86"/>
       <c r="W86"/>
@@ -6256,62 +6256,62 @@
         <v>110</v>
       </c>
       <c r="B87" t="n">
-        <v>3.38562541279922</v>
+        <v>3.42135912021413</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.257934932642696</v>
+        <v>-0.262327274443406</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.707613433417004</v>
+        <v>-0.720672538916493</v>
       </c>
       <c r="E87" t="n">
-        <v>3.18184642930085</v>
+        <v>3.19442233864608</v>
       </c>
       <c r="F87" t="n">
-        <v>3.85507605495625</v>
+        <v>3.84334916417796</v>
       </c>
       <c r="G87" t="n">
-        <v>0.305615435053625</v>
+        <v>0.307169039548569</v>
       </c>
       <c r="H87" t="n">
         <v>0.956577343777749</v>
       </c>
       <c r="I87" t="n">
-        <v>1.30741352581807</v>
+        <v>1.34493602184114</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.411543930098764</v>
+        <v>-0.422172530542795</v>
       </c>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>-0.453679287207742</v>
+        <v>-0.460567568391241</v>
       </c>
       <c r="M87" t="n">
-        <v>0.266710262592818</v>
+        <v>0.255341599172055</v>
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>1.74034999512486</v>
+        <v>1.74663071714379</v>
       </c>
       <c r="P87" t="n">
-        <v>2.48360087483551</v>
+        <v>2.48244574753578</v>
       </c>
       <c r="Q87"/>
       <c r="R87" t="n">
-        <v>0.307783630219857</v>
+        <v>0.332182101417867</v>
       </c>
       <c r="S87" t="n">
-        <v>0.483187930462177</v>
+        <v>0.496805851566785</v>
       </c>
       <c r="T87" t="n">
         <v>-0.644959572398106</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.586326750301681</v>
+        <v>-0.587399124836968</v>
       </c>
       <c r="V87"/>
       <c r="W87" t="n">
-        <v>-0.0945057552756686</v>
+        <v>0.600082200479964</v>
       </c>
       <c r="X87"/>
       <c r="Y87"/>
@@ -6321,63 +6321,63 @@
         <v>111</v>
       </c>
       <c r="B88" t="n">
-        <v>2.77254435928812</v>
+        <v>2.80335010969033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0231383888246353</v>
+        <v>0.0189242199351912</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.616677690149737</v>
+        <v>-0.629096498957275</v>
       </c>
       <c r="E88" t="n">
-        <v>2.96367452383809</v>
+        <v>2.97576117459309</v>
       </c>
       <c r="F88" t="n">
-        <v>2.25798081287017</v>
+        <v>2.25103857661531</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.107768736757548</v>
+        <v>-0.105673848306579</v>
       </c>
       <c r="H88" t="n">
         <v>1.28804690551909</v>
       </c>
       <c r="I88" t="n">
-        <v>1.18903851328187</v>
+        <v>1.22428817342172</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.109423092423867</v>
+        <v>-0.118031975594653</v>
       </c>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>-0.0765882358630347</v>
+        <v>-0.0824844530609013</v>
       </c>
       <c r="M88" t="n">
-        <v>0.722503796182917</v>
+        <v>0.715696802657082</v>
       </c>
       <c r="N88" t="n">
         <v>0.253644880054249</v>
       </c>
       <c r="O88" t="n">
-        <v>2.16471971641817</v>
+        <v>2.1709009445351</v>
       </c>
       <c r="P88" t="n">
-        <v>2.45752259149913</v>
+        <v>2.45632778359826</v>
       </c>
       <c r="Q88"/>
       <c r="R88" t="n">
-        <v>0.793659804538704</v>
+        <v>0.838933723410701</v>
       </c>
       <c r="S88" t="n">
-        <v>0.439356550254305</v>
+        <v>0.452747136596081</v>
       </c>
       <c r="T88" t="n">
         <v>0.25318970437928</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.430659572931749</v>
+        <v>-0.430868646392951</v>
       </c>
       <c r="V88" t="n">
-        <v>0.0246580287917784</v>
+        <v>0.652444514294665</v>
       </c>
       <c r="W88"/>
       <c r="X88"/>
@@ -6388,56 +6388,56 @@
         <v>112</v>
       </c>
       <c r="B89" t="n">
-        <v>1.66178759695612</v>
+        <v>1.68366506365916</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.633175468525398</v>
+        <v>-0.637805676013091</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.37904187999956</v>
+        <v>-1.39682864700796</v>
       </c>
       <c r="E89" t="n">
-        <v>0.646328514586891</v>
+        <v>0.65321843096323</v>
       </c>
       <c r="F89" t="n">
-        <v>1.23705000912451</v>
+        <v>1.23316632633567</v>
       </c>
       <c r="G89" t="n">
-        <v>1.31968916099734</v>
+        <v>1.31991494049193</v>
       </c>
       <c r="H89" t="n">
         <v>-0.68963736276566</v>
       </c>
       <c r="I89" t="n">
-        <v>1.46471581439196</v>
+        <v>1.50525856171912</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.491745370356896</v>
+        <v>-0.502910127907716</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="n">
-        <v>-1.27344244230493</v>
+        <v>-1.28248738432676</v>
       </c>
       <c r="M89" t="n">
-        <v>-0.46313909675845</v>
+        <v>-0.481812233817006</v>
       </c>
       <c r="N89"/>
       <c r="O89" t="n">
-        <v>0.467240831244935</v>
+        <v>0.473820034969858</v>
       </c>
       <c r="P89" t="n">
-        <v>0.214790224570539</v>
+        <v>0.210182884971639</v>
       </c>
       <c r="Q89"/>
       <c r="R89" t="n">
-        <v>-0.232078785689973</v>
+        <v>-0.230875256351947</v>
       </c>
       <c r="S89" t="n">
-        <v>0.288841244634817</v>
+        <v>0.301451171979699</v>
       </c>
       <c r="T89"/>
       <c r="U89" t="n">
-        <v>-0.924733657627619</v>
+        <v>-0.927682773628311</v>
       </c>
       <c r="V89"/>
       <c r="W89"/>
@@ -6449,52 +6449,52 @@
         <v>113</v>
       </c>
       <c r="B90" t="n">
-        <v>1.11546215892749</v>
+        <v>1.13294825150775</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.42636044653396</v>
+        <v>-1.43149345548273</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.0534658233702</v>
+        <v>-1.06896014447615</v>
       </c>
       <c r="E90" t="n">
-        <v>0.512406027974706</v>
+        <v>0.518995618207485</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03495455986059</v>
+        <v>0.0346721722715244</v>
       </c>
       <c r="G90" t="n">
-        <v>0.344985356178499</v>
+        <v>0.346487409820487</v>
       </c>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>1.25829550906323</v>
+        <v>1.29487492437526</v>
       </c>
       <c r="J90" t="n">
-        <v>-1.84280905929316</v>
+        <v>-1.86300585412681</v>
       </c>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>-1.57060658602766</v>
+        <v>-1.58043331760339</v>
       </c>
       <c r="M90" t="n">
-        <v>-1.63370964391496</v>
+        <v>-1.66409807755264</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>0.966499326884122</v>
+        <v>0.972961478959636</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.332853725493419</v>
+        <v>-0.338294357716257</v>
       </c>
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90" t="n">
-        <v>1.33004327636523</v>
+        <v>1.34805347666115</v>
       </c>
       <c r="T90"/>
       <c r="U90" t="n">
-        <v>-1.30374939383267</v>
+        <v>-1.30880046027462</v>
       </c>
       <c r="V90"/>
       <c r="W90"/>
@@ -6506,61 +6506,61 @@
         <v>114</v>
       </c>
       <c r="B91" t="n">
-        <v>0.848360975752969</v>
+        <v>0.863700104010673</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.910211594760867</v>
+        <v>-0.915017415974117</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.98267415435339</v>
+        <v>-0.997670017208932</v>
       </c>
       <c r="E91" t="n">
-        <v>2.31293298661798</v>
+        <v>2.32356032533904</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.245116673255329</v>
+        <v>-0.244560010011923</v>
       </c>
       <c r="G91" t="n">
-        <v>0.15767997385713</v>
+        <v>0.159427284587419</v>
       </c>
       <c r="H91" t="n">
         <v>-0.0492613263338958</v>
       </c>
       <c r="I91" t="n">
-        <v>1.12664771939487</v>
+        <v>1.16069945750633</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.922360988660412</v>
+        <v>-0.936404467881377</v>
       </c>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>-1.09514395607129</v>
+        <v>-1.10371982436079</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.787532692736989</v>
+        <v>-0.809452423684728</v>
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="P91" t="n">
-        <v>1.36223469137121</v>
+        <v>1.35937329822247</v>
       </c>
       <c r="Q91"/>
       <c r="R91" t="n">
-        <v>-0.55599623523587</v>
+        <v>-0.568709671013836</v>
       </c>
       <c r="S91" t="n">
-        <v>0.576639741094057</v>
+        <v>0.590742357070363</v>
       </c>
       <c r="T91"/>
       <c r="U91" t="n">
-        <v>-1.08040083499755</v>
+        <v>-1.08421325207233</v>
       </c>
       <c r="V91"/>
       <c r="W91"/>
       <c r="X91" t="n">
-        <v>-0.246050295697408</v>
+        <v>-0.267068448158933</v>
       </c>
       <c r="Y91"/>
     </row>
@@ -6569,58 +6569,58 @@
         <v>115</v>
       </c>
       <c r="B92" t="n">
-        <v>1.59744609964363</v>
+        <v>1.61880638818388</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.728581533463181</v>
+        <v>-0.733272219036286</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.967995940653969</v>
+        <v>-0.982888451281467</v>
       </c>
       <c r="E92" t="n">
-        <v>1.95036829104426</v>
+        <v>1.96018256498758</v>
       </c>
       <c r="F92" t="n">
-        <v>0.663928850402476</v>
+        <v>0.661762151468004</v>
       </c>
       <c r="G92" t="n">
-        <v>5.6545560824285</v>
+        <v>5.64910580058336</v>
       </c>
       <c r="H92" t="n">
         <v>0.464345786798674</v>
       </c>
       <c r="I92" t="n">
-        <v>1.12734984845922</v>
+        <v>1.16141506766012</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.94593273812696</v>
+        <v>-0.960133797572859</v>
       </c>
       <c r="K92"/>
       <c r="L92" t="n">
-        <v>-0.590989615686521</v>
+        <v>-0.598239137560441</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.287488297804173</v>
+        <v>-0.304403487672697</v>
       </c>
       <c r="N92" t="n">
         <v>-0.680758112223648</v>
       </c>
       <c r="O92" t="n">
-        <v>1.04138810123</v>
+        <v>1.0478326955581</v>
       </c>
       <c r="P92" t="n">
-        <v>2.30105289148085</v>
+        <v>2.29961999997315</v>
       </c>
       <c r="Q92"/>
       <c r="R92" t="n">
-        <v>0.307783630219857</v>
+        <v>0.332182101417867</v>
       </c>
       <c r="S92" t="n">
-        <v>0.575812733920324</v>
+        <v>0.589911060561482</v>
       </c>
       <c r="T92"/>
       <c r="U92" t="n">
-        <v>-0.782602756550725</v>
+        <v>-0.784763641135947</v>
       </c>
       <c r="V92"/>
       <c r="W92"/>

--- a/data/z1-pXRF.xlsx
+++ b/data/z1-pXRF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -80,172 +80,175 @@
     <t xml:space="preserve">Nb</t>
   </si>
   <si>
-    <t xml:space="preserve">Rh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ag</t>
   </si>
   <si>
+    <t xml:space="preserve">Ba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pb</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-9</t>
+    <t xml:space="preserve">AY-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-9</t>
   </si>
 </sst>
 </file>
@@ -658,39 +661,63 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="B2" t="n">
+        <v>-0.588521278339775</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.268931370531126</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.329602327382904</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.23543749263251</v>
+      </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="G2" t="n">
+        <v>0.0628910020369337</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.400077791608567</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.18682237767893</v>
+      </c>
       <c r="J2" t="n">
-        <v>-1.15312447015512</v>
+        <v>0.0604808224420065</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>-0.886434353199577</v>
+        <v>0.35014917139033</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.304681488770814</v>
+        <v>0.161778249184306</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.34232517055338</v>
+        <v>0.119436417247252</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.177056731794084</v>
-      </c>
-      <c r="P2"/>
+        <v>0.477340559308498</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.41501046414006</v>
+      </c>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>0.869929208071917</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.163489387113499</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.455895592792496</v>
+      </c>
       <c r="U2" t="n">
-        <v>-0.40145089300347</v>
-      </c>
-      <c r="V2"/>
+        <v>-0.461890401250474</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.467811337400886</v>
+      </c>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -699,37 +726,61 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="B3" t="n">
+        <v>-0.45986778336341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.624322360483729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.402671854809471</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.170363762825361</v>
+      </c>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="G3" t="n">
+        <v>2.18836597511825</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.782754633450769</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.176975899197201</v>
+      </c>
       <c r="J3" t="n">
-        <v>-1.25539832438118</v>
+        <v>0.249123848852995</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>-1.05609785941959</v>
+        <v>0.40167423678405</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.677192341241002</v>
+        <v>0.118142465314153</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.877516987446998</v>
+        <v>-0.128623833958579</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.205963233007949</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+        <v>0.477340559308498</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.241669783979229</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01394111720105</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.112151152260143</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0231692078170294</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.34359778133258</v>
+      </c>
       <c r="U3" t="n">
-        <v>-0.565145434398382</v>
+        <v>0.0760144833789886</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -740,39 +791,63 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" t="n">
+        <v>-0.59019070418501</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.337896566228316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.518428287399266</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.579837138121289</v>
+      </c>
       <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="G4" t="n">
+        <v>-0.283224594672483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.293778668874622</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.52003831174546</v>
+      </c>
       <c r="J4" t="n">
-        <v>-1.0966286110711</v>
+        <v>0.12480888374952</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>-0.932928679423329</v>
+        <v>0.883433598215333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0490134216623944</v>
+        <v>0.343770040765045</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.34232517055338</v>
+        <v>0.946303921266686</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.205963233007949</v>
-      </c>
-      <c r="P4"/>
+        <v>0.354810620462379</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.39674690747002</v>
+      </c>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="R4" t="n">
+        <v>1.85200956840398</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.107057718878688</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.900058578417538</v>
+      </c>
       <c r="U4" t="n">
-        <v>-0.335193578629339</v>
-      </c>
-      <c r="V4"/>
+        <v>-0.0723730710015527</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.905836934218194</v>
+      </c>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -781,37 +856,61 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="B5" t="n">
+        <v>-0.0530125491455641</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.342088691926545</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.319117980487148</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.308480664057434</v>
+      </c>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="G5" t="n">
+        <v>0.0257242265513588</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.445044159383625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.017124800920386</v>
+      </c>
       <c r="J5" t="n">
-        <v>-1.11152462536335</v>
-      </c>
-      <c r="K5"/>
+        <v>-0.469140393967087</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.952511355585171</v>
+      </c>
       <c r="L5" t="n">
-        <v>-0.900301082073328</v>
+        <v>-0.587607018775375</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.30888147583264</v>
+        <v>-0.49264733489634</v>
       </c>
       <c r="N5" t="n">
-        <v>0.981715744978539</v>
+        <v>-0.211310584360522</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.194400632522403</v>
-      </c>
-      <c r="P5"/>
+        <v>0.0484857733470833</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.487103894811717</v>
+      </c>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="R5" t="n">
+        <v>-0.603191332426173</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0535554907126968</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.254765184207571</v>
+      </c>
       <c r="U5" t="n">
-        <v>-0.405348382084302</v>
+        <v>0.242950482057097</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -822,39 +921,65 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="B6" t="n">
+        <v>0.201655670922761</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.09888359742015</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.16574201074325</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.372337886472078</v>
+      </c>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="G6" t="n">
+        <v>-0.0834531764375177</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.867969632667238</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.690408899270262</v>
+      </c>
       <c r="J6" t="n">
-        <v>-1.12006258477476</v>
-      </c>
-      <c r="K6"/>
+        <v>0.873066578467583</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.720533838355736</v>
+      </c>
       <c r="L6" t="n">
-        <v>-0.95332092776708</v>
+        <v>0.450623048908084</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0588982459127789</v>
+        <v>0.717370172473702</v>
       </c>
       <c r="N6" t="n">
-        <v>0.795792471735985</v>
+        <v>-0.376684085164409</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.211744533250722</v>
-      </c>
-      <c r="P6"/>
+        <v>0.722400437000735</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.126481382269503</v>
+      </c>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>-0.357671242343158</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.214168700304082</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.367062995667488</v>
+      </c>
       <c r="U6" t="n">
-        <v>-0.436528294730952</v>
-      </c>
-      <c r="V6"/>
+        <v>0.521177146520613</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.860282272149195</v>
+      </c>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
@@ -863,37 +988,59 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="B7" t="n">
+        <v>-0.457929095285072</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.00230587217530966</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.239801834419621</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.447836670342555</v>
+      </c>
       <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="G7" t="n">
+        <v>-0.255349513058302</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.173586069096112</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0736548179752533</v>
+      </c>
       <c r="J7" t="n">
-        <v>-1.12115253704005</v>
+        <v>-0.424544866802983</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>-0.934560059290829</v>
+        <v>-0.742182214956536</v>
       </c>
       <c r="M7" t="n">
-        <v>0.35034849339151</v>
+        <v>-0.46741084333322</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.598632077583167</v>
+        <v>-1.03817808837996</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.101899828638034</v>
-      </c>
-      <c r="P7"/>
+        <v>-0.0740441654990351</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.855255061060449</v>
+      </c>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>-1.0942315125922</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.423943240504933</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.787760766957622</v>
+      </c>
       <c r="U7" t="n">
-        <v>-0.393655914841808</v>
+        <v>-1.41713528257521</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -904,39 +1051,65 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="B8" t="n">
+        <v>1.06334866929731</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0619628819501791</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.569933093094358</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.00459862392027598</v>
+      </c>
       <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="G8" t="n">
+        <v>3.58676590276301</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.468952595098991</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.28559594434854</v>
+      </c>
       <c r="J8" t="n">
-        <v>-1.00779750145025</v>
-      </c>
-      <c r="K8"/>
+        <v>0.841099873155261</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.286541909453354</v>
+      </c>
       <c r="L8" t="n">
-        <v>-0.863595035054575</v>
+        <v>-0.0414413256019429</v>
       </c>
       <c r="M8" t="n">
-        <v>0.584987770578835</v>
+        <v>0.470230433509754</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0520993787657707</v>
+        <v>-0.293997334762466</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.223307133736268</v>
-      </c>
-      <c r="P8"/>
+        <v>0.232280681616261</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.310556965393869</v>
+      </c>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="R8" t="n">
+        <v>0.542569087961231</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.123009851617079</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.100565204292463</v>
+      </c>
       <c r="U8" t="n">
-        <v>-0.424835827488458</v>
-      </c>
-      <c r="V8"/>
+        <v>1.12400158619156</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.860282272149195</v>
+      </c>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
@@ -945,37 +1118,63 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="B9" t="n">
+        <v>0.268217294945694</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.319252638780927</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.445536942765454</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.234198387579462</v>
+      </c>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" t="n">
+        <v>-0.524808635328721</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.335771214880263</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.345756433955896</v>
+      </c>
       <c r="J9" t="n">
-        <v>-1.19163611686192</v>
-      </c>
-      <c r="K9"/>
+        <v>0.0486413019559614</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.36775769556699</v>
+      </c>
       <c r="L9" t="n">
-        <v>-1.01776043253333</v>
+        <v>-0.123881430231895</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.423625122361716</v>
+        <v>0.0236445894170075</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.319747167719337</v>
+        <v>0.532870169256969</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.136587630094673</v>
-      </c>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+        <v>-0.0127791960759757</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.985500770183211</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0311981882215707</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.624409117988902</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.124421309104784</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0117326071674542</v>
+      </c>
       <c r="U9" t="n">
-        <v>-0.417040849326795</v>
+        <v>0.122385594122908</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -986,37 +1185,63 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="B10" t="n">
+        <v>0.419704227289149</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.133292058304265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.832415180583161</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.396882712097335</v>
+      </c>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="G10" t="n">
+        <v>-0.596819262832022</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.245285184784425</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.129991171329844</v>
+      </c>
       <c r="J10" t="n">
-        <v>-1.04939734624202</v>
-      </c>
-      <c r="K10"/>
+        <v>-0.357848901398261</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.379427536678464</v>
+      </c>
       <c r="L10" t="n">
-        <v>-0.915799190814578</v>
+        <v>-0.113576417153151</v>
       </c>
       <c r="M10" t="n">
-        <v>0.52305196137378</v>
+        <v>-0.342673647148987</v>
       </c>
       <c r="N10" t="n">
-        <v>0.795792471735985</v>
+        <v>0.0367496668453082</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.211744533250722</v>
-      </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+        <v>-0.196574104345154</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.732538005644205</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.514770105655917</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.521351302398501</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.19821656756569</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0117326071674541</v>
+      </c>
       <c r="U10" t="n">
-        <v>-0.405348382084302</v>
+        <v>-0.165115292489391</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1027,39 +1252,69 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="B11" t="n">
+        <v>-1.01632511429299</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0112003373110914</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.107146121950245</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.120626311972645</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.283622582995088</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0091196254663678</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.198900113045977</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.549018945608208</v>
+      </c>
       <c r="J11" t="n">
-        <v>-0.981820305794249</v>
-      </c>
-      <c r="K11"/>
+        <v>0.0403536376157295</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.61390748560574</v>
+      </c>
       <c r="L11" t="n">
-        <v>-0.782026041679571</v>
+        <v>0.891162358024391</v>
       </c>
       <c r="M11" t="n">
-        <v>0.536995918419041</v>
+        <v>-0.134333624288692</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.15640189731083</v>
+        <v>0.532870169256969</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.125025029609126</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+        <v>-0.0740441654990351</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.548462422519839</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.358779164548063</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.685031362453845</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.29805721136574</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.254765184207571</v>
+      </c>
       <c r="U11" t="n">
-        <v>-0.280628731497702</v>
-      </c>
-      <c r="V11"/>
+        <v>-0.424793512655338</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.271575870026732</v>
+      </c>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
@@ -1068,37 +1323,61 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="B12" t="n">
+        <v>0.133047653928249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.302326537277549</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.262405562946581</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.197978104007559</v>
+      </c>
       <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="G12" t="n">
+        <v>0.00249499187287432</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.223322556120387</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.125910438694519</v>
+      </c>
       <c r="J12" t="n">
-        <v>-1.15112622433543</v>
+        <v>-0.0223958209603105</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>-0.94597971836333</v>
+        <v>0.628384524516418</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.265761608664564</v>
+        <v>-0.1430051940769</v>
       </c>
       <c r="N12" t="n">
-        <v>1.26060065484237</v>
+        <v>0.202123167649195</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.171275431551311</v>
-      </c>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+        <v>-0.196574104345153</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.555991076226357</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.686360140874555</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.193991182287814</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.241625543130929</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.0770999899575542</v>
+      </c>
       <c r="U12" t="n">
-        <v>-0.448220761973445</v>
+        <v>-0.786488176457908</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -1109,37 +1388,59 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="B13" t="n">
+        <v>-0.3957295194384</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.711689187696767</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.24161998617277</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0500274541630027</v>
+      </c>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="n">
+        <v>1.20344642475052</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.534124581244964</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.916292742689118</v>
+      </c>
       <c r="J13" t="n">
-        <v>-1.15421442242041</v>
+        <v>-1.17319721220391</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>-0.968003346574581</v>
+        <v>-1.32183920063589</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.256521637128547</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.795792471735985</v>
-      </c>
+        <v>-1.21133147458705</v>
+      </c>
+      <c r="N13"/>
       <c r="O13" t="n">
-        <v>-0.0961185283952613</v>
-      </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
+        <v>-0.747958829152686</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.793896533352327</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.0779954705539268</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.766871392481516</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.458670420957125</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.965425961207638</v>
+      </c>
       <c r="U13" t="n">
-        <v>-0.471605696458433</v>
+        <v>-0.851407731499395</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -1150,39 +1451,67 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="B14" t="n">
+        <v>0.789832092911817</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.26984667852689</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.83372572394513</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0770391910640834</v>
+      </c>
       <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="G14" t="n">
+        <v>-0.250703666122605</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.60521115166167</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.438183263678271</v>
+      </c>
       <c r="J14" t="n">
-        <v>-1.05448379014669</v>
-      </c>
-      <c r="K14"/>
+        <v>0.72428327102628</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.541859108905736</v>
+      </c>
       <c r="L14" t="n">
-        <v>-0.848096926313325</v>
+        <v>0.422284262941538</v>
       </c>
       <c r="M14" t="n">
-        <v>0.257948778031347</v>
+        <v>1.03054725059401</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.598632077583167</v>
+        <v>-0.0459370835566351</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.142368930337446</v>
-      </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+        <v>-0.380369012614331</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.985500770183211</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.249585505772566</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36096938823795</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.202557465122214</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.43305416116759</v>
+      </c>
       <c r="U14" t="n">
-        <v>-0.381963447599314</v>
-      </c>
-      <c r="V14"/>
+        <v>1.25384069627454</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.271575870026732</v>
+      </c>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
@@ -1191,39 +1520,67 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="B15" t="n">
+        <v>0.401663657671282</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.57798367721781</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.10006044986515</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.0303825545985803</v>
+      </c>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="G15" t="n">
+        <v>-0.687413278078111</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.23896476439116</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.402894604220855</v>
+      </c>
       <c r="J15" t="n">
-        <v>-1.06465667795603</v>
-      </c>
-      <c r="K15"/>
+        <v>1.25627239153258</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.395670693901191</v>
+      </c>
       <c r="L15" t="n">
-        <v>-0.848096926313325</v>
+        <v>0.744315921652288</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.167649910900317</v>
+        <v>1.34911626633903</v>
       </c>
       <c r="N15" t="n">
-        <v>0.981715744978539</v>
+        <v>0.532870169256969</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.1308063298519</v>
-      </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+        <v>0.0484857733470836</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.924142242475089</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0311981882215707</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.27912935821028</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.280693621139644</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.544728189917505</v>
+      </c>
       <c r="U15" t="n">
-        <v>-0.315706133225183</v>
-      </c>
-      <c r="V15"/>
+        <v>1.17964691908426</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.317130532095731</v>
+      </c>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
@@ -1232,37 +1589,59 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="B16" t="n">
+        <v>-0.00599936324587127</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.301837981275124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.240155050031171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.570003389508807</v>
+      </c>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="G16" t="n">
+        <v>-0.573590028153538</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.486333901272017</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.786851604071795</v>
+      </c>
       <c r="J16" t="n">
-        <v>-1.07283131994568</v>
+        <v>-0.155393101086886</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>-0.886434353199577</v>
+        <v>0.0847950846126715</v>
       </c>
       <c r="M16" t="n">
-        <v>0.188060993322568</v>
+        <v>-0.43105695460573</v>
       </c>
       <c r="N16" t="n">
-        <v>0.516907561872155</v>
+        <v>0.0367496668453082</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0845559279097153</v>
-      </c>
-      <c r="P16"/>
+        <v>-0.564163920883508</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.60982095022796</v>
+      </c>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="R16" t="n">
+        <v>-1.25791157264755</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.680056196339844</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.432430378457588</v>
+      </c>
       <c r="U16" t="n">
-        <v>-0.358578513114327</v>
+        <v>-1.12963439596291</v>
       </c>
       <c r="V16"/>
       <c r="W16"/>
@@ -1273,37 +1652,59 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="B17" t="n">
+        <v>-0.900919321185271</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.548117486110586</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.663772932036313</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.866518592309307</v>
+      </c>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="G17" t="n">
+        <v>-0.12526579885879</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.396902077352053</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.434531510575614</v>
+      </c>
       <c r="J17" t="n">
-        <v>-1.08536577099647</v>
+        <v>0.069952438830843</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>-0.983501455315832</v>
+        <v>0.133743896736705</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0104295405210895</v>
+        <v>-0.104983695774755</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7479868407828</v>
+        <v>-0.211310584360522</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.194400632522403</v>
-      </c>
-      <c r="P17"/>
+        <v>-0.44163398203739</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.310556965393869</v>
+      </c>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
+      <c r="R17" t="n">
+        <v>0.624409117988902</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.228602850461357</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.367062995667488</v>
+      </c>
       <c r="U17" t="n">
-        <v>-0.506683098185914</v>
+        <v>0.428434925032774</v>
       </c>
       <c r="V17"/>
       <c r="W17"/>
@@ -1314,37 +1715,61 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="B18" t="n">
+        <v>0.340002606290815</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.27382282842123</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.418987222033551</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.455817410790602</v>
+      </c>
       <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="G18" t="n">
+        <v>-0.557329563878599</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.345070273704923</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.991654816862562</v>
+      </c>
       <c r="J18" t="n">
-        <v>-1.03631791905858</v>
-      </c>
-      <c r="K18"/>
+        <v>-0.36455796300702</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.806322940580626</v>
+      </c>
       <c r="L18" t="n">
-        <v>-0.900301082073328</v>
+        <v>-0.396964276818611</v>
       </c>
       <c r="M18" t="n">
-        <v>0.262988762505537</v>
+        <v>-0.538117489298614</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.80713335365977</v>
+        <v>-0.955491337978013</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.18861933227963</v>
-      </c>
-      <c r="P18"/>
+        <v>-0.993018706844923</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.732538005644204</v>
+      </c>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>-1.17607154261987</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.571533757426746</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.343597781332579</v>
+      </c>
       <c r="U18" t="n">
-        <v>-0.378065958518483</v>
+        <v>-0.777213954309124</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -1355,39 +1780,65 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="B19" t="n">
+        <v>0.854993553322617</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.546358278419288</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.423407164166659</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.458273023236155</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="n">
+        <v>0.382156286618712</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.280268909341665</v>
+      </c>
       <c r="J19" t="n">
-        <v>-1.04322095007206</v>
-      </c>
-      <c r="K19"/>
+        <v>0.453158251895843</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.298211750564827</v>
+      </c>
       <c r="L19" t="n">
-        <v>-0.854622445783325</v>
+        <v>-0.0749326181078609</v>
       </c>
       <c r="M19" t="n">
-        <v>0.589355757123134</v>
+        <v>0.406305399814626</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.43528680717466</v>
+        <v>-0.542057585968296</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.182838032036857</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+        <v>-0.686693859729627</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.126481382269503</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.733157423206911</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.112151152260143</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.406579650278838</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.100565204292463</v>
+      </c>
       <c r="U19" t="n">
-        <v>-0.43263080565012</v>
-      </c>
-      <c r="V19"/>
+        <v>0.0389175947838532</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.317130532095731</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
@@ -1396,37 +1847,61 @@
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="B20" t="n">
+        <v>-0.157055476016362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.287149781460274</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.351723581226996</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.678664240224518</v>
+      </c>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="G20" t="n">
+        <v>0.162776711154416</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.212240295544819</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.223549078334289</v>
+      </c>
       <c r="J20" t="n">
-        <v>-0.887176117425197</v>
-      </c>
-      <c r="K20"/>
+        <v>-0.301413853748112</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.525615951683009</v>
+      </c>
       <c r="L20" t="n">
-        <v>-0.793445700752072</v>
+        <v>-0.566996992617888</v>
       </c>
       <c r="M20" t="n">
-        <v>0.845554967894497</v>
+        <v>-0.379083122862299</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.34232517055338</v>
+        <v>-0.542057585968296</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.142368930337446</v>
-      </c>
-      <c r="P20"/>
+        <v>-0.870488767998804</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.425745367103595</v>
+      </c>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
+      <c r="R20" t="n">
+        <v>-0.521351302398501</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.237284645574405</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.189397801417471</v>
+      </c>
       <c r="U20" t="n">
-        <v>-0.319603622306015</v>
+        <v>-0.267131736126013</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -1437,37 +1912,61 @@
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="B21" t="n">
+        <v>0.630751965594872</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.345356883098914</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.526835964399237</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.22130642224031</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.334962287798168</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.508892307863834</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.109982296485057</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.722619097230314</v>
+      </c>
       <c r="J21" t="n">
-        <v>-0.994173098134164</v>
+        <v>-0.0954061972909231</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>-0.892959872669577</v>
+        <v>-0.327405438537089</v>
       </c>
       <c r="M21" t="n">
-        <v>0.790283138160872</v>
+        <v>-0.336725839666049</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.90009499028104</v>
+        <v>-0.707431086772183</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.11346242912358</v>
-      </c>
-      <c r="P21"/>
+        <v>-0.809223798575745</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.609820950227961</v>
+      </c>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" t="n">
+        <v>-0.603191332426173</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.493397601409316</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.87659336408263</v>
+      </c>
       <c r="U21" t="n">
-        <v>-0.370270980356821</v>
+        <v>-0.814310842904259</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -1478,37 +1977,59 @@
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="B22" t="n">
+        <v>0.811103809326912</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.218379602081488</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.439744074569291</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.655335921991766</v>
+      </c>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="G22" t="n">
+        <v>0.404360751810654</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0699355575307439</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.14284088147303</v>
+      </c>
       <c r="J22" t="n">
-        <v>-1.1956326085013</v>
+        <v>-0.261554134778426</v>
       </c>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>-1.03896837081084</v>
+        <v>-0.247541587176823</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.358049324369745</v>
+        <v>-0.418327534852526</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.36490317338743</v>
+        <v>-0.0459370835566353</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.18861933227963</v>
-      </c>
-      <c r="P22"/>
+        <v>-0.686693859729627</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.793896533352326</v>
+      </c>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>-0.193991182287814</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.445647728287553</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.965425961207638</v>
+      </c>
       <c r="U22" t="n">
-        <v>-0.436528294730952</v>
+        <v>0.168756704866827</v>
       </c>
       <c r="V22"/>
       <c r="W22"/>
@@ -1519,39 +2040,67 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="B23" t="n">
+        <v>0.218403781821735</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.937013961906933</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.929061470101328</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.164838634822867</v>
+      </c>
       <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="G23" t="n">
+        <v>0.339318894710898</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.507606821547698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.498783373093378</v>
+      </c>
       <c r="J23" t="n">
-        <v>-1.12424073512503</v>
-      </c>
-      <c r="K23"/>
+        <v>0.339498855229808</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0220780777784641</v>
+      </c>
       <c r="L23" t="n">
-        <v>-0.94516402842958</v>
+        <v>0.41455550313248</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0755013400656413</v>
+        <v>0.541993232205763</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.505670440961891</v>
+        <v>-0.707431086772183</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.153931530822992</v>
-      </c>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+        <v>-0.44163398203739</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.364386839395473</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.296382788104922</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.357671242343158</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.0896941286525923</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.0770999899575541</v>
+      </c>
       <c r="U23" t="n">
-        <v>-0.40145089300347</v>
-      </c>
-      <c r="V23"/>
+        <v>-0.118744181745472</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.467811337400886</v>
+      </c>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
@@ -1560,37 +2109,61 @@
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="B24" t="n">
+        <v>-0.07105311876343</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.636357004097003</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.590350188998196</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.399952227654276</v>
+      </c>
       <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="G24" t="n">
+        <v>0.534444466010166</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.786958362425372</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.0358890597032501</v>
+      </c>
       <c r="J24" t="n">
-        <v>-1.1629340405427</v>
+        <v>-0.959296542089363</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>-0.959030757303331</v>
+        <v>-0.234660320828393</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.283961552599141</v>
+        <v>-0.766580001026419</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.80713335365977</v>
+        <v>0.698243670060856</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.136587630094673</v>
-      </c>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+        <v>0.109750742770142</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.609820950227961</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.187189129329424</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-1.25791157264755</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.00580561759093379</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.787760766957622</v>
+      </c>
       <c r="U24" t="n">
-        <v>-0.46381071829677</v>
+        <v>-0.721568621416421</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -1601,39 +2174,63 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="B25" t="n">
+        <v>0.166166908599854</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.40611118598115</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.0254772757513023</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.553428005501325</v>
+      </c>
       <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="G25" t="n">
+        <v>-0.836080380020411</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.313808586216225</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.0254828706708582</v>
+      </c>
       <c r="J25" t="n">
-        <v>-1.03722621261298</v>
+        <v>1.43307589745753</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>-0.978607315713332</v>
+        <v>1.04831380747524</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0513942690289836</v>
+        <v>1.22593550575781</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0520993787657707</v>
+        <v>1.52511117408029</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.136587630094673</v>
-      </c>
-      <c r="P25"/>
+        <v>0.109750742770143</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.90587868580504</v>
+      </c>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="R25" t="n">
+        <v>1.85200956840398</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.0202397677482097</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.14371493816766</v>
+      </c>
       <c r="U25" t="n">
-        <v>-0.405348382084302</v>
-      </c>
-      <c r="V25"/>
+        <v>1.77319713660643</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.08324973846312</v>
+      </c>
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
@@ -1642,37 +2239,59 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="B26" t="n">
+        <v>-0.394006241146544</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.32875584102165</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.0635907491411803</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.507385272147211</v>
+      </c>
       <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="G26" t="n">
+        <v>-0.759423905581413</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.58718629209728</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0146515518535675</v>
+      </c>
       <c r="J26" t="n">
-        <v>-1.09989846786696</v>
+        <v>-0.332985908377566</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>-0.928034539820829</v>
+        <v>-0.386659263739867</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.280321563812226</v>
+        <v>-0.566967134940154</v>
       </c>
       <c r="N26" t="n">
-        <v>2.09725538443386</v>
+        <v>-0.459370835566352</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.194400632522403</v>
-      </c>
-      <c r="P26"/>
+        <v>-0.44163398203739</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.364386839395473</v>
+      </c>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>-0.766871392481516</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.37619336738317</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.432430378457588</v>
+      </c>
       <c r="U26" t="n">
-        <v>-0.444323272892614</v>
+        <v>-1.22237661745075</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -1683,78 +2302,124 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="B27" t="n">
+        <v>0.721385633257166</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.790935717181784</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.647466992706325</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.711201105128092</v>
+      </c>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="G27" t="n">
+        <v>-0.836080380020411</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.044107506221835</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.524273996728494</v>
+      </c>
       <c r="J27" t="n">
-        <v>-1.00252939883469</v>
+        <v>1.13985044008647</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>-0.817100708830823</v>
+        <v>0.16981144251231</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.133770015268257</v>
+        <v>0.21208447135308</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0520993787657707</v>
+        <v>-0.955491337978013</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0729933274241692</v>
-      </c>
-      <c r="P27"/>
+        <v>-0.564163920883508</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.793896533352326</v>
+      </c>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>-0.521351302398501</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0231692078170294</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.432430378457588</v>
+      </c>
       <c r="U27" t="n">
-        <v>-0.30401366598269</v>
+        <v>1.30948602916724</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="X27"/>
+      <c r="X27" t="n">
+        <v>0.149282566881683</v>
+      </c>
       <c r="Y27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="B28" t="n">
+        <v>0.425897258650506</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.167500840479227</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.095326097984208</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.557111424169655</v>
+      </c>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="G28" t="n">
+        <v>0.968831154497824</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.654655487353206</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.734611489281044</v>
+      </c>
       <c r="J28" t="n">
-        <v>-1.02977820546686</v>
+        <v>-0.110797573922782</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>-0.826888988035823</v>
+        <v>-0.502590660875737</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.218945752882081</v>
+        <v>-0.556794716534755</v>
       </c>
       <c r="N28" t="n">
-        <v>0.145061015387047</v>
+        <v>-0.376684085164409</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0961185283952613</v>
-      </c>
-      <c r="P28"/>
+        <v>-0.625428890306568</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.793896533352326</v>
+      </c>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
+      <c r="R28" t="n">
+        <v>-1.33975160267522</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.311079904035312</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.965425961207638</v>
+      </c>
       <c r="U28" t="n">
-        <v>-0.284526220578533</v>
+        <v>-0.879230397945746</v>
       </c>
       <c r="V28"/>
       <c r="W28"/>
@@ -1765,37 +2430,59 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="B29" t="n">
+        <v>0.378776367857572</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.321023642203927</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0577583851176706</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.614818316640145</v>
+      </c>
       <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="G29" t="n">
+        <v>-0.622371420978355</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0388233796135735</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-0.604490549370148</v>
+      </c>
       <c r="J29" t="n">
-        <v>-1.03232142741919</v>
+        <v>0.181243931399669</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>-0.825257608168323</v>
+        <v>-0.541234459921027</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.112994079269093</v>
+        <v>0.0733949417275636</v>
       </c>
       <c r="N29" t="n">
-        <v>0.145061015387047</v>
+        <v>0.284809918051139</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.200181932765176</v>
-      </c>
-      <c r="P29"/>
+        <v>-0.380369012614331</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.00376432685325918</v>
+      </c>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
+      <c r="R29" t="n">
+        <v>-0.603191332426173</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.57587465498327</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.254765184207571</v>
+      </c>
       <c r="U29" t="n">
-        <v>-0.27283375333604</v>
+        <v>-0.656649066374934</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -1806,37 +2493,61 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="B30" t="n">
+        <v>-0.00152961017636989</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.363916113325222</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.298070295040943</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.850557111413213</v>
+      </c>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="G30" t="n">
+        <v>-0.671152813803172</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.229634697446738</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.499801150159854</v>
+      </c>
       <c r="J30" t="n">
-        <v>-1.22124648673554</v>
+        <v>-0.0330513893977512</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>-1.00797215332833</v>
+        <v>-0.667470870135642</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.626792496499095</v>
+        <v>-0.139447626984302</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.412708804340614</v>
+        <v>0.532870169256969</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.0903372281524883</v>
-      </c>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+        <v>-0.44163398203739</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.310556965393869</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.514770105655917</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.788089178044246</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.228602850461358</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.100565204292463</v>
+      </c>
       <c r="U30" t="n">
-        <v>-0.479400674620095</v>
+        <v>0.511902924371829</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
@@ -1847,39 +2558,67 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="B31" t="n">
+        <v>1.7393584317244</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.83409734158596</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.792614158206637</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.460114732570319</v>
+      </c>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="G31" t="n">
+        <v>-0.70367374235305</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.31548015432568</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.276486425221013</v>
+      </c>
       <c r="J31" t="n">
-        <v>-1.20635047244329</v>
-      </c>
-      <c r="K31"/>
+        <v>1.83048913510578</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.172839808894263</v>
+      </c>
       <c r="L31" t="n">
-        <v>-0.95495230763458</v>
+        <v>1.70268213797548</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.524816810637968</v>
+        <v>2.08330917507403</v>
       </c>
       <c r="N31" t="n">
-        <v>2.19021702105514</v>
+        <v>1.3597376732764</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.194400632522403</v>
-      </c>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+        <v>0.232280681616261</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.72180310268067</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.296382788104922</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.52464944829329</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.232943748017881</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.722393384167521</v>
+      </c>
       <c r="U31" t="n">
-        <v>-0.448220761973445</v>
-      </c>
-      <c r="V31"/>
+        <v>0.409886480735206</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.905836934218194</v>
+      </c>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -1888,37 +2627,59 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
+      <c r="B32" t="n">
+        <v>-0.614962829630438</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.898223021396936</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.891663855828641</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.659633243771484</v>
+      </c>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="G32" t="n">
+        <v>-0.459766778228965</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.759197599794028</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.0059567902312</v>
+      </c>
       <c r="J32" t="n">
-        <v>-1.19599592592306</v>
+        <v>-0.945089117506108</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>-0.957399377435831</v>
+        <v>-0.711267175720304</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.392881217069153</v>
+        <v>-0.971251282822473</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.691593714204444</v>
+        <v>0.0367496668453082</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.171275431551311</v>
-      </c>
-      <c r="P32"/>
+        <v>-0.747958829152686</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.793896533352326</v>
+      </c>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" t="n">
+        <v>-1.17607154261987</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.771215045026846</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1.14309115545766</v>
+      </c>
       <c r="U32" t="n">
-        <v>-0.452118251054277</v>
+        <v>-1.25947350604588</v>
       </c>
       <c r="V32"/>
       <c r="W32"/>
@@ -1929,39 +2690,65 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
+      <c r="B33" t="n">
+        <v>-1.23674317831068</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.454440812613306</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.284656075861991</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.674980821556189</v>
+      </c>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="G33" t="n">
+        <v>-0.687413278078111</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.479832963187461</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-0.168040688093667</v>
+      </c>
       <c r="J33" t="n">
-        <v>-0.998169589773548</v>
-      </c>
-      <c r="K33"/>
+        <v>-0.246952059512303</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0220780777784642</v>
+      </c>
       <c r="L33" t="n">
-        <v>-0.955767997568331</v>
+        <v>-0.433031822594215</v>
       </c>
       <c r="M33" t="n">
-        <v>0.629003634986768</v>
+        <v>-0.297259079732535</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.71417171703849</v>
+        <v>0.0367496668453082</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.11346242912358</v>
-      </c>
-      <c r="P33"/>
+        <v>-0.135309134922094</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.0651228545613812</v>
+      </c>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
+      <c r="R33" t="n">
+        <v>0.378889027905887</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.215580157791786</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.900058578417538</v>
+      </c>
       <c r="U33" t="n">
-        <v>-0.378065958518483</v>
-      </c>
-      <c r="V33"/>
+        <v>0.641742034454802</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.120895064721577</v>
+      </c>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -1970,37 +2757,59 @@
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="B34" t="n">
+        <v>-0.517220639014238</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.698198738081412</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.859018759261446</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.0021911799261</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.333128726912343</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.54106909960366</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.790823785070243</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.486266132096785</v>
+      </c>
       <c r="J34" t="n">
-        <v>-1.25703325277911</v>
+        <v>-0.751315632217833</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>-1.06670182855834</v>
+        <v>-0.440760582403273</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.782360017269116</v>
+        <v>-0.664022012185105</v>
       </c>
       <c r="N34" t="n">
-        <v>0.145061015387047</v>
+        <v>1.02899067166863</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.344714438834502</v>
-      </c>
-      <c r="P34"/>
+        <v>-0.319104043191272</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.00376432685325907</v>
+      </c>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="R34" t="n">
+        <v>0.297048997878216</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.289375416252692</v>
+      </c>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>-0.580735390721707</v>
+        <v>-0.276405958274797</v>
       </c>
       <c r="V34"/>
       <c r="W34"/>
@@ -2011,37 +2820,59 @@
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
+      <c r="B35" t="n">
+        <v>-0.922244890046988</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.323050767703007</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.451730606599419</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.663327961270084</v>
+      </c>
       <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="G35" t="n">
+        <v>0.420621216085593</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.232283308615315</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.107339843611932</v>
+      </c>
       <c r="J35" t="n">
-        <v>-1.11697438668979</v>
+        <v>0.538008148712501</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>-0.839940026975824</v>
+        <v>0.618079511437674</v>
       </c>
       <c r="M35" t="n">
-        <v>0.238292838582002</v>
+        <v>-0.113154982690567</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0408622578555064</v>
+        <v>0.450183418855026</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.101899828638034</v>
-      </c>
-      <c r="P35"/>
+        <v>0.0484857733470836</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.924142242475089</v>
+      </c>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>0.624409117988902</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.159148489556975</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.544728189917505</v>
+      </c>
       <c r="U35" t="n">
-        <v>-0.491093141862589</v>
+        <v>-0.665923288523718</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
@@ -2053,60 +2884,58 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.356721748418224</v>
+        <v>-0.126750011680678</v>
       </c>
       <c r="C36" t="n">
-        <v>0.405927797897012</v>
+        <v>-0.625880629819191</v>
       </c>
       <c r="D36" t="n">
-        <v>0.135812030467924</v>
+        <v>-0.268504975374377</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.0563246214602443</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.42243793040778</v>
-      </c>
+        <v>-0.775353980268159</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="n">
-        <v>-0.415764069467196</v>
+        <v>-0.382529572923004</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.81168437304843</v>
+        <v>-0.66598820374385</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.726957211669102</v>
+        <v>-0.593923125415562</v>
       </c>
       <c r="J36" t="n">
-        <v>0.190298885664016</v>
+        <v>-0.475750792905129</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>-0.307415343190193</v>
+        <v>-0.232728130876129</v>
       </c>
       <c r="M36" t="n">
-        <v>0.633776064729613</v>
+        <v>-0.504042666989819</v>
       </c>
       <c r="N36" t="n">
-        <v>0.114073803179955</v>
+        <v>0.0987647296467659</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.225234233817192</v>
+        <v>-0.502898951460449</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0587182516441987</v>
+        <v>0.126481382269503</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="n">
-        <v>-0.0347157173175936</v>
+        <v>0.603949110481985</v>
       </c>
       <c r="S36" t="n">
-        <v>0.333791306669882</v>
+        <v>-0.357744552767944</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.471425552564987</v>
+        <v>0.256022249261227</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.391057588787921</v>
+        <v>-0.00281640488567399</v>
       </c>
       <c r="V36"/>
       <c r="W36"/>
@@ -2118,66 +2947,68 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.271714188349666</v>
+        <v>1.20088781796606</v>
       </c>
       <c r="C37" t="n">
-        <v>0.254066144566188</v>
+        <v>1.43690131161424</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.222141339777391</v>
+        <v>1.27578097626181</v>
       </c>
       <c r="E37" t="n">
-        <v>0.697588269391265</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.604062219386663</v>
-      </c>
+        <v>-0.116942893304316</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>-0.271867814536876</v>
+        <v>-0.831434533084715</v>
       </c>
       <c r="H37" t="n">
-        <v>0.106146961108569</v>
+        <v>0.589659202236545</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.603540968734905</v>
+        <v>-0.365052332211939</v>
       </c>
       <c r="J37" t="n">
-        <v>0.929548917444037</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.31189789434757</v>
-      </c>
+        <v>0.782296921407902</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" t="n">
-        <v>0.870576869467164</v>
+        <v>1.10241512613864</v>
       </c>
       <c r="M37" t="n">
-        <v>0.336925127335147</v>
+        <v>1.63049758856924</v>
       </c>
       <c r="N37" t="n">
-        <v>0.485920349665063</v>
+        <v>0.450183418855025</v>
       </c>
       <c r="O37" t="n">
-        <v>2.22164756337869</v>
+        <v>0.109750742770143</v>
       </c>
       <c r="P37" t="n">
-        <v>0.443424038278605</v>
-      </c>
-      <c r="Q37"/>
+        <v>1.04685929789133</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0311981882215707</v>
+      </c>
       <c r="R37" t="n">
-        <v>-0.977300042061961</v>
+        <v>1.36096938823795</v>
       </c>
       <c r="S37" t="n">
-        <v>0.727012366935602</v>
+        <v>-0.189534772452642</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.402404684371771</v>
+        <v>2.23254753529266</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.433929968677064</v>
-      </c>
-      <c r="V37"/>
+        <v>0.521177146520613</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.70960146684404</v>
+      </c>
       <c r="W37"/>
-      <c r="X37"/>
+      <c r="X37" t="n">
+        <v>0.25416407653907</v>
+      </c>
       <c r="Y37"/>
     </row>
     <row r="38">
@@ -2185,62 +3016,60 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.770901331586073</v>
+        <v>-0.725575754988937</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229022292964263</v>
+        <v>0.366932146560855</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.532068447985324</v>
+        <v>0.379250829192686</v>
       </c>
       <c r="E38" t="n">
-        <v>0.43441270311625</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.994657817260553</v>
-      </c>
+        <v>0.579837138121289</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>0.0962015691226879</v>
+        <v>-0.71993420662799</v>
       </c>
       <c r="H38" t="n">
-        <v>0.853777133488035</v>
+        <v>0.93666873512835</v>
       </c>
       <c r="I38" t="n">
-        <v>0.568701280610491</v>
+        <v>-0.811089134808044</v>
       </c>
       <c r="J38" t="n">
-        <v>1.3588858244107</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.11646461056204</v>
-      </c>
+        <v>0.358836738690348</v>
+      </c>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>0.846030644608945</v>
+        <v>-0.0697801115684889</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.278424828914429</v>
+        <v>-0.0559003872940606</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.505670440961891</v>
+        <v>-0.211310584360522</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.236796834302738</v>
+        <v>-0.564163920883509</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.941516793605257</v>
-      </c>
-      <c r="Q38"/>
+        <v>-0.180311256271107</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.358779164548063</v>
+      </c>
       <c r="R38" t="n">
-        <v>-0.741653960875869</v>
+        <v>-0.030311122232471</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.0464948502976239</v>
+        <v>-0.19821656756569</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.954571629917501</v>
+        <v>0.367062995667488</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.457314903162052</v>
+        <v>0.140934038420476</v>
       </c>
       <c r="V38"/>
       <c r="W38"/>
@@ -2252,58 +3081,60 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.12690647724748</v>
+        <v>0.79015520759154</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0616014807658593</v>
+        <v>-1.45795060146581</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.305887411877728</v>
+        <v>-1.72245499354353</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.56251205390761</v>
+        <v>3.48851007987857</v>
       </c>
       <c r="F39" t="n">
-        <v>0.357905618643223</v>
+        <v>0.481125103134118</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.503228312247294</v>
+        <v>1.40089491951763</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.6934361982572</v>
+        <v>-1.97996835145593</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.429158968112179</v>
+        <v>2.72414776921049</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0569983964295072</v>
+        <v>-1.19411369839593</v>
       </c>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>-0.477109060148489</v>
+        <v>-0.901909917677068</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.00594418681697602</v>
+        <v>-1.03273048914144</v>
       </c>
       <c r="N39" t="n">
-        <v>0.423945925250878</v>
+        <v>-0.293997334762466</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.229088433979041</v>
+        <v>1.94769982546192</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.133634641673004</v>
-      </c>
-      <c r="Q39"/>
+        <v>-0.732538005644204</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.405576446880419</v>
+      </c>
       <c r="R39" t="n">
-        <v>-0.329273318800208</v>
+        <v>-0.603191332426173</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.103408424809767</v>
+        <v>3.54797802371445</v>
       </c>
       <c r="T39"/>
       <c r="U39" t="n">
-        <v>-0.402750056030414</v>
+        <v>0.623193590157235</v>
       </c>
       <c r="V39"/>
       <c r="W39"/>
@@ -2315,265 +3146,263 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.783368100910723</v>
+        <v>0.434082830536821</v>
       </c>
       <c r="C40" t="n">
-        <v>0.482977605165914</v>
+        <v>-1.13493628450749</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.177536004823153</v>
+        <v>-1.27751654583051</v>
       </c>
       <c r="E40" t="n">
-        <v>2.53274684496868</v>
+        <v>2.33375832735737</v>
       </c>
       <c r="F40" t="n">
-        <v>0.197361334274051</v>
+        <v>0.358887710745833</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.216850117801821</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.896131339644657</v>
-      </c>
+        <v>1.57976002654196</v>
+      </c>
+      <c r="H40"/>
       <c r="I40" t="n">
-        <v>0.644966998164823</v>
+        <v>3.40361787753824</v>
       </c>
       <c r="J40" t="n">
-        <v>0.896749427979394</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.652310561571394</v>
-      </c>
+        <v>-1.04848759641757</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" t="n">
-        <v>0.868688698324224</v>
+        <v>-0.677775883214386</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0166112992557913</v>
+        <v>-0.467522017304864</v>
       </c>
       <c r="N40" t="n">
-        <v>0.361971500836693</v>
+        <v>-1.45161184038967</v>
       </c>
       <c r="O40" t="n">
-        <v>2.94141944360393</v>
+        <v>2.19275970315416</v>
       </c>
       <c r="P40" t="n">
-        <v>1.90530602748935</v>
-      </c>
-      <c r="Q40"/>
+        <v>-1.10068917189294</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.0779954705539267</v>
+      </c>
       <c r="R40" t="n">
-        <v>0.0831073232754523</v>
+        <v>0.624409117988902</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4565409129549</v>
+        <v>1.06064372382624</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.264362947985338</v>
+        <v>-0.34359778133258</v>
       </c>
       <c r="U40" t="n">
-        <v>0.481979965318276</v>
+        <v>-0.285680180423581</v>
       </c>
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-      <c r="Y40"/>
+      <c r="Y40" t="n">
+        <v>0.76034968904957</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0539915356572028</v>
+        <v>-0.421201726689894</v>
       </c>
       <c r="C41" t="n">
-        <v>0.400386179670203</v>
+        <v>-1.26958862272431</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.299978537825025</v>
+        <v>-1.48378529941522</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.176783089606022</v>
+        <v>2.0464516712277</v>
       </c>
       <c r="F41" t="n">
-        <v>1.04212603227995</v>
+        <v>0.934320235413683</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.0892722506734051</v>
+        <v>1.27081120531812</v>
       </c>
       <c r="H41" t="n">
-        <v>0.304741127754059</v>
+        <v>-1.41298112986512</v>
       </c>
       <c r="I41" t="n">
-        <v>0.577782348501927</v>
+        <v>2.3364605776461</v>
       </c>
       <c r="J41" t="n">
-        <v>1.22390331007544</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.2141812524548</v>
-      </c>
+        <v>-0.863791076835264</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" t="n">
-        <v>0.559028630882077</v>
+        <v>-0.71384342898999</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.366443076290342</v>
+        <v>1.64200409463436</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.660606501997352</v>
+        <v>-0.872804587576069</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.165494131308538</v>
+        <v>1.5188450395005</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.09539910825902</v>
-      </c>
-      <c r="Q41"/>
+        <v>-1.03933064418481</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.0886206339355</v>
+      </c>
       <c r="R41" t="n">
-        <v>-0.623830920282823</v>
+        <v>-0.43951127237083</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.331166202084728</v>
+        <v>0.787167177765238</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.471425552564987</v>
+        <v>-0.698928169832613</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.405348382084302</v>
+        <v>-0.508261511994393</v>
       </c>
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
-      <c r="Y41"/>
+      <c r="Y41" t="n">
+        <v>1.08752122024542</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.37250681110044</v>
+        <v>-0.318020438965024</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.418920761247254</v>
+        <v>-1.06962737889297</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.429662773613293</v>
+        <v>-1.19625208579913</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.103198677543058</v>
+        <v>0.836448638681556</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.833885637022333</v>
+        <v>-0.0458708547998745</v>
       </c>
       <c r="G42" t="n">
-        <v>0.806667616858892</v>
+        <v>0.448496297699774</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.681641273404583</v>
+        <v>-1.06790430829575</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.322105266032758</v>
+        <v>1.22543866351608</v>
       </c>
       <c r="J42" t="n">
-        <v>0.761346407368947</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-0.0805642526243557</v>
-      </c>
+        <v>-0.295888744187957</v>
+      </c>
+      <c r="K42"/>
       <c r="L42" t="n">
-        <v>0.198387942580553</v>
+        <v>-0.327405438537089</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.805238020866878</v>
+        <v>0.275731570119099</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0520993787657707</v>
+        <v>0.450183418855025</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.128879229770975</v>
+        <v>1.58011000892356</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.172105220336445</v>
+        <v>0.617349603934479</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.994605182863227</v>
+        <v>0.90474745842555</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.15253875791064</v>
+        <v>1.1972893281826</v>
       </c>
       <c r="S42" t="n">
-        <v>0.437270533055598</v>
+        <v>0.826235255773953</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0117205247875272</v>
+        <v>0.544728189917505</v>
       </c>
       <c r="U42" t="n">
-        <v>-0.384561773653202</v>
+        <v>0.567548257264532</v>
       </c>
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42"/>
+      <c r="Y42" t="n">
+        <v>0.44995618509453</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0541315552990958</v>
+        <v>-0.919659972609204</v>
       </c>
       <c r="C43" t="n">
-        <v>0.531040486325354</v>
+        <v>-0.377280483972209</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00386198583237875</v>
+        <v>-0.221107289660629</v>
       </c>
       <c r="E43" t="n">
-        <v>0.989045389057027</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.523874841871755</v>
-      </c>
+        <v>-0.309708470280211</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>-0.285911718483979</v>
+        <v>-1.11250827269438</v>
       </c>
       <c r="H43" t="n">
-        <v>0.233366447008642</v>
+        <v>-0.426771252335145</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0930581506586853</v>
+        <v>-0.120602759363927</v>
       </c>
       <c r="J43" t="n">
-        <v>0.88833930247564</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.334731475419903</v>
-      </c>
+        <v>-0.227614176051763</v>
+      </c>
+      <c r="K43"/>
       <c r="L43" t="n">
-        <v>0.915892976897722</v>
+        <v>-0.628827071090352</v>
       </c>
       <c r="M43" t="n">
-        <v>0.529813422026398</v>
+        <v>-0.520385240821443</v>
       </c>
       <c r="N43" t="n">
-        <v>0.950728532771447</v>
+        <v>0.780930420462799</v>
       </c>
       <c r="O43" t="n">
-        <v>0.00987197605557757</v>
+        <v>0.0484857733470833</v>
       </c>
       <c r="P43" t="n">
-        <v>0.674247510259248</v>
+        <v>-0.241669783979229</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>-0.5649193999863</v>
+        <v>0.0515289077952006</v>
       </c>
       <c r="S43" t="n">
-        <v>0.626120121209529</v>
+        <v>-0.0376033579743053</v>
       </c>
       <c r="T43" t="n">
-        <v>0.287803997560392</v>
+        <v>-0.87659336408263</v>
       </c>
       <c r="U43" t="n">
-        <v>0.395224745407922</v>
+        <v>-0.276405958274797</v>
       </c>
       <c r="V43"/>
       <c r="W43"/>
@@ -2584,128 +3413,130 @@
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" t="n">
-        <v>-0.608349526158983</v>
-      </c>
+      <c r="B44"/>
       <c r="C44" t="n">
-        <v>0.720333639386648</v>
+        <v>1.5919311630935</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.441436094094242</v>
+        <v>1.08673958445992</v>
       </c>
       <c r="E44" t="n">
-        <v>0.188782174592903</v>
+        <v>3.20795635797417</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.23544706909923</v>
+        <v>-0.188124620191741</v>
       </c>
       <c r="G44" t="n">
-        <v>1.54628841218846</v>
+        <v>1.09891486869734</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.15739032164374</v>
+        <v>1.37679981355568</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.603313315992577</v>
+        <v>2.81378567054898</v>
       </c>
       <c r="J44" t="n">
-        <v>0.029665488542305</v>
+        <v>2.76186474667468</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>0.283355644012849</v>
+        <v>1.94227369205628</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.02275586931575</v>
+        <v>2.2793644740677</v>
       </c>
       <c r="N44" t="n">
-        <v>0.17604822759414</v>
+        <v>2.6827256797075</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.190546432360554</v>
+        <v>4.15323872469205</v>
       </c>
       <c r="P44" t="n">
-        <v>0.020247672980758</v>
-      </c>
-      <c r="Q44"/>
+        <v>1.47636899184819</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3.197814292711</v>
+      </c>
       <c r="R44" t="n">
-        <v>-0.211450278207162</v>
+        <v>0.215208967850544</v>
       </c>
       <c r="S44" t="n">
-        <v>-0.0620167342554811</v>
+        <v>2.7232074879749</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.540446420758203</v>
+        <v>1.43305416116759</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.410545034192077</v>
-      </c>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
+        <v>3.60021889991685</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.317130532095731</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.0611973452635282</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.38925195170731</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.751960675429164</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303176286264975</v>
+        <v>-0.0813927885145653</v>
       </c>
       <c r="C45" t="n">
-        <v>0.440989190139708</v>
+        <v>-1.33902661455288</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00711163740835498</v>
+        <v>-1.61715193677684</v>
       </c>
       <c r="E45" t="n">
-        <v>0.283577751698928</v>
+        <v>0.426361360274239</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0216705721725922</v>
+        <v>-0.119977273935272</v>
       </c>
       <c r="G45" t="n">
-        <v>0.343499995517479</v>
-      </c>
-      <c r="H45" t="n">
-        <v>-0.595834789079873</v>
-      </c>
+        <v>0.0280471500192072</v>
+      </c>
+      <c r="H45"/>
       <c r="I45" t="n">
-        <v>1.55499745298116</v>
+        <v>1.24850833049157</v>
       </c>
       <c r="J45" t="n">
-        <v>0.504837579504434</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-1.03330151107883</v>
-      </c>
+        <v>-0.97074141189254</v>
+      </c>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>-0.156588232292152</v>
+        <v>-0.785978520541198</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.670682879812094</v>
+        <v>-0.772861330424288</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.43528680717466</v>
+        <v>-0.459370835566353</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.279193036083074</v>
+        <v>1.5188450395005</v>
       </c>
       <c r="P45" t="n">
-        <v>-1.63398720954719</v>
-      </c>
-      <c r="Q45"/>
-      <c r="R45" t="n">
-        <v>-1.44859220443414</v>
-      </c>
+        <v>-0.364386839395473</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.34152209352754</v>
+      </c>
+      <c r="R45"/>
       <c r="S45" t="n">
-        <v>-1.68560579624736</v>
-      </c>
-      <c r="T45" t="n">
-        <v>-1.50673857546323</v>
-      </c>
+        <v>2.44539004435737</v>
+      </c>
+      <c r="T45"/>
       <c r="U45" t="n">
-        <v>-0.537863010832564</v>
+        <v>0.178030927015611</v>
       </c>
       <c r="V45"/>
       <c r="W45"/>
@@ -2717,56 +3548,66 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.169182701453225</v>
+        <v>0.222065748191929</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.942497114099421</v>
+        <v>0.801069314264347</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.101564767002688</v>
+        <v>0.810782238786268</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.745818418477272</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.475219921476874</v>
-      </c>
+        <v>0.32383954067241</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="n">
-        <v>-0.354766547906608</v>
-      </c>
-      <c r="H46"/>
+        <v>-0.21353689063703</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.09602956871461</v>
+      </c>
       <c r="I46" t="n">
-        <v>0.917985468372159</v>
+        <v>0.296281026219321</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.313467632010879</v>
-      </c>
-      <c r="K46"/>
+        <v>0.546690463735601</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.119537021114828</v>
+      </c>
       <c r="L46" t="n">
-        <v>-0.872733783386405</v>
+        <v>0.455775555447456</v>
       </c>
       <c r="M46" t="n">
-        <v>0.622757580153836</v>
+        <v>0.404693377225792</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.18738910951792</v>
+        <v>-0.128623833958579</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.292682736649544</v>
+        <v>-0.012779196075976</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.94175183885471</v>
-      </c>
-      <c r="Q46"/>
-      <c r="R46"/>
+        <v>-0.303028311687351</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.0311981882215707</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.030311122232471</v>
+      </c>
       <c r="S46" t="n">
-        <v>-1.13830416789331</v>
-      </c>
-      <c r="T46"/>
+        <v>0.322691139217179</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.189397801417471</v>
+      </c>
       <c r="U46" t="n">
-        <v>-0.510580587266745</v>
-      </c>
-      <c r="V46"/>
+        <v>0.0945629276765563</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.467811337400886</v>
+      </c>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
@@ -2776,70 +3617,66 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>0.490830725100154</v>
+        <v>0.0477992309280045</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.291463542030646</v>
+        <v>-0.435670806197549</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.248309210582218</v>
+        <v>0.126858130326168</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.28997645501407</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-0.565690222162744</v>
-      </c>
+        <v>-0.352067784965996</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>-0.573335348417622</v>
+        <v>-0.935966089137894</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.76368293940426</v>
+        <v>-0.417634798810905</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.599130196852313</v>
+        <v>-0.819116019312929</v>
       </c>
       <c r="J47" t="n">
-        <v>0.429146449970644</v>
+        <v>-0.638840187600403</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.837868227293297</v>
+        <v>-0.741350311689717</v>
       </c>
       <c r="L47" t="n">
-        <v>0.430255358933575</v>
+        <v>-0.943129969992044</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.123294936425911</v>
+        <v>-1.07731125177056</v>
       </c>
       <c r="N47" t="n">
-        <v>0.702830835114709</v>
+        <v>-0.790117837174126</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.209817433169798</v>
+        <v>-1.11554864569104</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.133634641673004</v>
+        <v>-0.732538005644204</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0211618124013451</v>
+        <v>-0.405576446880419</v>
       </c>
       <c r="R47" t="n">
-        <v>0.200930363868498</v>
+        <v>-0.93055145253686</v>
       </c>
       <c r="S47" t="n">
-        <v>0.34155224864881</v>
+        <v>-0.554170167200651</v>
       </c>
       <c r="T47" t="n">
-        <v>0.287803997560392</v>
+        <v>-0.787760766957622</v>
       </c>
       <c r="U47" t="n">
-        <v>0.484361764201007</v>
+        <v>-0.545358400589528</v>
       </c>
       <c r="V47"/>
       <c r="W47"/>
-      <c r="X47" t="n">
-        <v>0.155264717822271</v>
-      </c>
+      <c r="X47"/>
       <c r="Y47"/>
     </row>
     <row r="48">
@@ -2847,62 +3684,58 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>0.576234337994585</v>
+        <v>0.493912898732192</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.947079606094668</v>
+        <v>-0.143199119326332</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.254617933255028</v>
+        <v>0.514437865142031</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.07288934611657</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.585355625527923</v>
-      </c>
+        <v>-0.29620260182967</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="n">
-        <v>-0.433959940305609</v>
+        <v>-0.150817957005123</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.455124704181765</v>
+        <v>-0.392158149560621</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.426768614317742</v>
+        <v>-0.964044425862045</v>
       </c>
       <c r="J48" t="n">
-        <v>0.26893355912412</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.666864103980956</v>
-      </c>
+        <v>-1.0133636856423</v>
+      </c>
+      <c r="K48"/>
       <c r="L48" t="n">
-        <v>0.460843731449201</v>
+        <v>0.937534916878739</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.231758306005255</v>
+        <v>-1.0188893296718</v>
       </c>
       <c r="N48" t="n">
-        <v>1.22961344263528</v>
+        <v>-0.128623833958579</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.171275431551311</v>
+        <v>-1.11554864569104</v>
       </c>
       <c r="P48" t="n">
-        <v>1.2897767688743</v>
+        <v>-0.977972116476693</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="n">
-        <v>0.200930363868498</v>
+        <v>-0.357671242343158</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0295623810958773</v>
+        <v>-0.623624528105033</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0117205247875271</v>
+        <v>-0.610095572707605</v>
       </c>
       <c r="U48" t="n">
-        <v>1.20388155395668</v>
+        <v>-0.971972619433584</v>
       </c>
       <c r="V48"/>
       <c r="W48"/>
@@ -2914,54 +3747,58 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>0.152827948199331</v>
+        <v>-0.0746612326870035</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.597851088224414</v>
+        <v>-0.207215715515086</v>
       </c>
       <c r="D49" t="n">
-        <v>1.24374066532103</v>
-      </c>
-      <c r="E49"/>
+        <v>0.233938499323468</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.529485784157186</v>
+      </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>-0.416384383245779</v>
-      </c>
-      <c r="H49"/>
+        <v>-0.529454482264418</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.604404992969886</v>
+      </c>
       <c r="I49" t="n">
-        <v>-0.506674726874631</v>
+        <v>0.131089311881001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.748310712838127</v>
+        <v>-0.560304701709636</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>1.08394020861937</v>
+        <v>-0.371201744121751</v>
       </c>
       <c r="M49" t="n">
-        <v>0.704812882935799</v>
+        <v>-0.435225978542368</v>
       </c>
       <c r="N49" t="n">
-        <v>0.269009864215417</v>
+        <v>-0.955491337978013</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.229088433979041</v>
+        <v>-0.564163920883508</v>
       </c>
       <c r="P49" t="n">
-        <v>0.481894616942045</v>
+        <v>-0.609820950227961</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="n">
-        <v>0.142018843571975</v>
+        <v>-0.93055145253686</v>
       </c>
       <c r="S49" t="n">
-        <v>0.489010146248455</v>
+        <v>-0.332784391817931</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0807413929807434</v>
+        <v>-0.165932587082563</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.407946708138189</v>
+        <v>-0.693745954970069</v>
       </c>
       <c r="V49"/>
       <c r="W49"/>
@@ -2972,144 +3809,130 @@
       <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B50" t="n">
-        <v>-0.640831883316022</v>
-      </c>
+      <c r="B50"/>
       <c r="C50" t="n">
-        <v>0.21516824739724</v>
+        <v>-0.710270799302629</v>
       </c>
       <c r="D50" t="n">
-        <v>0.876821800460408</v>
+        <v>-0.9448108773187</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0542296915794483</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-0.7145166385957</v>
-      </c>
+        <v>0.655961123933426</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>-0.602428891718167</v>
+        <v>-0.00679670199851948</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0244190299693112</v>
+        <v>-0.930857505432151</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.166419246873663</v>
+        <v>0.209449484067127</v>
       </c>
       <c r="J50" t="n">
-        <v>0.424941387218766</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-0.495859980668614</v>
-      </c>
+        <v>-0.705930803687993</v>
+      </c>
+      <c r="K50"/>
       <c r="L50" t="n">
-        <v>0.499437949610894</v>
+        <v>-0.62367456455098</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0900735572837916</v>
+        <v>-0.851350154404741</v>
       </c>
       <c r="N50" t="n">
-        <v>0.269009864215417</v>
+        <v>-0.211310584360522</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.244505234626436</v>
+        <v>-0.012779196075976</v>
       </c>
       <c r="P50" t="n">
-        <v>0.404953459615164</v>
+        <v>-0.180311256271107</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="n">
-        <v>0.554399485647636</v>
+        <v>-0.439511272370829</v>
       </c>
       <c r="S50" t="n">
-        <v>-0.102477111772296</v>
+        <v>0.10130536383446</v>
       </c>
       <c r="T50" t="n">
-        <v>0.425845733946825</v>
+        <v>-0.343597781332579</v>
       </c>
       <c r="U50" t="n">
-        <v>1.31741396736682</v>
+        <v>0.688113145198722</v>
       </c>
       <c r="V50"/>
-      <c r="W50" t="n">
-        <v>0.106430568556099</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.441568452813694</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.112444111277201</v>
-      </c>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.302606500051466</v>
+        <v>0.420781276221559</v>
       </c>
       <c r="C51" t="n">
-        <v>0.301915886563058</v>
+        <v>1.40284423028388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.128081623812508</v>
+        <v>1.08278641119546</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.469287674212182</v>
-      </c>
-      <c r="F51" t="n">
-        <v>-0.661813357577022</v>
-      </c>
+        <v>0.577995428787124</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
-        <v>-0.548511218083798</v>
+        <v>-0.208891043701333</v>
       </c>
       <c r="H51" t="n">
-        <v>0.940054220103375</v>
+        <v>1.81411967551401</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.445009290296719</v>
+        <v>-0.260336786798047</v>
       </c>
       <c r="J51" t="n">
-        <v>1.02794738583796</v>
+        <v>0.807554565111466</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.227139215463506</v>
+        <v>0.541859108905736</v>
       </c>
       <c r="L51" t="n">
-        <v>1.61829264207137</v>
+        <v>1.8830198668535</v>
       </c>
       <c r="M51" t="n">
-        <v>0.376980559498854</v>
+        <v>1.41487567056628</v>
       </c>
       <c r="N51" t="n">
-        <v>0.485920349665063</v>
+        <v>0.202123167649195</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.219452933574419</v>
+        <v>0.0484857733470836</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.325987534990207</v>
+        <v>1.2309348810157</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.994605182863226</v>
+        <v>-0.0779954705539268</v>
       </c>
       <c r="R51" t="n">
-        <v>1.496983810392</v>
+        <v>1.03360926812726</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.439715910563344</v>
+        <v>-0.272011826026597</v>
       </c>
       <c r="T51" t="n">
-        <v>1.25409615226542</v>
+        <v>0.81122598129253</v>
       </c>
       <c r="U51" t="n">
-        <v>1.25786899529857</v>
-      </c>
-      <c r="V51"/>
+        <v>-0.00745351596006551</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.120895064721577</v>
+      </c>
       <c r="W51"/>
-      <c r="X51" t="n">
-        <v>-0.307225931010027</v>
-      </c>
+      <c r="X51"/>
       <c r="Y51"/>
     </row>
     <row r="52">
@@ -3117,72 +3940,68 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.261719616916731</v>
+        <v>0.60124082484684</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.566093353001547</v>
+        <v>0.851611220708791</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.24555469786592</v>
+        <v>1.34698836243874</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.346472409950509</v>
+        <v>-0.0150349768138754</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.891695141742383</v>
+        <v>-0.233199658634921</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.630179248916823</v>
+        <v>0.00714083880857134</v>
       </c>
       <c r="H52" t="n">
-        <v>1.14649175825935</v>
+        <v>0.396915173080946</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0511846757545842</v>
+        <v>-0.480731852335002</v>
       </c>
       <c r="J52" t="n">
-        <v>1.45476125515351</v>
+        <v>0.129939342626806</v>
       </c>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>1.85431403493886</v>
+        <v>0.0925238444217295</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.232924969077984</v>
+        <v>0.207303990572402</v>
       </c>
       <c r="N52" t="n">
-        <v>0.640856410700524</v>
+        <v>-0.87280458757607</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.225234233817192</v>
+        <v>-0.870488767998804</v>
       </c>
       <c r="P52" t="n">
-        <v>0.78965924624957</v>
+        <v>-0.364386839395473</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.486721685230941</v>
+        <v>-0.733157423206911</v>
       </c>
       <c r="R52" t="n">
-        <v>2.73412573661898</v>
+        <v>-0.603191332426173</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.622046307454975</v>
+        <v>-0.371852469826646</v>
       </c>
       <c r="T52" t="n">
-        <v>2.08234657058402</v>
+        <v>-0.432430378457588</v>
       </c>
       <c r="U52" t="n">
-        <v>2.55371193895124</v>
+        <v>-0.415519290506554</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.34236839400873</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.915426618390072</v>
-      </c>
-      <c r="X52" t="n">
-        <v>1.12429274394709</v>
-      </c>
+        <v>-0.860282272149194</v>
+      </c>
+      <c r="W52"/>
+      <c r="X52"/>
       <c r="Y52"/>
     </row>
     <row r="53">
@@ -3190,62 +4009,58 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.104558711165269</v>
+        <v>-1.00350823199732</v>
       </c>
       <c r="C53" t="n">
-        <v>0.368415305284766</v>
+        <v>-1.03906898893482</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.260971083552295</v>
+        <v>-1.07547384577193</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0782746233809073</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-0.579761157329208</v>
-      </c>
+        <v>-0.792850218942723</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>-0.518942927971377</v>
+        <v>0.411329522214199</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00732048007645314</v>
+        <v>-0.911354691178485</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.194363620994342</v>
+        <v>-0.277375396143378</v>
       </c>
       <c r="J53" t="n">
-        <v>0.676404139781026</v>
-      </c>
-      <c r="K53"/>
+        <v>-0.831824371522942</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0383212350011912</v>
+      </c>
       <c r="L53" t="n">
-        <v>0.71763500688903</v>
+        <v>-0.88129989151958</v>
       </c>
       <c r="M53" t="n">
-        <v>0.744349798178293</v>
+        <v>-0.966026106155219</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.195798318890968</v>
+        <v>-0.293997334762466</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.205963233007949</v>
+        <v>-0.135309134922094</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.287516956326767</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>-0.0211618124013452</v>
-      </c>
+        <v>-0.0575942008548627</v>
+      </c>
+      <c r="Q53"/>
       <c r="R53" t="n">
-        <v>0.259841884165021</v>
+        <v>-0.357671242343158</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.0930605021711958</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.04703354768577</v>
-      </c>
+        <v>-0.0810123335395444</v>
+      </c>
+      <c r="T53"/>
       <c r="U53" t="n">
-        <v>-0.44302410986567</v>
+        <v>-0.109469959596688</v>
       </c>
       <c r="V53"/>
       <c r="W53"/>
@@ -3257,67 +4072,132 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.301584327973097</v>
+        <v>-0.351732070549454</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.647938791428265</v>
+        <v>0.883083683187604</v>
       </c>
       <c r="D54" t="n">
-        <v>1.13852183376842</v>
+        <v>0.892919197549042</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.336259626781628</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1.7221082124328</v>
-      </c>
+        <v>-0.107734346633493</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" t="n">
-        <v>3.06874519608883</v>
+        <v>-0.578235875089235</v>
       </c>
       <c r="H54" t="n">
-        <v>0.108499972561714</v>
+        <v>0.926653776457548</v>
       </c>
       <c r="I54" t="n">
-        <v>0.800881353024472</v>
+        <v>0.0316640149953003</v>
       </c>
       <c r="J54" t="n">
-        <v>0.879929176971885</v>
+        <v>0.831628256766424</v>
       </c>
       <c r="K54" t="n">
-        <v>0.261443994000328</v>
+        <v>0.249482278896646</v>
       </c>
       <c r="L54" t="n">
-        <v>1.02918324547412</v>
+        <v>0.826756026282241</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0392588990049137</v>
+        <v>0.911257579020316</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.00987504564841389</v>
+        <v>0.450183418855025</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.107681128880807</v>
+        <v>-0.135309134922094</v>
       </c>
       <c r="P54" t="n">
-        <v>0.597306352932367</v>
-      </c>
-      <c r="Q54"/>
+        <v>0.0651228545613812</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.405576446880419</v>
+      </c>
       <c r="R54" t="n">
-        <v>0.200930363868498</v>
+        <v>0.297048997878216</v>
       </c>
       <c r="S54" t="n">
-        <v>0.183435990731437</v>
+        <v>-0.137444001774355</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.264362947985338</v>
+        <v>0.278230398542479</v>
       </c>
       <c r="U54" t="n">
-        <v>1.72080408723286</v>
+        <v>0.335692703544936</v>
       </c>
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.843781875320925</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-0.474581927810063</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-0.599699928490164</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.34408704451795</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="n">
+        <v>-0.0323488601448522</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.205212254372327</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-0.159978941983983</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-0.432043229777478</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" t="n">
+        <v>-0.487133141257621</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.577917771147059</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.698243670060856</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0484857733470836</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-0.241669783979229</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.405576446880419</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.0515289077952006</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.150466694443927</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-0.698928169832613</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.233676259908314</v>
+      </c>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
